--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,17 +4,185 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INFO" sheetId="2" r:id="rId1"/>
+    <sheet name="AMT" sheetId="1" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+  <si>
+    <t>订金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退订金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款(张旭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上查广发帐号收到大哥借给我们的肆万块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款(张锐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午查广发帐号收到二哥还我们的肆万块钱和壹万元房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间标识：</t>
+  </si>
+  <si>
+    <t>1单元402</t>
+  </si>
+  <si>
+    <t>所在层：</t>
+  </si>
+  <si>
+    <t>房屋用途：</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>建筑面积：</t>
+  </si>
+  <si>
+    <t>116.58平方米</t>
+  </si>
+  <si>
+    <t>销售状态：</t>
+  </si>
+  <si>
+    <t>可售</t>
+  </si>
+  <si>
+    <t>套内面积：</t>
+  </si>
+  <si>
+    <t>96.99平方米</t>
+  </si>
+  <si>
+    <t>备案状态：</t>
+  </si>
+  <si>
+    <t>未备案</t>
+  </si>
+  <si>
+    <t>分摊面积：</t>
+  </si>
+  <si>
+    <t>19.59平方米</t>
+  </si>
+  <si>
+    <t>按揭状态：</t>
+  </si>
+  <si>
+    <t>未抵押</t>
+  </si>
+  <si>
+    <t>公示价格：</t>
+  </si>
+  <si>
+    <t>查封状态：</t>
+  </si>
+  <si>
+    <t>未查封</t>
+  </si>
+  <si>
+    <t>公示单价：</t>
+  </si>
+  <si>
+    <t>5707.778 /平方米</t>
+  </si>
+  <si>
+    <r>
+      <t>项目名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东莞市清溪镇清凤大道388号翡翠半岛花园2号楼1单元402</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dgfc.dg.gov.cn/dgwebsite_v2/Vendition/RoomInfor.aspx?id=447775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天在东莞房产局查到房子资料了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-6-7：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,67 +192,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退订金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款(张旭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上查广发帐号收到大哥借给我们的肆万块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款(张锐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午查广发帐号收到二哥还我们的肆万块钱和壹万元房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
+    <t>交定金5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交定金15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在东莞房管局查到房子的资料了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交了480000,签了合同，不过没拿到手上，律师去办了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天查房子是已售状态了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +254,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,15 +303,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,9 +334,19 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,10 +639,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6">
+        <v>665412.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,25 +784,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -522,10 +817,10 @@
         <v>5000</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -540,10 +835,10 @@
         <v>-5000</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -558,10 +853,10 @@
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -578,13 +873,13 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -601,17 +896,32 @@
         <v>50000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B7">
+        <f>SUM(C7:E7)</f>
+        <v>480000</v>
+      </c>
+      <c r="C7">
+        <v>480000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
@@ -684,4 +994,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>41041</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>41071</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
     <sheet name="AMT" sheetId="1" r:id="rId2"/>
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +216,393 @@
     <t>今天查房子是已售状态了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>交易渠道</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>转入</t>
+  </si>
+  <si>
+    <t>转出</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>账户余额</t>
+  </si>
+  <si>
+    <t>对方姓名</t>
+  </si>
+  <si>
+    <t>对方账号</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 14:11:01	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中间业务平台	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人民币	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网银入账	</t>
+  </si>
+  <si>
+    <t>住房公积金转入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:35:45	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网上银行	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王季秋	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6225680621009381366	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活期转定期	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:34:54	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:34:27	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:33:35	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:32:20	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:32:02	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:30:38	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:30:10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:29:52	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 12:29:13	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-29 11:54:14	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付系统	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存款户转入	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-17 16:21:39	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柜台	</t>
+  </si>
+  <si>
+    <t>10年合同</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-15 16:42:22	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代发工资	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-08 17:53:06	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存款户现金取款	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-02 16:26:29	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-21 14:00:58	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存款户现金存款	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-16 13:30:00	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-13 16:32:37	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加班费　	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-13 16:32:31	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-13 13:24:40	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-10 20:53:39	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01 19:03:51	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01 11:07:44	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-21 00:30:10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">批处理	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存款结息	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 15:10:44	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:06:22	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:05:52	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:05:24	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:04:55	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:04:26	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 13:03:54	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-16 12:40:39	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-15 16:12:36	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-15 12:27:16	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-15 08:23:56	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:10:30	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:06:23	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定期转活期	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:05:57	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:04:49	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:03:00	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:02:02	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 10:00:29	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 09:58:55	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 09:58:10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 09:57:35	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-10 09:47:27	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-08 21:02:12	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-08 13:24:14	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-03 11:33:14	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-01 02:23:42	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-31 18:28:19	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-27 18:17:42	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-27 13:04:48	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-26 16:57:27	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-26 11:12:17	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-26 11:11:48	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-24 18:14:42	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-20 13:49:34	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-19 09:27:40	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-16 18:28:21	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-15 16:44:58	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-15 16:44:13	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-15 12:32:24	</t>
+  </si>
+  <si>
+    <t>二哥还钱+一年房租</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-15 11:46:59	</t>
+  </si>
+  <si>
+    <t>借大哥钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-13 15:50:53	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-11 17:59:14	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-11 15:09:02	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-11 15:08:07	</t>
+  </si>
+  <si>
+    <t>中国银行转入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-11 10:28:30	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-05 14:40:11	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-03 18:15:07	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-02 18:36:29	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-16 18:22:59	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-13 17:49:32	</t>
+  </si>
+  <si>
+    <t>愚人节转入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-13 16:29:45	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-13 16:29:35	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-13 12:27:04	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-02 15:05:21	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-21 00:30:58	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-15 15:41:42	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-15 15:41:25	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总计：	</t>
+  </si>
+  <si>
+    <t>装修预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午付亚源装修预付款并量房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝谷橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +667,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,8 +720,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,9 +752,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -769,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -778,7 +1197,8 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,13 +1344,55 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>41168</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B9">
+        <v>11800</v>
+      </c>
+      <c r="C9">
+        <v>11800</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
@@ -1000,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1062,4 +1524,2817 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="9"/>
+    <col min="9" max="9" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="256" width="9" style="9"/>
+    <col min="257" max="257" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="260" max="261" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9" style="9"/>
+    <col min="265" max="265" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="268" max="512" width="9" style="9"/>
+    <col min="513" max="513" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="516" max="517" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9" style="9"/>
+    <col min="521" max="521" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="524" max="768" width="9" style="9"/>
+    <col min="769" max="769" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="9" style="9"/>
+    <col min="777" max="777" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="780" max="1024" width="9" style="9"/>
+    <col min="1025" max="1025" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1029" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9" style="9"/>
+    <col min="1033" max="1033" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1280" width="9" style="9"/>
+    <col min="1281" max="1281" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1285" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9" style="9"/>
+    <col min="1289" max="1289" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1536" width="9" style="9"/>
+    <col min="1537" max="1537" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1541" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9" style="9"/>
+    <col min="1545" max="1545" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1792" width="9" style="9"/>
+    <col min="1793" max="1793" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1797" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9" style="9"/>
+    <col min="1801" max="1801" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1804" max="2048" width="9" style="9"/>
+    <col min="2049" max="2049" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2053" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9" style="9"/>
+    <col min="2057" max="2057" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2304" width="9" style="9"/>
+    <col min="2305" max="2305" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2309" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9" style="9"/>
+    <col min="2313" max="2313" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2560" width="9" style="9"/>
+    <col min="2561" max="2561" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2565" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9" style="9"/>
+    <col min="2569" max="2569" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2816" width="9" style="9"/>
+    <col min="2817" max="2817" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2821" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9" style="9"/>
+    <col min="2825" max="2825" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2828" max="3072" width="9" style="9"/>
+    <col min="3073" max="3073" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3077" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9" style="9"/>
+    <col min="3081" max="3081" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3328" width="9" style="9"/>
+    <col min="3329" max="3329" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3333" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9" style="9"/>
+    <col min="3337" max="3337" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3584" width="9" style="9"/>
+    <col min="3585" max="3585" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3589" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9" style="9"/>
+    <col min="3593" max="3593" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3840" width="9" style="9"/>
+    <col min="3841" max="3841" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3845" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9" style="9"/>
+    <col min="3849" max="3849" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3852" max="4096" width="9" style="9"/>
+    <col min="4097" max="4097" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4101" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9" style="9"/>
+    <col min="4105" max="4105" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4352" width="9" style="9"/>
+    <col min="4353" max="4353" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4357" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9" style="9"/>
+    <col min="4361" max="4361" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4608" width="9" style="9"/>
+    <col min="4609" max="4609" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4613" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9" style="9"/>
+    <col min="4617" max="4617" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4864" width="9" style="9"/>
+    <col min="4865" max="4865" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4869" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9" style="9"/>
+    <col min="4873" max="4873" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4876" max="5120" width="9" style="9"/>
+    <col min="5121" max="5121" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5125" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9" style="9"/>
+    <col min="5129" max="5129" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5376" width="9" style="9"/>
+    <col min="5377" max="5377" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5381" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9" style="9"/>
+    <col min="5385" max="5385" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5632" width="9" style="9"/>
+    <col min="5633" max="5633" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5637" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9" style="9"/>
+    <col min="5641" max="5641" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5888" width="9" style="9"/>
+    <col min="5889" max="5889" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5893" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9" style="9"/>
+    <col min="5897" max="5897" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5900" max="6144" width="9" style="9"/>
+    <col min="6145" max="6145" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6149" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9" style="9"/>
+    <col min="6153" max="6153" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6400" width="9" style="9"/>
+    <col min="6401" max="6401" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6405" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9" style="9"/>
+    <col min="6409" max="6409" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6656" width="9" style="9"/>
+    <col min="6657" max="6657" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6661" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9" style="9"/>
+    <col min="6665" max="6665" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6912" width="9" style="9"/>
+    <col min="6913" max="6913" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6917" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9" style="9"/>
+    <col min="6921" max="6921" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6924" max="7168" width="9" style="9"/>
+    <col min="7169" max="7169" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7173" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9" style="9"/>
+    <col min="7177" max="7177" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7424" width="9" style="9"/>
+    <col min="7425" max="7425" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7429" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9" style="9"/>
+    <col min="7433" max="7433" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7680" width="9" style="9"/>
+    <col min="7681" max="7681" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7685" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9" style="9"/>
+    <col min="7689" max="7689" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7936" width="9" style="9"/>
+    <col min="7937" max="7937" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7941" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9" style="9"/>
+    <col min="7945" max="7945" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7948" max="8192" width="9" style="9"/>
+    <col min="8193" max="8193" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8197" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9" style="9"/>
+    <col min="8201" max="8201" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8448" width="9" style="9"/>
+    <col min="8449" max="8449" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8453" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9" style="9"/>
+    <col min="8457" max="8457" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8704" width="9" style="9"/>
+    <col min="8705" max="8705" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8709" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9" style="9"/>
+    <col min="8713" max="8713" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8960" width="9" style="9"/>
+    <col min="8961" max="8961" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8965" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9" style="9"/>
+    <col min="8969" max="8969" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8972" max="9216" width="9" style="9"/>
+    <col min="9217" max="9217" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9221" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9" style="9"/>
+    <col min="9225" max="9225" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9472" width="9" style="9"/>
+    <col min="9473" max="9473" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9477" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9" style="9"/>
+    <col min="9481" max="9481" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9728" width="9" style="9"/>
+    <col min="9729" max="9729" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9733" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9" style="9"/>
+    <col min="9737" max="9737" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9984" width="9" style="9"/>
+    <col min="9985" max="9985" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9989" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9" style="9"/>
+    <col min="9993" max="9993" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9996" max="10240" width="9" style="9"/>
+    <col min="10241" max="10241" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10245" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9" style="9"/>
+    <col min="10249" max="10249" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10496" width="9" style="9"/>
+    <col min="10497" max="10497" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10501" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9" style="9"/>
+    <col min="10505" max="10505" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10752" width="9" style="9"/>
+    <col min="10753" max="10753" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10757" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9" style="9"/>
+    <col min="10761" max="10761" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10764" max="11008" width="9" style="9"/>
+    <col min="11009" max="11009" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11013" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9" style="9"/>
+    <col min="11017" max="11017" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11264" width="9" style="9"/>
+    <col min="11265" max="11265" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11269" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9" style="9"/>
+    <col min="11273" max="11273" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11520" width="9" style="9"/>
+    <col min="11521" max="11521" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11525" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9" style="9"/>
+    <col min="11529" max="11529" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11776" width="9" style="9"/>
+    <col min="11777" max="11777" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11781" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9" style="9"/>
+    <col min="11785" max="11785" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11788" max="12032" width="9" style="9"/>
+    <col min="12033" max="12033" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12037" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9" style="9"/>
+    <col min="12041" max="12041" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12288" width="9" style="9"/>
+    <col min="12289" max="12289" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12293" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9" style="9"/>
+    <col min="12297" max="12297" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12544" width="9" style="9"/>
+    <col min="12545" max="12545" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12549" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9" style="9"/>
+    <col min="12553" max="12553" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12800" width="9" style="9"/>
+    <col min="12801" max="12801" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12805" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9" style="9"/>
+    <col min="12809" max="12809" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12812" max="13056" width="9" style="9"/>
+    <col min="13057" max="13057" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13061" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9" style="9"/>
+    <col min="13065" max="13065" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13312" width="9" style="9"/>
+    <col min="13313" max="13313" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13317" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9" style="9"/>
+    <col min="13321" max="13321" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13568" width="9" style="9"/>
+    <col min="13569" max="13569" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13573" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9" style="9"/>
+    <col min="13577" max="13577" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13824" width="9" style="9"/>
+    <col min="13825" max="13825" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13829" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9" style="9"/>
+    <col min="13833" max="13833" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13836" max="14080" width="9" style="9"/>
+    <col min="14081" max="14081" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14085" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9" style="9"/>
+    <col min="14089" max="14089" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14336" width="9" style="9"/>
+    <col min="14337" max="14337" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14341" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9" style="9"/>
+    <col min="14345" max="14345" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14592" width="9" style="9"/>
+    <col min="14593" max="14593" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14597" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9" style="9"/>
+    <col min="14601" max="14601" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14848" width="9" style="9"/>
+    <col min="14849" max="14849" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14853" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9" style="9"/>
+    <col min="14857" max="14857" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14860" max="15104" width="9" style="9"/>
+    <col min="15105" max="15105" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15109" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9" style="9"/>
+    <col min="15113" max="15113" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15360" width="9" style="9"/>
+    <col min="15361" max="15361" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15365" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9" style="9"/>
+    <col min="15369" max="15369" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15616" width="9" style="9"/>
+    <col min="15617" max="15617" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15621" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9" style="9"/>
+    <col min="15625" max="15625" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15872" width="9" style="9"/>
+    <col min="15873" max="15873" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15877" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9" style="9"/>
+    <col min="15881" max="15881" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15884" max="16128" width="9" style="9"/>
+    <col min="16129" max="16129" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16133" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9" style="9"/>
+    <col min="16137" max="16137" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>20100.09</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100.09</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10100.09</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>30100.09</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>50100.09</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>60100.09</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>70100.09</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>90100.09</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100100.09</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>110100.09</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="10">
+        <v>140100.09</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>170100.09</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>140100.09</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6235</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>40100.089999999997</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>500</v>
+      </c>
+      <c r="G16" s="10">
+        <v>33865.089999999997</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>34365.089999999997</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>24365.09</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>420</v>
+      </c>
+      <c r="G19" s="10">
+        <v>17365.09</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1485.49</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>17785.09</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="10">
+        <v>6255</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>16299.6</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>10044.6</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>11044.6</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="G24" s="10">
+        <v>11066.8</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G25" s="10">
+        <v>11089.4</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9">
+        <v>84.67</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>11221.7</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>80000</v>
+      </c>
+      <c r="G27" s="10">
+        <v>11137.03</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="10">
+        <v>91137.03</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="10">
+        <v>92137.03</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="10">
+        <v>95137.03</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="10">
+        <v>98137.03</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="10">
+        <v>101137.03</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G33" s="10">
+        <v>104137.03</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>107137.03</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10">
+        <v>6220</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>107152.53</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>13</v>
+      </c>
+      <c r="G36" s="10">
+        <v>100932.53</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>500</v>
+      </c>
+      <c r="G37" s="10">
+        <v>100945.53</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>480000</v>
+      </c>
+      <c r="G38" s="10">
+        <v>101445.53</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="10">
+        <v>15021.82</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>581445.53</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="10">
+        <v>10038.5</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>566423.71</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="10">
+        <v>25032.39</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>556385.21</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="10">
+        <v>20056.47</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>531352.81999999995</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="10">
+        <v>10029.09</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>511296.35</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="10">
+        <v>10312.09</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>501267.26</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10">
+        <v>87622.76</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>490955.17</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="10">
+        <v>10331.94</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>403332.41</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="10">
+        <v>100044</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>393000.47</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="10">
+        <v>140051.32999999999</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>292956.46999999997</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="G49" s="10">
+        <v>152905.14000000001</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G50" s="10">
+        <v>152930.64000000001</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>155930.64000000001</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>155955.74</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="G53" s="10">
+        <v>105955.74</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="G54" s="10">
+        <v>105975.44</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="G55" s="10">
+        <v>105997.64</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="G56" s="10">
+        <v>106016.84</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="10">
+        <v>106033.34</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="10">
+        <v>108033.34</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="G59" s="10">
+        <v>110033.34</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="G60" s="10">
+        <v>110061.94</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="10">
+        <v>10001.94</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>110075.44</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="G62" s="10">
+        <v>100073.5</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="10">
+        <v>6474</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>100097</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="10">
+        <v>3032.69</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>93623</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>90590.31</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="10">
+        <v>40000</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>40590.31</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="9">
+        <v>590.30999999999995</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G68" s="10">
+        <v>3590.31</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>140000</v>
+      </c>
+      <c r="G69" s="10">
+        <v>8590.31</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="10">
+        <v>140000</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>148590.31</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0</v>
+      </c>
+      <c r="E71" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="G71" s="10">
+        <v>8590.31</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>110000</v>
+      </c>
+      <c r="G72" s="10">
+        <v>8616.41</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0</v>
+      </c>
+      <c r="E73" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="G73" s="10">
+        <v>118616.41</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="G74" s="10">
+        <v>118679.61</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9">
+        <v>34</v>
+      </c>
+      <c r="G75" s="10">
+        <v>118690.71</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="10">
+        <v>80000</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>118724.71</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="10">
+        <v>7824.24</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>38724.71</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="10">
+        <v>6465</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>30900.47</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="G79" s="10">
+        <v>24435.47</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>24449.17</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="9">
+        <v>13.09</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>9449.17</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="10">
+        <v>6343</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="10">
+        <v>9436.08</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="10">
+        <v>2450.9899999999998</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>3093.08</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1033425.5</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1013967.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,16 @@
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="194">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +56,6 @@
   </si>
   <si>
     <t>还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款(张锐)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +601,64 @@
   </si>
   <si>
     <t>好莱客衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-15 16:31:32	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-04 13:06:36	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-31 16:16:12	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-29 14:15:29	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-25 17:51:54	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-21 10:42:22	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-15 16:26:32	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-28 15:11:56	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-28 15:11:20	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-21 00:39:18	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-16 15:18:10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-14 17:19:30	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-13 18:52:31	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 14:22:46	</t>
+  </si>
+  <si>
+    <t>还款(王冠军)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款(张锐40000)+房租10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行广州转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +817,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1122,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1074,31 +1135,31 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
@@ -1106,55 +1167,55 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="6">
         <v>665412.75</v>
@@ -1162,16 +1223,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1188,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1204,25 +1265,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1248,7 +1309,7 @@
         <v>41041</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B6" si="0">SUM(C3:E3)</f>
+        <f>SUM(C3:E3)</f>
         <v>-5000</v>
       </c>
       <c r="C3">
@@ -1266,7 +1327,7 @@
         <v>41042</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:E4)</f>
         <v>20000</v>
       </c>
       <c r="C4">
@@ -1284,7 +1345,7 @@
         <v>41044</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:E5)</f>
         <v>40000</v>
       </c>
       <c r="C5" s="3"/>
@@ -1307,7 +1368,7 @@
         <v>41044</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:E6)</f>
         <v>50000</v>
       </c>
       <c r="C6" s="5"/>
@@ -1319,89 +1380,140 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>41070</v>
-      </c>
-      <c r="B7">
-        <f>SUM(C7:E7)</f>
-        <v>480000</v>
-      </c>
-      <c r="C7">
-        <v>480000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
+      <c r="A7" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B8">
+        <f>SUM(C8:E8)</f>
+        <v>480000</v>
+      </c>
+      <c r="C8">
+        <v>480000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>41123</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>41150</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>41168</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>3000</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>3000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
         <v>171</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B12">
+        <v>11800</v>
+      </c>
+      <c r="C12">
+        <v>11800</v>
+      </c>
+      <c r="F12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="G12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>41175</v>
       </c>
-      <c r="B9">
-        <v>11800</v>
-      </c>
-      <c r="C9">
-        <v>11800</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s">
         <v>173</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>41175</v>
-      </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
@@ -1452,6 +1564,11 @@
       <c r="A29" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1474,10 +1591,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1485,7 +1602,7 @@
         <v>41040</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1493,7 +1610,7 @@
         <v>41041</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1501,7 +1618,7 @@
         <v>41067</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1509,7 +1626,7 @@
         <v>41070</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1517,7 +1634,7 @@
         <v>41071</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1528,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2247,2089 +2364,2460 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="12">
+        <v>6874</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="12">
+        <v>19994.86</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="12">
+        <v>13120.86</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1385.19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="12">
+        <v>15120.86</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="12">
+        <v>13735.67</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="12">
+        <v>15735.67</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>37.5</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="12">
+        <v>16735.669999999998</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6498</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="12">
+        <v>16773.169999999998</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="12">
+        <v>10275.17</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="12">
+        <v>13275.17</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>53.98</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="12">
+        <v>16275.17</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="12">
+        <v>16221.19</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6138</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="12">
+        <v>16238.09</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="12">
+        <v>10100.09</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10">
+      <c r="K14" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <v>20000</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>20100.09</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="F15"/>
+      <c r="G15">
+        <v>100.09</v>
+      </c>
+      <c r="H15" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="9">
-        <v>100.09</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="I15" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J15" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10100.09</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G5" s="10">
-        <v>30100.09</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>50100.09</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="10">
-        <v>60100.09</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G8" s="10">
-        <v>70100.09</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="10">
-        <v>90100.09</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="10">
-        <v>100100.09</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G11" s="10">
-        <v>110100.09</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G12" s="10">
-        <v>140100.09</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>170100.09</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100000</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>140100.09</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="10">
-        <v>6235</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>40100.089999999997</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>20100.09</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="9">
+        <v>100.09</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10100.09</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>30100.09</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="10">
+        <v>50100.09</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>60100.09</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>70100.09</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>90100.09</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="10">
+        <v>100100.09</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G25" s="10">
+        <v>110100.09</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>140100.09</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>170100.09</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>140100.09</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="10">
+        <v>6235</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>40100.089999999997</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>500</v>
+      </c>
+      <c r="G30" s="10">
+        <v>33865.089999999997</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>500</v>
-      </c>
-      <c r="G16" s="10">
-        <v>33865.089999999997</v>
-      </c>
-      <c r="J16" s="9" t="s">
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="B31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>34365.089999999997</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>34365.089999999997</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="B32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>24365.09</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="10">
-        <v>7000</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>24365.09</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>420</v>
-      </c>
-      <c r="G19" s="10">
-        <v>17365.09</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1485.49</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>17785.09</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="10">
-        <v>6255</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>16299.6</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="10">
-        <v>10044.6</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>22.2</v>
-      </c>
-      <c r="G23" s="10">
-        <v>11044.6</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>22.6</v>
-      </c>
-      <c r="G24" s="10">
-        <v>11066.8</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>132.30000000000001</v>
-      </c>
-      <c r="G25" s="10">
-        <v>11089.4</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="9">
-        <v>84.67</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>11221.7</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>80000</v>
-      </c>
-      <c r="G27" s="10">
-        <v>11137.03</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="10">
-        <v>91137.03</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G29" s="10">
-        <v>92137.03</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G30" s="10">
-        <v>95137.03</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="10">
-        <v>98137.03</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="10">
-        <v>101137.03</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="10">
-        <v>3000</v>
+      <c r="E33" s="9">
+        <v>420</v>
       </c>
       <c r="G33" s="10">
-        <v>104137.03</v>
+        <v>17365.09</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1485.49</v>
       </c>
       <c r="E34" s="9">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
-        <v>107137.03</v>
+        <v>17785.09</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="10">
-        <v>6220</v>
+        <v>6255</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="G35" s="10">
-        <v>107152.53</v>
+        <v>16299.6</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
-        <v>13</v>
+      <c r="E36" s="10">
+        <v>1000</v>
       </c>
       <c r="G36" s="10">
-        <v>100932.53</v>
+        <v>10044.6</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
       </c>
       <c r="E37" s="9">
-        <v>500</v>
+        <v>22.2</v>
       </c>
       <c r="G37" s="10">
-        <v>100945.53</v>
+        <v>11044.6</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="G38" s="10">
+        <v>11066.8</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>480000</v>
-      </c>
-      <c r="G38" s="10">
-        <v>101445.53</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="10">
-        <v>15021.82</v>
+        <v>63</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
       </c>
       <c r="E39" s="9">
-        <v>0</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="G39" s="10">
-        <v>581445.53</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>70</v>
+        <v>11089.4</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="10">
-        <v>10038.5</v>
+        <v>63</v>
+      </c>
+      <c r="D40" s="9">
+        <v>84.67</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="G40" s="10">
-        <v>566423.71</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>70</v>
+        <v>11221.7</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="10">
-        <v>25032.39</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>80000</v>
       </c>
       <c r="G41" s="10">
-        <v>556385.21</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>70</v>
+        <v>11137.03</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="10">
-        <v>20056.47</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1000</v>
       </c>
       <c r="G42" s="10">
-        <v>531352.81999999995</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>70</v>
+        <v>91137.03</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="10">
-        <v>10029.09</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3000</v>
       </c>
       <c r="G43" s="10">
-        <v>511296.35</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>70</v>
+        <v>92137.03</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="10">
-        <v>10312.09</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3000</v>
       </c>
       <c r="G44" s="10">
-        <v>501267.26</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>70</v>
+        <v>95137.03</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="10">
-        <v>87622.76</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>3000</v>
       </c>
       <c r="G45" s="10">
-        <v>490955.17</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>70</v>
+        <v>98137.03</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="10">
-        <v>10331.94</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3000</v>
       </c>
       <c r="G46" s="10">
-        <v>403332.41</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>70</v>
+        <v>101137.03</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="10">
-        <v>100044</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3000</v>
       </c>
       <c r="G47" s="10">
-        <v>393000.47</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>70</v>
+        <v>104137.03</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="10">
-        <v>140051.32999999999</v>
+        <v>63</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
       </c>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="G48" s="10">
-        <v>292956.46999999997</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>70</v>
+        <v>107137.03</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="9" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D49" s="10">
+        <v>6220</v>
       </c>
       <c r="E49" s="9">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10">
-        <v>152905.14000000001</v>
+        <v>107152.53</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
       </c>
-      <c r="E50" s="10">
-        <v>3000</v>
+      <c r="E50" s="9">
+        <v>13</v>
       </c>
       <c r="G50" s="10">
-        <v>152930.64000000001</v>
+        <v>100932.53</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="9">
-        <v>25.1</v>
+        <v>500</v>
       </c>
       <c r="G51" s="10">
-        <v>155930.64000000001</v>
+        <v>100945.53</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="11">
-        <v>50000</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>480000</v>
       </c>
       <c r="G52" s="10">
-        <v>155955.74</v>
+        <v>101445.53</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D53" s="10">
+        <v>15021.82</v>
       </c>
       <c r="E53" s="9">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="G53" s="10">
-        <v>105955.74</v>
+        <v>581445.53</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D54" s="10">
+        <v>10038.5</v>
       </c>
       <c r="E54" s="9">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="10">
-        <v>105975.44</v>
+        <v>566423.71</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D55" s="10">
+        <v>25032.39</v>
       </c>
       <c r="E55" s="9">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="10">
-        <v>105997.64</v>
+        <v>556385.21</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D56" s="10">
+        <v>20056.47</v>
       </c>
       <c r="E56" s="9">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="G56" s="10">
-        <v>106016.84</v>
+        <v>531352.81999999995</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>2000</v>
+        <v>63</v>
+      </c>
+      <c r="D57" s="10">
+        <v>10029.09</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
       </c>
       <c r="G57" s="10">
-        <v>106033.34</v>
+        <v>511296.35</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="9" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10">
-        <v>2000</v>
+        <v>63</v>
+      </c>
+      <c r="D58" s="10">
+        <v>10312.09</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
       </c>
       <c r="G58" s="10">
-        <v>108033.34</v>
+        <v>501267.26</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="9" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="10">
+        <v>87622.76</v>
       </c>
       <c r="E59" s="9">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="G59" s="10">
-        <v>110033.34</v>
+        <v>490955.17</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D60" s="10">
+        <v>10331.94</v>
       </c>
       <c r="E60" s="9">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="G60" s="10">
-        <v>110061.94</v>
+        <v>403332.41</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="9" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="10">
+        <v>100044</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>393000.47</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="10">
-        <v>10001.94</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <v>110075.44</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="J61" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="9" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D62" s="10">
+        <v>140051.32999999999</v>
       </c>
       <c r="E62" s="9">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="G62" s="10">
-        <v>100073.5</v>
+        <v>292956.46999999997</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="10">
-        <v>6474</v>
+        <v>63</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
       </c>
       <c r="E63" s="9">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="G63" s="10">
-        <v>100097</v>
+        <v>152905.14000000001</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="9" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="10">
-        <v>3032.69</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>3000</v>
       </c>
       <c r="G64" s="10">
-        <v>93623</v>
+        <v>152930.64000000001</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="10">
-        <v>50000</v>
+        <v>63</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0</v>
       </c>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>25.1</v>
       </c>
       <c r="G65" s="10">
-        <v>90590.31</v>
+        <v>155930.64000000001</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="9" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>155955.74</v>
+      </c>
+      <c r="J66" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="10">
-        <v>40000</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <v>40590.31</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="9" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="G67" s="10">
+        <v>105955.74</v>
+      </c>
+      <c r="J67" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="9">
-        <v>0</v>
-      </c>
-      <c r="E67" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G67" s="9">
-        <v>590.30999999999995</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="G68" s="10">
+        <v>105975.44</v>
+      </c>
+      <c r="J68" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G68" s="10">
-        <v>3590.31</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="9" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
       </c>
-      <c r="E69" s="10">
-        <v>140000</v>
+      <c r="E69" s="9">
+        <v>19.2</v>
       </c>
       <c r="G69" s="10">
-        <v>8590.31</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>70</v>
+        <v>105997.64</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="9" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="10">
-        <v>140000</v>
+        <v>63</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
       </c>
       <c r="E70" s="9">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="G70" s="10">
-        <v>148590.31</v>
+        <v>106016.84</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
       </c>
-      <c r="E71" s="9">
-        <v>26.1</v>
+      <c r="E71" s="10">
+        <v>2000</v>
       </c>
       <c r="G71" s="10">
-        <v>8590.31</v>
+        <v>106033.34</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
       </c>
       <c r="E72" s="10">
-        <v>110000</v>
+        <v>2000</v>
       </c>
       <c r="G72" s="10">
-        <v>8616.41</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>70</v>
+        <v>108033.34</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="9" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0</v>
+      </c>
+      <c r="E73" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="G73" s="10">
+        <v>110033.34</v>
+      </c>
+      <c r="J73" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="9">
-        <v>0</v>
-      </c>
-      <c r="E73" s="9">
-        <v>63.2</v>
-      </c>
-      <c r="G73" s="10">
-        <v>118616.41</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="9" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="G74" s="10">
+        <v>110061.94</v>
+      </c>
+      <c r="J74" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="9">
-        <v>0</v>
-      </c>
-      <c r="E74" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="G74" s="10">
-        <v>118679.61</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="9" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D75" s="10">
+        <v>10001.94</v>
       </c>
       <c r="E75" s="9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G75" s="10">
-        <v>118690.71</v>
+        <v>110075.44</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="9" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="10">
-        <v>80000</v>
+        <v>63</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0</v>
       </c>
       <c r="E76" s="9">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G76" s="10">
-        <v>118724.71</v>
+        <v>100073.5</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="9" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="10">
-        <v>7824.24</v>
+        <v>6474</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="G77" s="10">
-        <v>38724.71</v>
+        <v>100097</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="10">
-        <v>6465</v>
+        <v>3032.69</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="G78" s="10">
-        <v>30900.47</v>
+        <v>93623</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="9">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D79" s="10">
+        <v>50000</v>
       </c>
       <c r="E79" s="9">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="G79" s="10">
-        <v>24435.47</v>
+        <v>90590.31</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="10">
+        <v>40000</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>40590.31</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G81" s="9">
+        <v>590.30999999999995</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G82" s="10">
+        <v>3590.31</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
+        <v>140000</v>
+      </c>
+      <c r="G83" s="10">
+        <v>8590.31</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="10">
+        <v>140000</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <v>148590.31</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="G85" s="10">
+        <v>8590.31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <v>110000</v>
+      </c>
+      <c r="G86" s="10">
+        <v>8616.41</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
+      </c>
+      <c r="E87" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="G87" s="10">
+        <v>118616.41</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0</v>
+      </c>
+      <c r="E88" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="G88" s="10">
+        <v>118679.61</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0</v>
+      </c>
+      <c r="E89" s="9">
+        <v>34</v>
+      </c>
+      <c r="G89" s="10">
+        <v>118690.71</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="10">
+        <v>80000</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>118724.71</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="10">
+        <v>7824.24</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>38724.71</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="10">
+        <v>6465</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <v>30900.47</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0</v>
+      </c>
+      <c r="E93" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="G93" s="10">
+        <v>24435.47</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <v>24449.17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80" s="10">
-        <v>24449.17</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="9" t="s">
+      <c r="B95" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="9">
+        <v>13.09</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <v>9449.17</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="9">
-        <v>13.09</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81" s="10">
-        <v>9449.17</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="9" t="s">
+      <c r="B96" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="10">
+        <v>6343</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>9436.08</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="10">
-        <v>6343</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="G82" s="10">
-        <v>9436.08</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="9" t="s">
+      <c r="B97" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="10">
+        <v>2450.9899999999998</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>3093.08</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="B98" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="10">
-        <v>2450.9899999999998</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83" s="10">
-        <v>3093.08</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="C98" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="10">
         <v>1033425.5</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E98" s="10">
         <v>1013967.5</v>
       </c>
     </row>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="3"/>
+    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="195">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,10 @@
   </si>
   <si>
     <t>交行广州转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收房+物业费8-11月 = 116.58*2.2*4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1254,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1577,15 +1581,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1635,6 +1639,14 @@
       </c>
       <c r="B6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1647,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K16" sqref="K16"/>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="2"/>
+    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="201">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +663,30 @@
   </si>
   <si>
     <t>收房+物业费8-11月 = 116.58*2.2*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉来过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盼盼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hegll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户花园窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,23 +1275,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1284,13 +1308,16 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>41041</v>
       </c>
@@ -1301,14 +1328,14 @@
       <c r="C2">
         <v>5000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>41041</v>
       </c>
@@ -1319,14 +1346,14 @@
       <c r="C3">
         <v>-5000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>41042</v>
       </c>
@@ -1337,14 +1364,14 @@
       <c r="C4">
         <v>20000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>41044</v>
       </c>
@@ -1357,17 +1384,18 @@
         <v>40000</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>41044</v>
       </c>
@@ -1380,17 +1408,18 @@
       <c r="E6" s="4">
         <v>50000</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>41061</v>
       </c>
@@ -1400,17 +1429,18 @@
       <c r="E7" s="4">
         <v>50000</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>41070</v>
       </c>
@@ -1421,14 +1451,14 @@
       <c r="C8">
         <v>480000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>41123</v>
       </c>
@@ -1438,17 +1468,18 @@
       <c r="E9" s="4">
         <v>10000</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>41150</v>
       </c>
@@ -1458,17 +1489,18 @@
       <c r="E10" s="4">
         <v>30000</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>41168</v>
       </c>
@@ -1478,14 +1510,14 @@
       <c r="C11">
         <v>3000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>170</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>41175</v>
       </c>
@@ -1495,80 +1527,163 @@
       <c r="C12">
         <v>11800</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>172</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>41175</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <f>C13+F13</f>
+        <v>16000</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>15000</v>
+      </c>
+      <c r="G13" t="s">
         <v>173</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B17" si="0">C14+F14</f>
+        <v>4800</v>
+      </c>
+      <c r="C14">
+        <v>700</v>
+      </c>
+      <c r="F14">
+        <f>4800-C14</f>
+        <v>4100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>10645</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <f>650*3.3+4600+2100+1800-2000</f>
+        <v>8645</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>10960</v>
+      </c>
+      <c r="C16">
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <f>10960-3000</f>
+        <v>7960</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:I1">
+    <filterColumn colId="5"/>
     <sortState ref="A2:H13">
       <sortCondition ref="A1"/>
     </sortState>
@@ -1583,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,11 +689,55 @@
     <t>入户花园窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>装修款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交装修(千略)第一期款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退亚源装修预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL地插*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通地漏*4 洗衣机地漏*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防白蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -757,12 +801,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -859,11 +905,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -937,6 +991,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -971,6 +1026,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1146,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1274,11 +1330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1646,22 +1702,114 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B18">
+        <v>-1500</v>
+      </c>
+      <c r="C18">
+        <v>-1500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>41399</v>
+      </c>
+      <c r="B19">
+        <v>51000</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="F19">
+        <f>B19-C19</f>
+        <v>46000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B20">
+        <v>14600</v>
+      </c>
+      <c r="C20">
+        <v>4600</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>41468</v>
+      </c>
+      <c r="B21">
+        <f>149.7+109.87 +49.94</f>
+        <v>309.51</v>
+      </c>
+      <c r="C21">
+        <v>309.51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>41468</v>
+      </c>
+      <c r="B22">
+        <v>115.4</v>
+      </c>
+      <c r="C22">
+        <v>115.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>41469</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="F23">
+        <v>410</v>
+      </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1"/>
@@ -1683,7 +1831,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
-    <filterColumn colId="5"/>
     <sortState ref="A2:H13">
       <sortCondition ref="A1"/>
     </sortState>
@@ -1695,11 +1842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1771,14 +1918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,24 +4,40 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-75" windowWidth="19200" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="7650" yWindow="-45" windowWidth="19200" windowHeight="9615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
     <sheet name="AMT" sheetId="1" r:id="rId2"/>
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
+    <sheet name="灯明细" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="__A100000">#REF!</definedName>
+    <definedName name="__A69999">#REF!</definedName>
+    <definedName name="__A99900">#REF!</definedName>
+    <definedName name="__A99996">#REF!</definedName>
+    <definedName name="__A99999">#REF!</definedName>
+    <definedName name="__D99999">#REF!</definedName>
+    <definedName name="_A100000" localSheetId="4">灯明细!#REF!</definedName>
+    <definedName name="_A69999" localSheetId="4">灯明细!#REF!</definedName>
+    <definedName name="_A99900" localSheetId="4">灯明细!#REF!</definedName>
+    <definedName name="_A99996" localSheetId="4">灯明细!#REF!</definedName>
+    <definedName name="_A99999" localSheetId="4">灯明细!#REF!</definedName>
+    <definedName name="_D99999" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">灯明细!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">灯明细!$A$2:$E$33</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">灯明细!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="291">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,15 +749,303 @@
     <t>首期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>装修款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗大理石+门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道35*1 40*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把手11*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟斗铰大弯*5 小弯*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盼盼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robam/老板5103N+6B02N侧吸新款时尚烟灶套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房，卫生间铝扣板天花押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯25个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永怡御风吊扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房，卫生间铝扣板天花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定 - 50 (隔断差价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御泉402灯具，开关插座清单</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>qty</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T西门子开关插座面板墙面插 远景雅白五孔插座 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视插座</t>
+  </si>
+  <si>
+    <t>西门子插座 电视插座 远景雅白一位有线电视插座</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视+网络插座</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 电视+电脑插座</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 16A三极插座</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络插座</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 一位电脑插座 官方授权</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关（1位）</t>
+  </si>
+  <si>
+    <t>西门子开关 正品远景雅白 一开单控带荧光开关面板</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关（2位）</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 二开单控带荧光开关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关（3位）</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 三开单控带荧光开关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>双联开关（1位）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 一开双控带荧光开关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>双联开关（2位）</t>
+  </si>
+  <si>
+    <t>西门子开关插座 远景雅白 二开双控带荧光开关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>双联开关（3位)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>T西门子开关插座 远景雅白 三开双控带荧光开关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯9公分（客厅）</t>
+  </si>
+  <si>
+    <t>筒灯9公分（书房）</t>
+  </si>
+  <si>
+    <t>筒灯9公分（过道）</t>
+  </si>
+  <si>
+    <t>筒灯9公分（主卧）</t>
+  </si>
+  <si>
+    <t>灯带（书房）</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>灯带（客厅）</t>
+  </si>
+  <si>
+    <t>灯带（餐厅）</t>
+  </si>
+  <si>
+    <t>灯带（过道）</t>
+  </si>
+  <si>
+    <t>灯（书房）</t>
+  </si>
+  <si>
+    <t>灯（客厅）</t>
+  </si>
+  <si>
+    <t>灯（餐厅）</t>
+  </si>
+  <si>
+    <t>灯（阳台）</t>
+  </si>
+  <si>
+    <t>灯（厨房）</t>
+  </si>
+  <si>
+    <t>灯（卫生间）</t>
+  </si>
+  <si>
+    <t>灯（卫生间镜前灯）</t>
+  </si>
+  <si>
+    <t>白面板</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>筒灯9公分（餐厅）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯（主卧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯（次卧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5个灯泡(9.9*5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间排气扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,8 +1115,97 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,8 +1224,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -840,8 +1245,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,8 +1275,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,11 +1324,76 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="6"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="7"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1206,7 +1699,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1331,18 +1824,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1657,6 +2152,9 @@
       <c r="H15" t="s">
         <v>197</v>
       </c>
+      <c r="I15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
@@ -1674,13 +2172,13 @@
         <v>7960</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>41252</v>
       </c>
@@ -1701,7 +2199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>41338</v>
       </c>
@@ -1718,7 +2216,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>41399</v>
       </c>
@@ -1739,7 +2237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>41462</v>
       </c>
@@ -1759,7 +2257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>41468</v>
       </c>
@@ -1777,7 +2275,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>41468</v>
       </c>
@@ -1791,7 +2289,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>41469</v>
       </c>
@@ -1810,24 +2308,445 @@
       <c r="H23" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>41482</v>
+      </c>
+      <c r="B24">
+        <v>51000</v>
+      </c>
+      <c r="C24">
+        <v>15000</v>
+      </c>
+      <c r="F24">
+        <v>31000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B25">
+        <v>2100</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+      <c r="F25">
+        <v>1500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>41490</v>
+      </c>
+      <c r="B26">
+        <v>2100</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>41497</v>
+      </c>
+      <c r="B27">
+        <v>51000</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="F27">
+        <v>21000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <f>14*1.2+16*1.2</f>
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <f>14*1.2+16*1.2</f>
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <f>15*5+15*5</f>
+        <v>150</v>
+      </c>
+      <c r="F30">
+        <f>15*5+15*5</f>
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>41508</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>41521</v>
+      </c>
+      <c r="B33">
+        <v>11300</v>
+      </c>
+      <c r="C33">
+        <v>9300</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>41519.835925925923</v>
+      </c>
+      <c r="B34">
+        <v>2899</v>
+      </c>
+      <c r="C34">
+        <v>2899</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B35">
+        <v>703</v>
+      </c>
+      <c r="C35">
+        <v>703</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>1300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B37">
+        <v>863.38</v>
+      </c>
+      <c r="C37">
+        <v>863.38</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>41526</v>
+      </c>
+      <c r="B38">
+        <f>39*2</f>
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B39">
+        <v>504</v>
+      </c>
+      <c r="C39">
+        <f>12.6*40</f>
+        <v>504</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B40">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B41">
+        <v>958.33</v>
+      </c>
+      <c r="C41">
+        <v>958.33</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41529</v>
+      </c>
+      <c r="B42">
+        <v>605</v>
+      </c>
+      <c r="C42">
+        <v>605</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41531</v>
+      </c>
+      <c r="B43">
+        <v>1300</v>
+      </c>
+      <c r="C43">
+        <v>1300</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+      <c r="C44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B46">
+        <v>6000</v>
+      </c>
+      <c r="C46">
+        <v>6000</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
@@ -1922,10 +2841,10 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5099,4 +6018,2253 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IT33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I5" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="28" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="13" customWidth="1"/>
+    <col min="10" max="10" width="40.25" style="13" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="254" width="9" style="13"/>
+    <col min="255" max="255" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="18.25" style="13" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="13" customWidth="1"/>
+    <col min="258" max="259" width="2.625" style="13" customWidth="1"/>
+    <col min="260" max="260" width="10.75" style="13" customWidth="1"/>
+    <col min="261" max="262" width="2.625" style="13" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="8.75" style="13" customWidth="1"/>
+    <col min="266" max="266" width="40.25" style="13" customWidth="1"/>
+    <col min="267" max="267" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="272" max="510" width="9" style="13"/>
+    <col min="511" max="511" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="18.25" style="13" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="13" customWidth="1"/>
+    <col min="514" max="515" width="2.625" style="13" customWidth="1"/>
+    <col min="516" max="516" width="10.75" style="13" customWidth="1"/>
+    <col min="517" max="518" width="2.625" style="13" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="8.75" style="13" customWidth="1"/>
+    <col min="522" max="522" width="40.25" style="13" customWidth="1"/>
+    <col min="523" max="523" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="528" max="766" width="9" style="13"/>
+    <col min="767" max="767" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="18.25" style="13" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="13" customWidth="1"/>
+    <col min="770" max="771" width="2.625" style="13" customWidth="1"/>
+    <col min="772" max="772" width="10.75" style="13" customWidth="1"/>
+    <col min="773" max="774" width="2.625" style="13" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="8.75" style="13" customWidth="1"/>
+    <col min="778" max="778" width="40.25" style="13" customWidth="1"/>
+    <col min="779" max="779" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="784" max="1022" width="9" style="13"/>
+    <col min="1023" max="1023" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="18.25" style="13" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="13" customWidth="1"/>
+    <col min="1026" max="1027" width="2.625" style="13" customWidth="1"/>
+    <col min="1028" max="1028" width="10.75" style="13" customWidth="1"/>
+    <col min="1029" max="1030" width="2.625" style="13" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="8.75" style="13" customWidth="1"/>
+    <col min="1034" max="1034" width="40.25" style="13" customWidth="1"/>
+    <col min="1035" max="1035" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1278" width="9" style="13"/>
+    <col min="1279" max="1279" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="18.25" style="13" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="13" customWidth="1"/>
+    <col min="1282" max="1283" width="2.625" style="13" customWidth="1"/>
+    <col min="1284" max="1284" width="10.75" style="13" customWidth="1"/>
+    <col min="1285" max="1286" width="2.625" style="13" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="8.75" style="13" customWidth="1"/>
+    <col min="1290" max="1290" width="40.25" style="13" customWidth="1"/>
+    <col min="1291" max="1291" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1534" width="9" style="13"/>
+    <col min="1535" max="1535" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="18.25" style="13" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="13" customWidth="1"/>
+    <col min="1538" max="1539" width="2.625" style="13" customWidth="1"/>
+    <col min="1540" max="1540" width="10.75" style="13" customWidth="1"/>
+    <col min="1541" max="1542" width="2.625" style="13" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="8.75" style="13" customWidth="1"/>
+    <col min="1546" max="1546" width="40.25" style="13" customWidth="1"/>
+    <col min="1547" max="1547" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1790" width="9" style="13"/>
+    <col min="1791" max="1791" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="18.25" style="13" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="13" customWidth="1"/>
+    <col min="1794" max="1795" width="2.625" style="13" customWidth="1"/>
+    <col min="1796" max="1796" width="10.75" style="13" customWidth="1"/>
+    <col min="1797" max="1798" width="2.625" style="13" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="8.75" style="13" customWidth="1"/>
+    <col min="1802" max="1802" width="40.25" style="13" customWidth="1"/>
+    <col min="1803" max="1803" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1808" max="2046" width="9" style="13"/>
+    <col min="2047" max="2047" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="18.25" style="13" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="13" customWidth="1"/>
+    <col min="2050" max="2051" width="2.625" style="13" customWidth="1"/>
+    <col min="2052" max="2052" width="10.75" style="13" customWidth="1"/>
+    <col min="2053" max="2054" width="2.625" style="13" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="8.75" style="13" customWidth="1"/>
+    <col min="2058" max="2058" width="40.25" style="13" customWidth="1"/>
+    <col min="2059" max="2059" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2302" width="9" style="13"/>
+    <col min="2303" max="2303" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="18.25" style="13" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="13" customWidth="1"/>
+    <col min="2306" max="2307" width="2.625" style="13" customWidth="1"/>
+    <col min="2308" max="2308" width="10.75" style="13" customWidth="1"/>
+    <col min="2309" max="2310" width="2.625" style="13" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="8.75" style="13" customWidth="1"/>
+    <col min="2314" max="2314" width="40.25" style="13" customWidth="1"/>
+    <col min="2315" max="2315" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2558" width="9" style="13"/>
+    <col min="2559" max="2559" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="18.25" style="13" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="13" customWidth="1"/>
+    <col min="2562" max="2563" width="2.625" style="13" customWidth="1"/>
+    <col min="2564" max="2564" width="10.75" style="13" customWidth="1"/>
+    <col min="2565" max="2566" width="2.625" style="13" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="8.75" style="13" customWidth="1"/>
+    <col min="2570" max="2570" width="40.25" style="13" customWidth="1"/>
+    <col min="2571" max="2571" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2814" width="9" style="13"/>
+    <col min="2815" max="2815" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="18.25" style="13" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="13" customWidth="1"/>
+    <col min="2818" max="2819" width="2.625" style="13" customWidth="1"/>
+    <col min="2820" max="2820" width="10.75" style="13" customWidth="1"/>
+    <col min="2821" max="2822" width="2.625" style="13" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="8.75" style="13" customWidth="1"/>
+    <col min="2826" max="2826" width="40.25" style="13" customWidth="1"/>
+    <col min="2827" max="2827" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2832" max="3070" width="9" style="13"/>
+    <col min="3071" max="3071" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="18.25" style="13" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="13" customWidth="1"/>
+    <col min="3074" max="3075" width="2.625" style="13" customWidth="1"/>
+    <col min="3076" max="3076" width="10.75" style="13" customWidth="1"/>
+    <col min="3077" max="3078" width="2.625" style="13" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="8.75" style="13" customWidth="1"/>
+    <col min="3082" max="3082" width="40.25" style="13" customWidth="1"/>
+    <col min="3083" max="3083" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3326" width="9" style="13"/>
+    <col min="3327" max="3327" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="18.25" style="13" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="13" customWidth="1"/>
+    <col min="3330" max="3331" width="2.625" style="13" customWidth="1"/>
+    <col min="3332" max="3332" width="10.75" style="13" customWidth="1"/>
+    <col min="3333" max="3334" width="2.625" style="13" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="8.75" style="13" customWidth="1"/>
+    <col min="3338" max="3338" width="40.25" style="13" customWidth="1"/>
+    <col min="3339" max="3339" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3582" width="9" style="13"/>
+    <col min="3583" max="3583" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="18.25" style="13" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="13" customWidth="1"/>
+    <col min="3586" max="3587" width="2.625" style="13" customWidth="1"/>
+    <col min="3588" max="3588" width="10.75" style="13" customWidth="1"/>
+    <col min="3589" max="3590" width="2.625" style="13" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="8.75" style="13" customWidth="1"/>
+    <col min="3594" max="3594" width="40.25" style="13" customWidth="1"/>
+    <col min="3595" max="3595" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3838" width="9" style="13"/>
+    <col min="3839" max="3839" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="18.25" style="13" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="13" customWidth="1"/>
+    <col min="3842" max="3843" width="2.625" style="13" customWidth="1"/>
+    <col min="3844" max="3844" width="10.75" style="13" customWidth="1"/>
+    <col min="3845" max="3846" width="2.625" style="13" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="8.75" style="13" customWidth="1"/>
+    <col min="3850" max="3850" width="40.25" style="13" customWidth="1"/>
+    <col min="3851" max="3851" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3856" max="4094" width="9" style="13"/>
+    <col min="4095" max="4095" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="18.25" style="13" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="13" customWidth="1"/>
+    <col min="4098" max="4099" width="2.625" style="13" customWidth="1"/>
+    <col min="4100" max="4100" width="10.75" style="13" customWidth="1"/>
+    <col min="4101" max="4102" width="2.625" style="13" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="8.75" style="13" customWidth="1"/>
+    <col min="4106" max="4106" width="40.25" style="13" customWidth="1"/>
+    <col min="4107" max="4107" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4350" width="9" style="13"/>
+    <col min="4351" max="4351" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="18.25" style="13" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="13" customWidth="1"/>
+    <col min="4354" max="4355" width="2.625" style="13" customWidth="1"/>
+    <col min="4356" max="4356" width="10.75" style="13" customWidth="1"/>
+    <col min="4357" max="4358" width="2.625" style="13" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="8.75" style="13" customWidth="1"/>
+    <col min="4362" max="4362" width="40.25" style="13" customWidth="1"/>
+    <col min="4363" max="4363" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4606" width="9" style="13"/>
+    <col min="4607" max="4607" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="18.25" style="13" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="13" customWidth="1"/>
+    <col min="4610" max="4611" width="2.625" style="13" customWidth="1"/>
+    <col min="4612" max="4612" width="10.75" style="13" customWidth="1"/>
+    <col min="4613" max="4614" width="2.625" style="13" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="8.75" style="13" customWidth="1"/>
+    <col min="4618" max="4618" width="40.25" style="13" customWidth="1"/>
+    <col min="4619" max="4619" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4862" width="9" style="13"/>
+    <col min="4863" max="4863" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="18.25" style="13" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="13" customWidth="1"/>
+    <col min="4866" max="4867" width="2.625" style="13" customWidth="1"/>
+    <col min="4868" max="4868" width="10.75" style="13" customWidth="1"/>
+    <col min="4869" max="4870" width="2.625" style="13" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="8.75" style="13" customWidth="1"/>
+    <col min="4874" max="4874" width="40.25" style="13" customWidth="1"/>
+    <col min="4875" max="4875" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4880" max="5118" width="9" style="13"/>
+    <col min="5119" max="5119" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="18.25" style="13" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="13" customWidth="1"/>
+    <col min="5122" max="5123" width="2.625" style="13" customWidth="1"/>
+    <col min="5124" max="5124" width="10.75" style="13" customWidth="1"/>
+    <col min="5125" max="5126" width="2.625" style="13" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="8.75" style="13" customWidth="1"/>
+    <col min="5130" max="5130" width="40.25" style="13" customWidth="1"/>
+    <col min="5131" max="5131" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5374" width="9" style="13"/>
+    <col min="5375" max="5375" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="18.25" style="13" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="13" customWidth="1"/>
+    <col min="5378" max="5379" width="2.625" style="13" customWidth="1"/>
+    <col min="5380" max="5380" width="10.75" style="13" customWidth="1"/>
+    <col min="5381" max="5382" width="2.625" style="13" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="8.75" style="13" customWidth="1"/>
+    <col min="5386" max="5386" width="40.25" style="13" customWidth="1"/>
+    <col min="5387" max="5387" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5630" width="9" style="13"/>
+    <col min="5631" max="5631" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="18.25" style="13" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="13" customWidth="1"/>
+    <col min="5634" max="5635" width="2.625" style="13" customWidth="1"/>
+    <col min="5636" max="5636" width="10.75" style="13" customWidth="1"/>
+    <col min="5637" max="5638" width="2.625" style="13" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="8.75" style="13" customWidth="1"/>
+    <col min="5642" max="5642" width="40.25" style="13" customWidth="1"/>
+    <col min="5643" max="5643" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5886" width="9" style="13"/>
+    <col min="5887" max="5887" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="18.25" style="13" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="13" customWidth="1"/>
+    <col min="5890" max="5891" width="2.625" style="13" customWidth="1"/>
+    <col min="5892" max="5892" width="10.75" style="13" customWidth="1"/>
+    <col min="5893" max="5894" width="2.625" style="13" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="8.75" style="13" customWidth="1"/>
+    <col min="5898" max="5898" width="40.25" style="13" customWidth="1"/>
+    <col min="5899" max="5899" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5904" max="6142" width="9" style="13"/>
+    <col min="6143" max="6143" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="18.25" style="13" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="13" customWidth="1"/>
+    <col min="6146" max="6147" width="2.625" style="13" customWidth="1"/>
+    <col min="6148" max="6148" width="10.75" style="13" customWidth="1"/>
+    <col min="6149" max="6150" width="2.625" style="13" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="8.75" style="13" customWidth="1"/>
+    <col min="6154" max="6154" width="40.25" style="13" customWidth="1"/>
+    <col min="6155" max="6155" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6398" width="9" style="13"/>
+    <col min="6399" max="6399" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="18.25" style="13" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="13" customWidth="1"/>
+    <col min="6402" max="6403" width="2.625" style="13" customWidth="1"/>
+    <col min="6404" max="6404" width="10.75" style="13" customWidth="1"/>
+    <col min="6405" max="6406" width="2.625" style="13" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="8.75" style="13" customWidth="1"/>
+    <col min="6410" max="6410" width="40.25" style="13" customWidth="1"/>
+    <col min="6411" max="6411" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6654" width="9" style="13"/>
+    <col min="6655" max="6655" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="18.25" style="13" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="13" customWidth="1"/>
+    <col min="6658" max="6659" width="2.625" style="13" customWidth="1"/>
+    <col min="6660" max="6660" width="10.75" style="13" customWidth="1"/>
+    <col min="6661" max="6662" width="2.625" style="13" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="8.75" style="13" customWidth="1"/>
+    <col min="6666" max="6666" width="40.25" style="13" customWidth="1"/>
+    <col min="6667" max="6667" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6910" width="9" style="13"/>
+    <col min="6911" max="6911" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="18.25" style="13" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="13" customWidth="1"/>
+    <col min="6914" max="6915" width="2.625" style="13" customWidth="1"/>
+    <col min="6916" max="6916" width="10.75" style="13" customWidth="1"/>
+    <col min="6917" max="6918" width="2.625" style="13" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="8.75" style="13" customWidth="1"/>
+    <col min="6922" max="6922" width="40.25" style="13" customWidth="1"/>
+    <col min="6923" max="6923" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6928" max="7166" width="9" style="13"/>
+    <col min="7167" max="7167" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="18.25" style="13" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="13" customWidth="1"/>
+    <col min="7170" max="7171" width="2.625" style="13" customWidth="1"/>
+    <col min="7172" max="7172" width="10.75" style="13" customWidth="1"/>
+    <col min="7173" max="7174" width="2.625" style="13" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="8.75" style="13" customWidth="1"/>
+    <col min="7178" max="7178" width="40.25" style="13" customWidth="1"/>
+    <col min="7179" max="7179" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7422" width="9" style="13"/>
+    <col min="7423" max="7423" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="18.25" style="13" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="13" customWidth="1"/>
+    <col min="7426" max="7427" width="2.625" style="13" customWidth="1"/>
+    <col min="7428" max="7428" width="10.75" style="13" customWidth="1"/>
+    <col min="7429" max="7430" width="2.625" style="13" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="8.75" style="13" customWidth="1"/>
+    <col min="7434" max="7434" width="40.25" style="13" customWidth="1"/>
+    <col min="7435" max="7435" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7678" width="9" style="13"/>
+    <col min="7679" max="7679" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="18.25" style="13" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="13" customWidth="1"/>
+    <col min="7682" max="7683" width="2.625" style="13" customWidth="1"/>
+    <col min="7684" max="7684" width="10.75" style="13" customWidth="1"/>
+    <col min="7685" max="7686" width="2.625" style="13" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="8.75" style="13" customWidth="1"/>
+    <col min="7690" max="7690" width="40.25" style="13" customWidth="1"/>
+    <col min="7691" max="7691" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7934" width="9" style="13"/>
+    <col min="7935" max="7935" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="18.25" style="13" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="13" customWidth="1"/>
+    <col min="7938" max="7939" width="2.625" style="13" customWidth="1"/>
+    <col min="7940" max="7940" width="10.75" style="13" customWidth="1"/>
+    <col min="7941" max="7942" width="2.625" style="13" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="8.75" style="13" customWidth="1"/>
+    <col min="7946" max="7946" width="40.25" style="13" customWidth="1"/>
+    <col min="7947" max="7947" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7952" max="8190" width="9" style="13"/>
+    <col min="8191" max="8191" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="18.25" style="13" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="13" customWidth="1"/>
+    <col min="8194" max="8195" width="2.625" style="13" customWidth="1"/>
+    <col min="8196" max="8196" width="10.75" style="13" customWidth="1"/>
+    <col min="8197" max="8198" width="2.625" style="13" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="8.75" style="13" customWidth="1"/>
+    <col min="8202" max="8202" width="40.25" style="13" customWidth="1"/>
+    <col min="8203" max="8203" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8446" width="9" style="13"/>
+    <col min="8447" max="8447" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="18.25" style="13" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="13" customWidth="1"/>
+    <col min="8450" max="8451" width="2.625" style="13" customWidth="1"/>
+    <col min="8452" max="8452" width="10.75" style="13" customWidth="1"/>
+    <col min="8453" max="8454" width="2.625" style="13" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="8.75" style="13" customWidth="1"/>
+    <col min="8458" max="8458" width="40.25" style="13" customWidth="1"/>
+    <col min="8459" max="8459" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8702" width="9" style="13"/>
+    <col min="8703" max="8703" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="18.25" style="13" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="13" customWidth="1"/>
+    <col min="8706" max="8707" width="2.625" style="13" customWidth="1"/>
+    <col min="8708" max="8708" width="10.75" style="13" customWidth="1"/>
+    <col min="8709" max="8710" width="2.625" style="13" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="8.75" style="13" customWidth="1"/>
+    <col min="8714" max="8714" width="40.25" style="13" customWidth="1"/>
+    <col min="8715" max="8715" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8958" width="9" style="13"/>
+    <col min="8959" max="8959" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="18.25" style="13" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="13" customWidth="1"/>
+    <col min="8962" max="8963" width="2.625" style="13" customWidth="1"/>
+    <col min="8964" max="8964" width="10.75" style="13" customWidth="1"/>
+    <col min="8965" max="8966" width="2.625" style="13" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="8.75" style="13" customWidth="1"/>
+    <col min="8970" max="8970" width="40.25" style="13" customWidth="1"/>
+    <col min="8971" max="8971" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8976" max="9214" width="9" style="13"/>
+    <col min="9215" max="9215" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="18.25" style="13" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="13" customWidth="1"/>
+    <col min="9218" max="9219" width="2.625" style="13" customWidth="1"/>
+    <col min="9220" max="9220" width="10.75" style="13" customWidth="1"/>
+    <col min="9221" max="9222" width="2.625" style="13" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="8.75" style="13" customWidth="1"/>
+    <col min="9226" max="9226" width="40.25" style="13" customWidth="1"/>
+    <col min="9227" max="9227" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9470" width="9" style="13"/>
+    <col min="9471" max="9471" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="18.25" style="13" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="13" customWidth="1"/>
+    <col min="9474" max="9475" width="2.625" style="13" customWidth="1"/>
+    <col min="9476" max="9476" width="10.75" style="13" customWidth="1"/>
+    <col min="9477" max="9478" width="2.625" style="13" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="8.75" style="13" customWidth="1"/>
+    <col min="9482" max="9482" width="40.25" style="13" customWidth="1"/>
+    <col min="9483" max="9483" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9726" width="9" style="13"/>
+    <col min="9727" max="9727" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="18.25" style="13" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="13" customWidth="1"/>
+    <col min="9730" max="9731" width="2.625" style="13" customWidth="1"/>
+    <col min="9732" max="9732" width="10.75" style="13" customWidth="1"/>
+    <col min="9733" max="9734" width="2.625" style="13" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="8.75" style="13" customWidth="1"/>
+    <col min="9738" max="9738" width="40.25" style="13" customWidth="1"/>
+    <col min="9739" max="9739" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9982" width="9" style="13"/>
+    <col min="9983" max="9983" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="18.25" style="13" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="13" customWidth="1"/>
+    <col min="9986" max="9987" width="2.625" style="13" customWidth="1"/>
+    <col min="9988" max="9988" width="10.75" style="13" customWidth="1"/>
+    <col min="9989" max="9990" width="2.625" style="13" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="8.75" style="13" customWidth="1"/>
+    <col min="9994" max="9994" width="40.25" style="13" customWidth="1"/>
+    <col min="9995" max="9995" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10238" width="9" style="13"/>
+    <col min="10239" max="10239" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="18.25" style="13" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="13" customWidth="1"/>
+    <col min="10242" max="10243" width="2.625" style="13" customWidth="1"/>
+    <col min="10244" max="10244" width="10.75" style="13" customWidth="1"/>
+    <col min="10245" max="10246" width="2.625" style="13" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="8.75" style="13" customWidth="1"/>
+    <col min="10250" max="10250" width="40.25" style="13" customWidth="1"/>
+    <col min="10251" max="10251" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10494" width="9" style="13"/>
+    <col min="10495" max="10495" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="18.25" style="13" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="13" customWidth="1"/>
+    <col min="10498" max="10499" width="2.625" style="13" customWidth="1"/>
+    <col min="10500" max="10500" width="10.75" style="13" customWidth="1"/>
+    <col min="10501" max="10502" width="2.625" style="13" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="8.75" style="13" customWidth="1"/>
+    <col min="10506" max="10506" width="40.25" style="13" customWidth="1"/>
+    <col min="10507" max="10507" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10750" width="9" style="13"/>
+    <col min="10751" max="10751" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="18.25" style="13" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="13" customWidth="1"/>
+    <col min="10754" max="10755" width="2.625" style="13" customWidth="1"/>
+    <col min="10756" max="10756" width="10.75" style="13" customWidth="1"/>
+    <col min="10757" max="10758" width="2.625" style="13" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="8.75" style="13" customWidth="1"/>
+    <col min="10762" max="10762" width="40.25" style="13" customWidth="1"/>
+    <col min="10763" max="10763" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10768" max="11006" width="9" style="13"/>
+    <col min="11007" max="11007" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="18.25" style="13" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="13" customWidth="1"/>
+    <col min="11010" max="11011" width="2.625" style="13" customWidth="1"/>
+    <col min="11012" max="11012" width="10.75" style="13" customWidth="1"/>
+    <col min="11013" max="11014" width="2.625" style="13" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="8.75" style="13" customWidth="1"/>
+    <col min="11018" max="11018" width="40.25" style="13" customWidth="1"/>
+    <col min="11019" max="11019" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11262" width="9" style="13"/>
+    <col min="11263" max="11263" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="18.25" style="13" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="13" customWidth="1"/>
+    <col min="11266" max="11267" width="2.625" style="13" customWidth="1"/>
+    <col min="11268" max="11268" width="10.75" style="13" customWidth="1"/>
+    <col min="11269" max="11270" width="2.625" style="13" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="8.75" style="13" customWidth="1"/>
+    <col min="11274" max="11274" width="40.25" style="13" customWidth="1"/>
+    <col min="11275" max="11275" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11518" width="9" style="13"/>
+    <col min="11519" max="11519" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="18.25" style="13" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="13" customWidth="1"/>
+    <col min="11522" max="11523" width="2.625" style="13" customWidth="1"/>
+    <col min="11524" max="11524" width="10.75" style="13" customWidth="1"/>
+    <col min="11525" max="11526" width="2.625" style="13" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="8.75" style="13" customWidth="1"/>
+    <col min="11530" max="11530" width="40.25" style="13" customWidth="1"/>
+    <col min="11531" max="11531" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11774" width="9" style="13"/>
+    <col min="11775" max="11775" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="18.25" style="13" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="13" customWidth="1"/>
+    <col min="11778" max="11779" width="2.625" style="13" customWidth="1"/>
+    <col min="11780" max="11780" width="10.75" style="13" customWidth="1"/>
+    <col min="11781" max="11782" width="2.625" style="13" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="8.75" style="13" customWidth="1"/>
+    <col min="11786" max="11786" width="40.25" style="13" customWidth="1"/>
+    <col min="11787" max="11787" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11792" max="12030" width="9" style="13"/>
+    <col min="12031" max="12031" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="18.25" style="13" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="13" customWidth="1"/>
+    <col min="12034" max="12035" width="2.625" style="13" customWidth="1"/>
+    <col min="12036" max="12036" width="10.75" style="13" customWidth="1"/>
+    <col min="12037" max="12038" width="2.625" style="13" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="8.75" style="13" customWidth="1"/>
+    <col min="12042" max="12042" width="40.25" style="13" customWidth="1"/>
+    <col min="12043" max="12043" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12286" width="9" style="13"/>
+    <col min="12287" max="12287" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="18.25" style="13" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="13" customWidth="1"/>
+    <col min="12290" max="12291" width="2.625" style="13" customWidth="1"/>
+    <col min="12292" max="12292" width="10.75" style="13" customWidth="1"/>
+    <col min="12293" max="12294" width="2.625" style="13" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="8.75" style="13" customWidth="1"/>
+    <col min="12298" max="12298" width="40.25" style="13" customWidth="1"/>
+    <col min="12299" max="12299" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12542" width="9" style="13"/>
+    <col min="12543" max="12543" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="18.25" style="13" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="13" customWidth="1"/>
+    <col min="12546" max="12547" width="2.625" style="13" customWidth="1"/>
+    <col min="12548" max="12548" width="10.75" style="13" customWidth="1"/>
+    <col min="12549" max="12550" width="2.625" style="13" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="8.75" style="13" customWidth="1"/>
+    <col min="12554" max="12554" width="40.25" style="13" customWidth="1"/>
+    <col min="12555" max="12555" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12798" width="9" style="13"/>
+    <col min="12799" max="12799" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="18.25" style="13" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="13" customWidth="1"/>
+    <col min="12802" max="12803" width="2.625" style="13" customWidth="1"/>
+    <col min="12804" max="12804" width="10.75" style="13" customWidth="1"/>
+    <col min="12805" max="12806" width="2.625" style="13" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="8.75" style="13" customWidth="1"/>
+    <col min="12810" max="12810" width="40.25" style="13" customWidth="1"/>
+    <col min="12811" max="12811" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12816" max="13054" width="9" style="13"/>
+    <col min="13055" max="13055" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="18.25" style="13" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="13" customWidth="1"/>
+    <col min="13058" max="13059" width="2.625" style="13" customWidth="1"/>
+    <col min="13060" max="13060" width="10.75" style="13" customWidth="1"/>
+    <col min="13061" max="13062" width="2.625" style="13" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="8.75" style="13" customWidth="1"/>
+    <col min="13066" max="13066" width="40.25" style="13" customWidth="1"/>
+    <col min="13067" max="13067" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13310" width="9" style="13"/>
+    <col min="13311" max="13311" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="18.25" style="13" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="13" customWidth="1"/>
+    <col min="13314" max="13315" width="2.625" style="13" customWidth="1"/>
+    <col min="13316" max="13316" width="10.75" style="13" customWidth="1"/>
+    <col min="13317" max="13318" width="2.625" style="13" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="8.75" style="13" customWidth="1"/>
+    <col min="13322" max="13322" width="40.25" style="13" customWidth="1"/>
+    <col min="13323" max="13323" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13566" width="9" style="13"/>
+    <col min="13567" max="13567" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="18.25" style="13" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="13" customWidth="1"/>
+    <col min="13570" max="13571" width="2.625" style="13" customWidth="1"/>
+    <col min="13572" max="13572" width="10.75" style="13" customWidth="1"/>
+    <col min="13573" max="13574" width="2.625" style="13" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="8.75" style="13" customWidth="1"/>
+    <col min="13578" max="13578" width="40.25" style="13" customWidth="1"/>
+    <col min="13579" max="13579" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13822" width="9" style="13"/>
+    <col min="13823" max="13823" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="18.25" style="13" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="13" customWidth="1"/>
+    <col min="13826" max="13827" width="2.625" style="13" customWidth="1"/>
+    <col min="13828" max="13828" width="10.75" style="13" customWidth="1"/>
+    <col min="13829" max="13830" width="2.625" style="13" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="8.75" style="13" customWidth="1"/>
+    <col min="13834" max="13834" width="40.25" style="13" customWidth="1"/>
+    <col min="13835" max="13835" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13840" max="14078" width="9" style="13"/>
+    <col min="14079" max="14079" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="18.25" style="13" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="13" customWidth="1"/>
+    <col min="14082" max="14083" width="2.625" style="13" customWidth="1"/>
+    <col min="14084" max="14084" width="10.75" style="13" customWidth="1"/>
+    <col min="14085" max="14086" width="2.625" style="13" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="8.75" style="13" customWidth="1"/>
+    <col min="14090" max="14090" width="40.25" style="13" customWidth="1"/>
+    <col min="14091" max="14091" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14334" width="9" style="13"/>
+    <col min="14335" max="14335" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="18.25" style="13" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="13" customWidth="1"/>
+    <col min="14338" max="14339" width="2.625" style="13" customWidth="1"/>
+    <col min="14340" max="14340" width="10.75" style="13" customWidth="1"/>
+    <col min="14341" max="14342" width="2.625" style="13" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="8.75" style="13" customWidth="1"/>
+    <col min="14346" max="14346" width="40.25" style="13" customWidth="1"/>
+    <col min="14347" max="14347" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14590" width="9" style="13"/>
+    <col min="14591" max="14591" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="18.25" style="13" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="13" customWidth="1"/>
+    <col min="14594" max="14595" width="2.625" style="13" customWidth="1"/>
+    <col min="14596" max="14596" width="10.75" style="13" customWidth="1"/>
+    <col min="14597" max="14598" width="2.625" style="13" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="8.75" style="13" customWidth="1"/>
+    <col min="14602" max="14602" width="40.25" style="13" customWidth="1"/>
+    <col min="14603" max="14603" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14846" width="9" style="13"/>
+    <col min="14847" max="14847" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="18.25" style="13" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="13" customWidth="1"/>
+    <col min="14850" max="14851" width="2.625" style="13" customWidth="1"/>
+    <col min="14852" max="14852" width="10.75" style="13" customWidth="1"/>
+    <col min="14853" max="14854" width="2.625" style="13" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="8.75" style="13" customWidth="1"/>
+    <col min="14858" max="14858" width="40.25" style="13" customWidth="1"/>
+    <col min="14859" max="14859" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14864" max="15102" width="9" style="13"/>
+    <col min="15103" max="15103" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="18.25" style="13" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="13" customWidth="1"/>
+    <col min="15106" max="15107" width="2.625" style="13" customWidth="1"/>
+    <col min="15108" max="15108" width="10.75" style="13" customWidth="1"/>
+    <col min="15109" max="15110" width="2.625" style="13" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="8.75" style="13" customWidth="1"/>
+    <col min="15114" max="15114" width="40.25" style="13" customWidth="1"/>
+    <col min="15115" max="15115" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15358" width="9" style="13"/>
+    <col min="15359" max="15359" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="18.25" style="13" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="13" customWidth="1"/>
+    <col min="15362" max="15363" width="2.625" style="13" customWidth="1"/>
+    <col min="15364" max="15364" width="10.75" style="13" customWidth="1"/>
+    <col min="15365" max="15366" width="2.625" style="13" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="8.75" style="13" customWidth="1"/>
+    <col min="15370" max="15370" width="40.25" style="13" customWidth="1"/>
+    <col min="15371" max="15371" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15614" width="9" style="13"/>
+    <col min="15615" max="15615" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="18.25" style="13" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="13" customWidth="1"/>
+    <col min="15618" max="15619" width="2.625" style="13" customWidth="1"/>
+    <col min="15620" max="15620" width="10.75" style="13" customWidth="1"/>
+    <col min="15621" max="15622" width="2.625" style="13" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="8.75" style="13" customWidth="1"/>
+    <col min="15626" max="15626" width="40.25" style="13" customWidth="1"/>
+    <col min="15627" max="15627" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15870" width="9" style="13"/>
+    <col min="15871" max="15871" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="18.25" style="13" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="13" customWidth="1"/>
+    <col min="15874" max="15875" width="2.625" style="13" customWidth="1"/>
+    <col min="15876" max="15876" width="10.75" style="13" customWidth="1"/>
+    <col min="15877" max="15878" width="2.625" style="13" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="8.75" style="13" customWidth="1"/>
+    <col min="15882" max="15882" width="40.25" style="13" customWidth="1"/>
+    <col min="15883" max="15883" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15888" max="16126" width="9" style="13"/>
+    <col min="16127" max="16127" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="18.25" style="13" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="13" customWidth="1"/>
+    <col min="16130" max="16131" width="2.625" style="13" customWidth="1"/>
+    <col min="16132" max="16132" width="10.75" style="13" customWidth="1"/>
+    <col min="16133" max="16134" width="2.625" style="13" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="8.75" style="13" customWidth="1"/>
+    <col min="16138" max="16138" width="40.25" style="13" customWidth="1"/>
+    <col min="16139" max="16139" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="22.5">
+      <c r="A1" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:254" ht="12">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="17">
+        <v>42</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="G2" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="H2" s="18">
+        <v>42</v>
+      </c>
+      <c r="I2" s="13">
+        <f>G2*H2</f>
+        <v>357</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="N2" s="13">
+        <f>H2*M2</f>
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:254" ht="12">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="G3" s="13">
+        <v>15.09</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I12" si="0">G3*H3</f>
+        <v>15.09</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="13">
+        <v>18.16</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N12" si="1">H3*M3</f>
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:254" ht="12">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="G4" s="13">
+        <v>48.8</v>
+      </c>
+      <c r="H4" s="18">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>146.39999999999998</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="13">
+        <v>59.99</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="1"/>
+        <v>179.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:254" ht="12">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="G5" s="13">
+        <v>14.92</v>
+      </c>
+      <c r="H5" s="18">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>89.52</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="13">
+        <v>16.18</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="1"/>
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:254" s="16" customFormat="1" ht="12">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>50.88</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="1"/>
+        <v>50.88</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="13"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13"/>
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13"/>
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13"/>
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="13"/>
+      <c r="EM6" s="13"/>
+      <c r="EN6" s="13"/>
+      <c r="EO6" s="13"/>
+      <c r="EP6" s="13"/>
+      <c r="EQ6" s="13"/>
+      <c r="ER6" s="13"/>
+      <c r="ES6" s="13"/>
+      <c r="ET6" s="13"/>
+      <c r="EU6" s="13"/>
+      <c r="EV6" s="13"/>
+      <c r="EW6" s="13"/>
+      <c r="EX6" s="13"/>
+      <c r="EY6" s="13"/>
+      <c r="EZ6" s="13"/>
+      <c r="FA6" s="13"/>
+      <c r="FB6" s="13"/>
+      <c r="FC6" s="13"/>
+      <c r="FD6" s="13"/>
+      <c r="FE6" s="13"/>
+      <c r="FF6" s="13"/>
+      <c r="FG6" s="13"/>
+      <c r="FH6" s="13"/>
+      <c r="FI6" s="13"/>
+      <c r="FJ6" s="13"/>
+      <c r="FK6" s="13"/>
+      <c r="FL6" s="13"/>
+      <c r="FM6" s="13"/>
+      <c r="FN6" s="13"/>
+      <c r="FO6" s="13"/>
+      <c r="FP6" s="13"/>
+      <c r="FQ6" s="13"/>
+      <c r="FR6" s="13"/>
+      <c r="FS6" s="13"/>
+      <c r="FT6" s="13"/>
+      <c r="FU6" s="13"/>
+      <c r="FV6" s="13"/>
+      <c r="FW6" s="13"/>
+      <c r="FX6" s="13"/>
+      <c r="FY6" s="13"/>
+      <c r="FZ6" s="13"/>
+      <c r="GA6" s="13"/>
+      <c r="GB6" s="13"/>
+      <c r="GC6" s="13"/>
+      <c r="GD6" s="13"/>
+      <c r="GE6" s="13"/>
+      <c r="GF6" s="13"/>
+      <c r="GG6" s="13"/>
+      <c r="GH6" s="13"/>
+      <c r="GI6" s="13"/>
+      <c r="GJ6" s="13"/>
+      <c r="GK6" s="13"/>
+      <c r="GL6" s="13"/>
+      <c r="GM6" s="13"/>
+      <c r="GN6" s="13"/>
+      <c r="GO6" s="13"/>
+      <c r="GP6" s="13"/>
+      <c r="GQ6" s="13"/>
+      <c r="GR6" s="13"/>
+      <c r="GS6" s="13"/>
+      <c r="GT6" s="13"/>
+      <c r="GU6" s="13"/>
+      <c r="GV6" s="13"/>
+      <c r="GW6" s="13"/>
+      <c r="GX6" s="13"/>
+      <c r="GY6" s="13"/>
+      <c r="GZ6" s="13"/>
+      <c r="HA6" s="13"/>
+      <c r="HB6" s="13"/>
+      <c r="HC6" s="13"/>
+      <c r="HD6" s="13"/>
+      <c r="HE6" s="13"/>
+      <c r="HF6" s="13"/>
+      <c r="HG6" s="13"/>
+      <c r="HH6" s="13"/>
+      <c r="HI6" s="13"/>
+      <c r="HJ6" s="13"/>
+      <c r="HK6" s="13"/>
+      <c r="HL6" s="13"/>
+      <c r="HM6" s="13"/>
+      <c r="HN6" s="13"/>
+      <c r="HO6" s="13"/>
+      <c r="HP6" s="13"/>
+      <c r="HQ6" s="13"/>
+      <c r="HR6" s="13"/>
+      <c r="HS6" s="13"/>
+      <c r="HT6" s="13"/>
+      <c r="HU6" s="13"/>
+      <c r="HV6" s="13"/>
+      <c r="HW6" s="13"/>
+      <c r="HX6" s="13"/>
+      <c r="HY6" s="13"/>
+      <c r="HZ6" s="13"/>
+      <c r="IA6" s="13"/>
+      <c r="IB6" s="13"/>
+      <c r="IC6" s="13"/>
+      <c r="ID6" s="13"/>
+      <c r="IE6" s="13"/>
+      <c r="IF6" s="13"/>
+      <c r="IG6" s="13"/>
+      <c r="IH6" s="13"/>
+      <c r="II6" s="13"/>
+      <c r="IJ6" s="13"/>
+      <c r="IK6" s="13"/>
+      <c r="IL6" s="13"/>
+      <c r="IM6" s="13"/>
+      <c r="IN6" s="13"/>
+      <c r="IO6" s="13"/>
+      <c r="IP6" s="13"/>
+      <c r="IQ6" s="13"/>
+      <c r="IR6" s="13"/>
+      <c r="IS6" s="13"/>
+      <c r="IT6" s="13"/>
+    </row>
+    <row r="7" spans="1:254" ht="12">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="G7" s="13">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H7" s="18">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>29.160000000000004</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="13">
+        <v>11.52</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="1"/>
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:254" ht="12">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="G8" s="13">
+        <v>13.64</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>27.28</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="13">
+        <v>13.35</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="1"/>
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" ht="12">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="G9" s="13">
+        <v>18.55</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>55.650000000000006</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17.28</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="1"/>
+        <v>51.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:254" ht="12">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="G10" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" s="13">
+        <v>11.52</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="1"/>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:254" ht="12">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="G11" s="13">
+        <v>16.02</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>32.04</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="13">
+        <v>15.12</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="1"/>
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="12">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="G12" s="13">
+        <v>20.94</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>20.94</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="13">
+        <v>20.16</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="1"/>
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:254" ht="12">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="17">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="13">
+        <v>-10</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <f>F13*H13</f>
+        <v>-10</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" s="13">
+        <f>SUM(N2:N12)</f>
+        <v>1020.7900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:254" ht="12">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="17">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="13">
+        <f>SUM(I2:I13)</f>
+        <v>863.37999999999988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:254">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="G15" s="13">
+        <v>39.93</v>
+      </c>
+      <c r="H15" s="13">
+        <v>25</v>
+      </c>
+      <c r="I15" s="13">
+        <f>G15*H15</f>
+        <v>998.25</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:254" ht="13.5">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="13">
+        <v>-40</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <f>F16*H16</f>
+        <v>-40</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.5">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23">
+        <f>I15+I16</f>
+        <v>958.25</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.5">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="17">
+        <v>7</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="G19" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="H19" s="13">
+        <v>40</v>
+      </c>
+      <c r="I19" s="13">
+        <f>G19*H19</f>
+        <v>504</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="17">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="G20" s="13">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13">
+        <v>6</v>
+      </c>
+      <c r="I20" s="13">
+        <f>G20*H20</f>
+        <v>72</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" ht="13.5">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="17">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23">
+        <f>I19+I20</f>
+        <v>576</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" ht="13.5">
+      <c r="A22" s="14">
+        <v>23</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="G22" s="13">
+        <v>605</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13">
+        <f>G22*H22</f>
+        <v>605</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" ht="13.5">
+      <c r="A23" s="14">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="G23" s="13">
+        <v>39</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13">
+        <f>G23*H23</f>
+        <v>78</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" ht="13.5">
+      <c r="A24" s="14">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="13">
+        <v>-10</v>
+      </c>
+      <c r="G24" s="30">
+        <v>199</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <f>H24*G24+F24</f>
+        <v>189</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" ht="13.5">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="13">
+        <v>-10</v>
+      </c>
+      <c r="G25" s="30">
+        <v>558</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" ref="I25:I26" si="2">H25*G25+F25</f>
+        <v>548</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" ht="12">
+      <c r="A26" s="14">
+        <v>26</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="13">
+        <v>-10</v>
+      </c>
+      <c r="G26" s="31">
+        <v>299</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:15" ht="12">
+      <c r="A27" s="14">
+        <v>27</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="G27" s="24">
+        <v>235</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" ref="I27:I28" si="3">G27*H27</f>
+        <v>235</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" ht="12">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="G28" s="24">
+        <v>126</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:15" ht="12">
+      <c r="A29" s="14">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="G29" s="24"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:15" ht="12">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="12">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="17">
+        <v>10</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="G32" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="H32" s="13">
+        <v>10</v>
+      </c>
+      <c r="I32" s="13">
+        <f>G32*H32</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12">
+      <c r="A33" s="14">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11805555555555555" right="0.11805555555555555" top="0.23958333333333334" bottom="0.31458333333333333" header="0.47222222222222221" footer="7.8472222222222221E-2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"文鼎CS楷体,常规"业主签字：&amp;U　&amp;"Times New Roman,常规"____&amp;"文鼎CS楷体,常规"　　　&amp;6&amp;U．&amp;C&amp;P/&amp;N&amp;R&amp;"文鼎CS楷体,常规"公司盖章：&amp;"Times New Roman,常规"___________</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-45" windowWidth="19200" windowHeight="9615" activeTab="1"/>
+    <workbookView xWindow="-1305" yWindow="30" windowWidth="19200" windowHeight="9615" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
     <sheet name="灯明细" sheetId="6" r:id="rId5"/>
+    <sheet name="瓷砖" sheetId="10" r:id="rId6"/>
+    <sheet name="瓷砖2" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="__A100000">#REF!</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="393">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1038,387 @@
     <t>卫生间排气扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ln45306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63935(63720)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折后价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买3送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厅角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一片未送货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S880302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">拨打线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送210退8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63720(换为N63935)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补厨房门边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补11退4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG602013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补过到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG802013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补退金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补/退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周建雄:13903033644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖变更明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN45306</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>厨房墙面300*450</t>
+  </si>
+  <si>
+    <t>厨房300*300防滑砖</t>
+  </si>
+  <si>
+    <t>LN63720</t>
+  </si>
+  <si>
+    <t>主卫墙面300*450</t>
+  </si>
+  <si>
+    <t>LF30513</t>
+  </si>
+  <si>
+    <t>主卫300*300防滑砖</t>
+  </si>
+  <si>
+    <t>公卫墙面300*450</t>
+  </si>
+  <si>
+    <t>公卫300*300防滑砖</t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>主人房地脚线</t>
+  </si>
+  <si>
+    <t>YG602013</t>
+  </si>
+  <si>
+    <t>603001/603003</t>
+  </si>
+  <si>
+    <t>主人房600*600抛光砖</t>
+  </si>
+  <si>
+    <t>客房地脚线</t>
+  </si>
+  <si>
+    <t>客房600*600抛光砖</t>
+  </si>
+  <si>
+    <t>小孩房地脚线</t>
+  </si>
+  <si>
+    <t>小孩房600*600抛光砖</t>
+  </si>
+  <si>
+    <t>菲亚特4237</t>
+  </si>
+  <si>
+    <t>大阳台300*300防滑砖</t>
+  </si>
+  <si>
+    <t>小阳台300*300防滑砖</t>
+  </si>
+  <si>
+    <t>迅驰880302</t>
+  </si>
+  <si>
+    <t>过道波打线</t>
+  </si>
+  <si>
+    <t>YG800971</t>
+  </si>
+  <si>
+    <t>过道800*800抛光砖</t>
+  </si>
+  <si>
+    <t>客厅地脚线</t>
+  </si>
+  <si>
+    <t>客厅800*800抛光砖</t>
+  </si>
+  <si>
+    <t>入户地脚线</t>
+  </si>
+  <si>
+    <t>入户600*600抛光砖</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>PCE</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>联系方式：</t>
+  </si>
+  <si>
+    <t>品牌：</t>
+  </si>
+  <si>
+    <t>菲亚特4237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲亚特4237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利家居348000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利家居348000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>27.4M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1428,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,6 +1587,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1237,7 +1629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1256,6 +1648,126 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1284,7 +1796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1892,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2841,7 +3389,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
@@ -6024,7 +6572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="I5" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -7057,13 +7605,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="22.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="13" t="s">
         <v>288</v>
       </c>
@@ -8267,4 +8815,1396 @@
     <oddFooter>&amp;L&amp;"文鼎CS楷体,常规"业主签字：&amp;U　&amp;"Times New Roman,常规"____&amp;"文鼎CS楷体,常规"　　　&amp;6&amp;U．&amp;C&amp;P/&amp;N&amp;R&amp;"文鼎CS楷体,常规"公司盖章：&amp;"Times New Roman,常规"___________</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="33">
+        <v>49</v>
+      </c>
+      <c r="H6" s="33">
+        <v>5</v>
+      </c>
+      <c r="I6" s="33">
+        <v>79.8</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6:J16" si="0">G6*I6</f>
+        <v>3910.2</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6:K16" si="1">H6*I6</f>
+        <v>399</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="33">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="33">
+        <v>120</v>
+      </c>
+      <c r="H7" s="33">
+        <f>11-4</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="33">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>4656</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="1"/>
+        <v>271.59999999999997</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="33">
+        <v>20</v>
+      </c>
+      <c r="C8" s="36">
+        <v>45306</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="33">
+        <v>155</v>
+      </c>
+      <c r="H8" s="33">
+        <v>10</v>
+      </c>
+      <c r="I8" s="33">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="0"/>
+        <v>1519</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="33">
+        <v>58</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="33">
+        <v>200</v>
+      </c>
+      <c r="H10" s="33">
+        <f>10-8</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36">
+        <v>30513</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="33">
+        <v>78</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="K11" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="33">
+        <v>67</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>6.8</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="0"/>
+        <v>455.59999999999997</v>
+      </c>
+      <c r="K12" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="33">
+        <v>33</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+      <c r="H13" s="33">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="33">
+        <v>88</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="K13" s="33">
+        <f t="shared" si="1"/>
+        <v>-88</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="33">
+        <v>25</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>8</v>
+      </c>
+      <c r="J14" s="33">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K14" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="33">
+        <v>86</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>5</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="K15" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
+        <v>3</v>
+      </c>
+      <c r="I16" s="33">
+        <v>25</v>
+      </c>
+      <c r="J16" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J18" s="34">
+        <f>SUM(J6:J17)</f>
+        <v>15234.800000000001</v>
+      </c>
+      <c r="K18" s="34">
+        <f>SUM(K6:K16)</f>
+        <v>783.19999999999993</v>
+      </c>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="I19" s="33">
+        <v>-4600</v>
+      </c>
+      <c r="J19" s="33">
+        <v>14600</v>
+      </c>
+      <c r="K19" s="33">
+        <v>783.2</v>
+      </c>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33">
+        <f>J19/J18</f>
+        <v>0.95833223934675871</v>
+      </c>
+      <c r="K20" s="33">
+        <f>K19+J19+I19</f>
+        <v>10783.2</v>
+      </c>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C24" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C25" s="40">
+        <v>802013</v>
+      </c>
+      <c r="D25" s="33">
+        <v>5</v>
+      </c>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C26" s="40">
+        <v>602013</v>
+      </c>
+      <c r="D26" s="33">
+        <v>11</v>
+      </c>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C27" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="33">
+        <v>10</v>
+      </c>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C28" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="33">
+        <v>75</v>
+      </c>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C29" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="33">
+        <v>10</v>
+      </c>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C30" s="40">
+        <v>63935</v>
+      </c>
+      <c r="D30" s="33">
+        <v>-8</v>
+      </c>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C31" s="40">
+        <v>602013</v>
+      </c>
+      <c r="D31" s="33">
+        <v>-4</v>
+      </c>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" ht="24.75" customHeight="1">
+      <c r="C32" s="40">
+        <v>8803020</v>
+      </c>
+      <c r="D32" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="3:5" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44">
+        <v>783</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E4" s="33">
+        <v>27</v>
+      </c>
+      <c r="F4" s="33">
+        <v>62</v>
+      </c>
+      <c r="G4" s="33">
+        <v>1674</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I4" s="33">
+        <v>38</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="33">
+        <v>10.7</v>
+      </c>
+      <c r="E5" s="33">
+        <v>5</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="33">
+        <v>2</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="33">
+        <v>27.4</v>
+      </c>
+      <c r="E6" s="33">
+        <v>40</v>
+      </c>
+      <c r="F6" s="33">
+        <v>115</v>
+      </c>
+      <c r="G6" s="33">
+        <v>4600</v>
+      </c>
+      <c r="H6" s="33">
+        <v>803001</v>
+      </c>
+      <c r="I6" s="33">
+        <v>88</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="33">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33">
+        <v>8</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="33">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33">
+        <v>115</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1035</v>
+      </c>
+      <c r="H8" s="33">
+        <v>803001</v>
+      </c>
+      <c r="I8" s="33">
+        <v>88</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3</v>
+      </c>
+      <c r="F9" s="33">
+        <v>88</v>
+      </c>
+      <c r="G9" s="33">
+        <v>264</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="33">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="E10" s="33">
+        <v>21</v>
+      </c>
+      <c r="F10" s="33">
+        <v>6.8</v>
+      </c>
+      <c r="G10" s="33">
+        <v>143</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="33">
+        <v>5</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="33">
+        <v>7.3</v>
+      </c>
+      <c r="E11" s="33">
+        <v>46</v>
+      </c>
+      <c r="F11" s="33">
+        <v>6.8</v>
+      </c>
+      <c r="G11" s="33">
+        <v>313</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="33">
+        <v>6</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E12" s="33">
+        <v>27</v>
+      </c>
+      <c r="F12" s="33">
+        <v>62</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1674</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I12" s="33">
+        <v>38</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="33">
+        <v>11.8</v>
+      </c>
+      <c r="E13" s="33">
+        <v>5</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="33">
+        <v>7</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="33">
+        <v>7.6</v>
+      </c>
+      <c r="E14" s="33">
+        <v>21</v>
+      </c>
+      <c r="F14" s="33">
+        <v>62</v>
+      </c>
+      <c r="G14" s="33">
+        <v>1302</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" s="33">
+        <v>38</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="33">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E15" s="33">
+        <v>5</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="33">
+        <v>8</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="33">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E16" s="33">
+        <v>45</v>
+      </c>
+      <c r="F16" s="33">
+        <v>62</v>
+      </c>
+      <c r="G16" s="33">
+        <v>2790</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="33">
+        <v>38</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="33">
+        <v>18.8</v>
+      </c>
+      <c r="E17" s="33">
+        <v>5</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="33">
+        <v>9</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="33">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33">
+        <v>33</v>
+      </c>
+      <c r="F18" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="33">
+        <v>281</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="33">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E19" s="33">
+        <v>90</v>
+      </c>
+      <c r="F19" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1242</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="33">
+        <v>10</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E20" s="33">
+        <v>45</v>
+      </c>
+      <c r="F20" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="G20" s="33">
+        <v>383</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="33">
+        <v>20</v>
+      </c>
+      <c r="E21" s="33">
+        <v>110</v>
+      </c>
+      <c r="F21" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1518</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="33">
+        <v>11</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="E22" s="33">
+        <v>58</v>
+      </c>
+      <c r="F22" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="G22" s="33">
+        <v>377</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="33">
+        <v>21</v>
+      </c>
+      <c r="E23" s="33">
+        <v>155</v>
+      </c>
+      <c r="F23" s="33">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1519</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
+        <v>730</v>
+      </c>
+      <c r="G24" s="33">
+        <v>19114</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1305" yWindow="30" windowWidth="19200" windowHeight="9615" activeTab="5"/>
+    <workbookView xWindow="-1305" yWindow="60" windowWidth="19200" windowHeight="9585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_A99996" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_A99999" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_D99999" localSheetId="4">灯明细!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">灯明细!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">灯明细!$A$2:$E$33</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="406">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>中午查广发帐号收到二哥还我们的肆万块钱和壹万元房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,89 +606,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蓝谷橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-15 16:31:32	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-04 13:06:36	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-31 16:16:12	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-29 14:15:29	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-25 17:51:54	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-21 10:42:22	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-15 16:26:32	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-28 15:11:56	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-28 15:11:20	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-21 00:39:18	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-16 15:18:10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-14 17:19:30	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-13 18:52:31	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-10 14:22:46	</t>
+  </si>
+  <si>
+    <t>还款(王冠军)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款(张锐40000)+房租10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行广州转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收房+物业费8-11月 = 116.58*2.2*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉来过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝谷橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好莱客衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11-15 16:31:32	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11-04 13:06:36	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-31 16:16:12	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-29 14:15:29	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-25 17:51:54	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-21 10:42:22	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-15 16:26:32	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-28 15:11:56	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-28 15:11:20	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-21 00:39:18	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-16 15:18:10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-14 17:19:30	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-13 18:52:31	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-10 14:22:46	</t>
-  </si>
-  <si>
-    <t>还款(王冠军)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款(张锐40000)+房租10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交行广州转入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收房+物业费8-11月 = 116.58*2.2*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉来过滤器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盼盼门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1176,10 +1164,6 @@
   </si>
   <si>
     <t>房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补过到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1417,6 +1401,74 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接到电话可以去房产局拿房产证了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客衣柜(预定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到房产证了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hk2k8 ss2k10~ss2k13(用了2元积分) 8.8×4包邮木炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客衣柜(尾款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖(尾款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补过道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hegll(尾款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盼盼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盼盼门预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盼盼门(尾款)(增加预算入户门换全包边)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏电开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座防水盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修款-最后确定装修价格为49000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃刮×2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2260,31 +2312,31 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
@@ -2292,55 +2344,55 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="6">
         <v>665412.75</v>
@@ -2348,16 +2400,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2372,17 +2424,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.375" bestFit="1" customWidth="1"/>
@@ -2392,28 +2444,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2512,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -2533,10 +2585,10 @@
         <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" t="s">
         <v>190</v>
-      </c>
-      <c r="I7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2554,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2572,10 +2624,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" t="s">
         <v>190</v>
-      </c>
-      <c r="I9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2593,10 +2645,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" t="s">
         <v>190</v>
-      </c>
-      <c r="I10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2610,10 +2662,10 @@
         <v>3000</v>
       </c>
       <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
         <v>170</v>
-      </c>
-      <c r="H11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2630,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
         <v>172</v>
-      </c>
-      <c r="H12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2651,10 +2703,10 @@
         <v>15000</v>
       </c>
       <c r="G13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" t="s">
         <v>173</v>
-      </c>
-      <c r="H13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2676,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2695,13 +2747,13 @@
         <v>8645</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2720,10 +2772,10 @@
         <v>7960</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2741,10 +2793,10 @@
         <v>1500</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2758,10 +2810,10 @@
         <v>-1500</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2779,10 +2831,10 @@
         <v>46000</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2799,10 +2851,10 @@
         <v>10000</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2817,10 +2869,10 @@
         <v>309.51</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2834,7 +2886,7 @@
         <v>115.4</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2851,13 +2903,13 @@
         <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2874,10 +2926,10 @@
         <v>31000</v>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2894,7 +2946,7 @@
         <v>1500</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2911,7 +2963,7 @@
         <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2928,10 +2980,10 @@
         <v>21000</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2950,7 +3002,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2967,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2986,7 +3038,7 @@
         <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3003,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3020,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3039,11 +3091,14 @@
       <c r="F33">
         <v>0</v>
       </c>
+      <c r="G33" t="s">
+        <v>399</v>
+      </c>
       <c r="H33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3060,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3077,7 +3132,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3094,10 +3152,10 @@
         <v>1300</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3114,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3132,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3150,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3168,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3185,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3202,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3219,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3239,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3256,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3273,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3290,18 +3348,195 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>41567</v>
+      </c>
+      <c r="B48">
+        <v>6000</v>
+      </c>
+      <c r="C48">
+        <v>6000</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>393</v>
+      </c>
+      <c r="I48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>41568</v>
+      </c>
+      <c r="B49">
+        <f>35.2*5-2</f>
+        <v>174</v>
+      </c>
+      <c r="C49">
+        <f>35.2*5-2</f>
+        <v>174</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>392</v>
+      </c>
+      <c r="I49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B50">
+        <v>15100</v>
+      </c>
+      <c r="C50" s="12">
+        <v>10500</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>394</v>
+      </c>
+      <c r="I50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>41594</v>
+      </c>
+      <c r="B51">
+        <v>10960</v>
+      </c>
+      <c r="C51">
+        <v>7910</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>396</v>
+      </c>
+      <c r="I51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>41603</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>38</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>401</v>
+      </c>
+      <c r="I52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B53">
+        <v>85</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>402</v>
+      </c>
+      <c r="I53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>403</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B55">
+        <v>49000</v>
+      </c>
+      <c r="C55">
+        <v>9000</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>404</v>
+      </c>
+      <c r="I55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>41598</v>
+      </c>
+      <c r="B56">
+        <v>11.56</v>
+      </c>
+      <c r="C56">
+        <v>11.56</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>405</v>
+      </c>
+      <c r="I56" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1">
-    <sortState ref="A2:H13">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3310,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3324,10 +3559,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3335,7 +3570,7 @@
         <v>41040</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3343,7 +3578,7 @@
         <v>41041</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3351,7 +3586,7 @@
         <v>41067</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3359,7 +3594,7 @@
         <v>41070</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3367,7 +3602,7 @@
         <v>41071</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3375,7 +3610,23 @@
         <v>41238</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>41558</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>41572</v>
+      </c>
+      <c r="B9" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3640,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
@@ -4105,45 +4356,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" s="12">
         <v>6874</v>
@@ -4158,18 +4409,18 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4184,18 +4435,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="12">
         <v>1385.19</v>
@@ -4210,18 +4461,18 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4236,18 +4487,18 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4262,18 +4513,18 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4288,18 +4539,18 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="12">
         <v>6498</v>
@@ -4314,18 +4565,18 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4340,18 +4591,18 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4366,18 +4617,18 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>53.98</v>
@@ -4392,18 +4643,18 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4418,18 +4669,18 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="12">
         <v>6138</v>
@@ -4444,18 +4695,18 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="12">
         <v>10000</v>
@@ -4470,21 +4721,21 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4497,24 +4748,24 @@
         <v>100.09</v>
       </c>
       <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
         <v>68</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="10">
         <v>20000</v>
@@ -4526,21 +4777,21 @@
         <v>20100.09</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -4552,24 +4803,24 @@
         <v>100.09</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -4581,24 +4832,24 @@
         <v>10100.09</v>
       </c>
       <c r="H18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -4610,24 +4861,24 @@
         <v>30100.09</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -4639,24 +4890,24 @@
         <v>50100.09</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -4668,24 +4919,24 @@
         <v>60100.09</v>
       </c>
       <c r="H21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -4697,24 +4948,24 @@
         <v>70100.09</v>
       </c>
       <c r="H22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -4726,24 +4977,24 @@
         <v>90100.09</v>
       </c>
       <c r="H23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -4755,24 +5006,24 @@
         <v>100100.09</v>
       </c>
       <c r="H24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -4784,24 +5035,24 @@
         <v>110100.09</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
@@ -4813,24 +5064,24 @@
         <v>140100.09</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="11">
         <v>30000</v>
@@ -4842,18 +5093,18 @@
         <v>170100.09</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="10">
         <v>100000</v>
@@ -4865,21 +5116,21 @@
         <v>140100.09</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D29" s="10">
         <v>6235</v>
@@ -4891,18 +5142,18 @@
         <v>40100.089999999997</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="C30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -4914,18 +5165,18 @@
         <v>33865.089999999997</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="11">
         <v>10000</v>
@@ -4937,18 +5188,18 @@
         <v>34365.089999999997</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="10">
         <v>7000</v>
@@ -4960,18 +5211,18 @@
         <v>24365.09</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -4983,18 +5234,18 @@
         <v>17365.09</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D34" s="10">
         <v>1485.49</v>
@@ -5006,18 +5257,18 @@
         <v>17785.09</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D35" s="10">
         <v>6255</v>
@@ -5029,18 +5280,18 @@
         <v>16299.6</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -5052,18 +5303,18 @@
         <v>10044.6</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -5075,18 +5326,18 @@
         <v>11044.6</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
@@ -5098,18 +5349,18 @@
         <v>11066.8</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -5121,18 +5372,18 @@
         <v>11089.4</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="C40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="9">
         <v>84.67</v>
@@ -5144,18 +5395,18 @@
         <v>11221.7</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -5167,18 +5418,18 @@
         <v>11137.03</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="9">
         <v>0</v>
@@ -5190,18 +5441,18 @@
         <v>91137.03</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -5213,18 +5464,18 @@
         <v>92137.03</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
@@ -5236,18 +5487,18 @@
         <v>95137.03</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
@@ -5259,18 +5510,18 @@
         <v>98137.03</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -5282,18 +5533,18 @@
         <v>101137.03</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
@@ -5305,18 +5556,18 @@
         <v>104137.03</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
@@ -5328,18 +5579,18 @@
         <v>107137.03</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D49" s="10">
         <v>6220</v>
@@ -5351,18 +5602,18 @@
         <v>107152.53</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
@@ -5374,18 +5625,18 @@
         <v>100932.53</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
@@ -5397,18 +5648,18 @@
         <v>100945.53</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
@@ -5420,18 +5671,18 @@
         <v>101445.53</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="10">
         <v>15021.82</v>
@@ -5443,24 +5694,24 @@
         <v>581445.53</v>
       </c>
       <c r="H53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J53" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="10">
         <v>10038.5</v>
@@ -5472,24 +5723,24 @@
         <v>566423.71</v>
       </c>
       <c r="H54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J54" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="10">
         <v>25032.39</v>
@@ -5501,24 +5752,24 @@
         <v>556385.21</v>
       </c>
       <c r="H55" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="10">
         <v>20056.47</v>
@@ -5530,24 +5781,24 @@
         <v>531352.81999999995</v>
       </c>
       <c r="H56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J56" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="10">
         <v>10029.09</v>
@@ -5559,24 +5810,24 @@
         <v>511296.35</v>
       </c>
       <c r="H57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J57" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="10">
         <v>10312.09</v>
@@ -5588,24 +5839,24 @@
         <v>501267.26</v>
       </c>
       <c r="H58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J58" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="10">
         <v>87622.76</v>
@@ -5617,24 +5868,24 @@
         <v>490955.17</v>
       </c>
       <c r="H59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J59" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="10">
         <v>10331.94</v>
@@ -5646,24 +5897,24 @@
         <v>403332.41</v>
       </c>
       <c r="H60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J60" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="10">
         <v>100044</v>
@@ -5675,24 +5926,24 @@
         <v>393000.47</v>
       </c>
       <c r="H61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J61" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="10">
         <v>140051.32999999999</v>
@@ -5704,24 +5955,24 @@
         <v>292956.46999999997</v>
       </c>
       <c r="H62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J62" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
@@ -5733,18 +5984,18 @@
         <v>152905.14000000001</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -5756,18 +6007,18 @@
         <v>152930.64000000001</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
@@ -5779,18 +6030,18 @@
         <v>155930.64000000001</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="11">
         <v>50000</v>
@@ -5802,18 +6053,18 @@
         <v>155955.74</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="9">
         <v>0</v>
@@ -5825,18 +6076,18 @@
         <v>105955.74</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -5848,18 +6099,18 @@
         <v>105975.44</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
@@ -5871,18 +6122,18 @@
         <v>105997.64</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -5894,18 +6145,18 @@
         <v>106016.84</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
@@ -5917,18 +6168,18 @@
         <v>106033.34</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -5940,18 +6191,18 @@
         <v>108033.34</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
@@ -5963,18 +6214,18 @@
         <v>110033.34</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D74" s="9">
         <v>0</v>
@@ -5986,18 +6237,18 @@
         <v>110061.94</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D75" s="10">
         <v>10001.94</v>
@@ -6009,24 +6260,24 @@
         <v>110075.44</v>
       </c>
       <c r="H75" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J75" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D76" s="9">
         <v>0</v>
@@ -6038,18 +6289,18 @@
         <v>100073.5</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D77" s="10">
         <v>6474</v>
@@ -6061,18 +6312,18 @@
         <v>100097</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D78" s="10">
         <v>3032.69</v>
@@ -6084,18 +6335,18 @@
         <v>93623</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D79" s="10">
         <v>50000</v>
@@ -6107,21 +6358,21 @@
         <v>90590.31</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D80" s="10">
         <v>40000</v>
@@ -6133,21 +6384,21 @@
         <v>40590.31</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -6159,18 +6410,18 @@
         <v>590.30999999999995</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -6182,18 +6433,18 @@
         <v>3590.31</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="9">
         <v>0</v>
@@ -6205,24 +6456,24 @@
         <v>8590.31</v>
       </c>
       <c r="H83" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="J83" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84" s="10">
         <v>140000</v>
@@ -6234,21 +6485,21 @@
         <v>148590.31</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -6260,18 +6511,18 @@
         <v>8590.31</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -6283,24 +6534,24 @@
         <v>8616.41</v>
       </c>
       <c r="H86" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="J86" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
@@ -6312,18 +6563,18 @@
         <v>118616.41</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
@@ -6335,18 +6586,18 @@
         <v>118679.61</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D89" s="9">
         <v>0</v>
@@ -6358,18 +6609,18 @@
         <v>118690.71</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D90" s="10">
         <v>80000</v>
@@ -6381,21 +6632,21 @@
         <v>118724.71</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D91" s="10">
         <v>7824.24</v>
@@ -6407,18 +6658,18 @@
         <v>38724.71</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D92" s="10">
         <v>6465</v>
@@ -6430,18 +6681,18 @@
         <v>30900.47</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D93" s="9">
         <v>0</v>
@@ -6453,18 +6704,18 @@
         <v>24435.47</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D94" s="10">
         <v>15000</v>
@@ -6476,18 +6727,18 @@
         <v>24449.17</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D95" s="9">
         <v>13.09</v>
@@ -6499,18 +6750,18 @@
         <v>9449.17</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D96" s="10">
         <v>6343</v>
@@ -6522,18 +6773,18 @@
         <v>9436.08</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D97" s="10">
         <v>2450.9899999999998</v>
@@ -6545,15 +6796,15 @@
         <v>3093.08</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="B98" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D98" s="10">
         <v>1033425.5</v>
@@ -6572,7 +6823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="I5" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -7606,23 +7857,23 @@
   <sheetData>
     <row r="1" spans="1:254" ht="22.5">
       <c r="A1" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:254" ht="12">
@@ -7630,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" s="17">
         <v>42</v>
@@ -7650,7 +7901,7 @@
         <v>357</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="13">
         <v>10.8</v>
@@ -7665,10 +7916,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -7685,7 +7936,7 @@
         <v>15.09</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M3" s="13">
         <v>18.16</v>
@@ -7700,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D4" s="17">
         <v>3</v>
@@ -7720,7 +7971,7 @@
         <v>146.39999999999998</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M4" s="13">
         <v>59.99</v>
@@ -7735,10 +7986,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D5" s="17">
         <v>6</v>
@@ -7755,7 +8006,7 @@
         <v>89.52</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M5" s="13">
         <v>16.18</v>
@@ -7770,10 +8021,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
@@ -7791,7 +8042,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -8048,10 +8299,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -8068,7 +8319,7 @@
         <v>29.160000000000004</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M7" s="13">
         <v>11.52</v>
@@ -8083,10 +8334,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
@@ -8103,7 +8354,7 @@
         <v>27.28</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M8" s="13">
         <v>13.35</v>
@@ -8118,10 +8369,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D9" s="17">
         <v>3</v>
@@ -8138,7 +8389,7 @@
         <v>55.650000000000006</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M9" s="13">
         <v>17.28</v>
@@ -8153,10 +8404,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" s="17">
         <v>5</v>
@@ -8173,7 +8424,7 @@
         <v>60.5</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M10" s="13">
         <v>11.52</v>
@@ -8188,10 +8439,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
@@ -8208,7 +8459,7 @@
         <v>32.04</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M11" s="13">
         <v>15.12</v>
@@ -8223,10 +8474,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -8243,7 +8494,7 @@
         <v>20.94</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M12" s="13">
         <v>20.16</v>
@@ -8258,10 +8509,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D13" s="17">
         <v>12</v>
@@ -8278,7 +8529,7 @@
         <v>-10</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(N2:N12)</f>
@@ -8290,10 +8541,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="17">
         <v>8</v>
@@ -8310,10 +8561,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D15" s="17">
         <v>3</v>
@@ -8336,10 +8587,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -8356,7 +8607,7 @@
         <v>-40</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -8369,10 +8620,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -8394,10 +8645,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D18" s="17">
         <v>7</v>
@@ -8415,10 +8666,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" s="17">
         <v>14.4</v>
@@ -8446,10 +8697,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D20" s="17">
         <v>8</v>
@@ -8477,10 +8728,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D21" s="17">
         <v>9.6999999999999993</v>
@@ -8502,10 +8753,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -8522,7 +8773,7 @@
         <v>605</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -8535,10 +8786,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D23" s="17">
         <v>2</v>
@@ -8566,10 +8817,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
@@ -8600,10 +8851,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -8634,10 +8885,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
@@ -8663,10 +8914,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
@@ -8689,10 +8940,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -8715,10 +8966,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -8732,16 +8983,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12">
@@ -8749,16 +9000,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="12">
@@ -8766,10 +9017,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D32" s="17">
         <v>10</v>
@@ -8791,16 +9042,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8821,8 +9072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -8837,15 +9088,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -8861,11 +9112,11 @@
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -8894,61 +9145,61 @@
     </row>
     <row r="5" spans="1:13" ht="24.75" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G6" s="33">
         <v>49</v>
@@ -8968,28 +9219,28 @@
         <v>399</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B7" s="33">
         <v>33.700000000000003</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G7" s="33">
         <v>120</v>
@@ -9010,13 +9261,13 @@
         <v>271.59999999999997</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B8" s="33">
         <v>20</v>
@@ -9025,13 +9276,13 @@
         <v>45306</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G8" s="33">
         <v>155</v>
@@ -9051,26 +9302,26 @@
         <v>98</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="36" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G9" s="33">
         <v>58</v>
@@ -9094,20 +9345,20 @@
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G10" s="33">
         <v>200</v>
@@ -9128,26 +9379,26 @@
         <v>27.6</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="36">
         <v>30513</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G11" s="33">
         <v>78</v>
@@ -9171,20 +9422,20 @@
     </row>
     <row r="12" spans="1:13" ht="24.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="36" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G12" s="33">
         <v>67</v>
@@ -9208,22 +9459,22 @@
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13" s="33">
         <v>33</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G13" s="33">
         <v>3</v>
@@ -9243,24 +9494,24 @@
         <v>-88</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1">
       <c r="A14" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G14" s="33">
         <v>25</v>
@@ -9284,18 +9535,18 @@
     </row>
     <row r="15" spans="1:13" ht="24.75" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G15" s="33">
         <v>86</v>
@@ -9319,16 +9570,16 @@
     </row>
     <row r="16" spans="1:13" ht="24.75" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G16" s="33">
         <v>0</v>
@@ -9348,7 +9599,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -9369,7 +9620,7 @@
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -9379,7 +9630,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J18" s="34">
         <f>SUM(J6:J17)</f>
@@ -9400,7 +9651,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I19" s="33">
         <v>-4600</v>
@@ -9436,7 +9687,7 @@
     <row r="23" spans="1:13" ht="24.75" customHeight="1" thickBot="1"/>
     <row r="24" spans="1:13" ht="24.75" customHeight="1">
       <c r="C24" s="37" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -9461,7 +9712,7 @@
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1">
       <c r="C27" s="40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D27" s="33">
         <v>10</v>
@@ -9470,7 +9721,7 @@
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1">
       <c r="C28" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28" s="33">
         <v>75</v>
@@ -9479,7 +9730,7 @@
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1">
       <c r="C29" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D29" s="33">
         <v>10</v>
@@ -9531,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -9549,7 +9800,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="33" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -9564,7 +9815,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -9579,28 +9830,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="33" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
@@ -9611,10 +9862,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D4" s="33">
         <v>9.6999999999999993</v>
@@ -9629,23 +9880,23 @@
         <v>1674</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I4" s="33">
         <v>38</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D5" s="33">
         <v>10.7</v>
@@ -9654,7 +9905,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -9667,10 +9918,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D6" s="33">
         <v>27.4</v>
@@ -9691,17 +9942,17 @@
         <v>88</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D7" s="33">
         <v>20</v>
@@ -9710,7 +9961,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -9723,10 +9974,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D8" s="33">
         <v>3.8</v>
@@ -9747,17 +9998,17 @@
         <v>88</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D9" s="33">
         <v>9.6999999999999993</v>
@@ -9772,7 +10023,7 @@
         <v>264</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -9783,10 +10034,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D10" s="33">
         <v>3.4</v>
@@ -9801,7 +10052,7 @@
         <v>143</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -9812,10 +10063,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D11" s="33">
         <v>7.3</v>
@@ -9830,7 +10081,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -9841,10 +10092,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D12" s="33">
         <v>9.6999999999999993</v>
@@ -9859,23 +10110,23 @@
         <v>1674</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I12" s="33">
         <v>38</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D13" s="33">
         <v>11.8</v>
@@ -9884,7 +10135,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -9897,10 +10148,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D14" s="33">
         <v>7.6</v>
@@ -9915,23 +10166,23 @@
         <v>1302</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I14" s="33">
         <v>38</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="33"/>
       <c r="B15" s="33" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D15" s="33">
         <v>10.199999999999999</v>
@@ -9940,7 +10191,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -9953,10 +10204,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D16" s="33">
         <v>16.399999999999999</v>
@@ -9971,23 +10222,23 @@
         <v>2790</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I16" s="33">
         <v>38</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="33"/>
       <c r="B17" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D17" s="33">
         <v>18.8</v>
@@ -9996,7 +10247,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -10009,10 +10260,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D18" s="33">
         <v>3</v>
@@ -10027,7 +10278,7 @@
         <v>281</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -10036,10 +10287,10 @@
     <row r="19" spans="1:11">
       <c r="A19" s="33"/>
       <c r="B19" s="33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D19" s="33">
         <v>16.399999999999999</v>
@@ -10054,7 +10305,7 @@
         <v>1242</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -10065,10 +10316,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D20" s="33">
         <v>4.0999999999999996</v>
@@ -10083,7 +10334,7 @@
         <v>383</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -10092,10 +10343,10 @@
     <row r="21" spans="1:11">
       <c r="A21" s="33"/>
       <c r="B21" s="33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D21" s="33">
         <v>20</v>
@@ -10110,7 +10361,7 @@
         <v>1518</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -10121,10 +10372,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D22" s="33">
         <v>5.2</v>
@@ -10139,7 +10390,7 @@
         <v>377</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -10148,10 +10399,10 @@
     <row r="23" spans="1:11">
       <c r="A23" s="33"/>
       <c r="B23" s="33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D23" s="33">
         <v>21</v>
@@ -10166,7 +10417,7 @@
         <v>1519</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>

--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1305" yWindow="60" windowWidth="19200" windowHeight="9585" activeTab="1"/>
+    <workbookView xWindow="-1305" yWindow="60" windowWidth="19200" windowHeight="9585" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
-    <sheet name="AMT" sheetId="1" r:id="rId2"/>
+    <sheet name="List" sheetId="1" r:id="rId2"/>
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="chkchk9.10.2012" sheetId="5" r:id="rId4"/>
     <sheet name="灯明细" sheetId="6" r:id="rId5"/>
     <sheet name="瓷砖" sheetId="10" r:id="rId6"/>
     <sheet name="瓷砖2" sheetId="11" r:id="rId7"/>
+    <sheet name="借款" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="__A100000">#REF!</definedName>
@@ -28,8 +29,8 @@
     <definedName name="_A99996" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_A99999" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_D99999" localSheetId="4">灯明细!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMT!$A$1:$I$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$I$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">灯明细!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">灯明细!$A$2:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">灯明细!$A:$E</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="415">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,26 +677,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泉来过滤器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hegll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户花园窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装修款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓷砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,10 +806,6 @@
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定 - 50 (隔断差价)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1469,6 +1446,66 @@
   </si>
   <si>
     <t>玻璃刮×2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗大理石+门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修款退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉来过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉来过滤器预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hegll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hegll预定 - 50 (隔断差价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户花园窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户花园窗-预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张钺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1848,7 +1885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1980,6 +2017,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="B6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2450,7 +2490,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2459,7 +2499,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
@@ -2703,7 +2743,7 @@
         <v>15000</v>
       </c>
       <c r="G13" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H13" t="s">
         <v>173</v>
@@ -2725,10 +2765,10 @@
         <v>4100</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>404</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2747,13 +2787,13 @@
         <v>8645</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2772,10 +2812,10 @@
         <v>7960</v>
       </c>
       <c r="G16" t="s">
-        <v>231</v>
+        <v>406</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2793,10 +2833,10 @@
         <v>1500</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>408</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2810,10 +2850,10 @@
         <v>-1500</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2831,10 +2871,10 @@
         <v>46000</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2851,10 +2891,10 @@
         <v>10000</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2869,10 +2909,10 @@
         <v>309.51</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2886,7 +2926,7 @@
         <v>115.4</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2903,13 +2943,13 @@
         <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2926,10 +2966,10 @@
         <v>31000</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2937,7 +2977,7 @@
         <v>41484</v>
       </c>
       <c r="B25">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="C25">
         <v>600</v>
@@ -2946,7 +2986,7 @@
         <v>1500</v>
       </c>
       <c r="G25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2954,7 +2994,7 @@
         <v>41490</v>
       </c>
       <c r="B26">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -2963,7 +3003,7 @@
         <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2980,10 +3020,10 @@
         <v>21000</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3002,7 +3042,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3019,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3038,7 +3078,7 @@
         <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3055,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3072,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3092,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3115,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3132,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3152,10 +3192,10 @@
         <v>1300</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3172,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3190,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3208,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3226,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3243,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3260,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3277,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3297,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3314,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3331,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3348,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3368,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3390,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I49" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3410,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3430,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I51" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3450,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3470,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3490,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I54" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3510,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3530,13 +3570,54 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I56" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>41615</v>
+      </c>
+      <c r="B57">
+        <v>2300</v>
+      </c>
+      <c r="C57">
+        <v>700</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>400</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B58">
+        <v>4800</v>
+      </c>
+      <c r="C58">
+        <v>4100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>403</v>
+      </c>
+      <c r="I58" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I58"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3618,7 +3699,7 @@
         <v>41558</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3626,7 +3707,7 @@
         <v>41572</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3721,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
@@ -6824,7 +6905,7 @@
   <dimension ref="A1:IT33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I1:I1048576"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7856,24 +7937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="22.5">
-      <c r="A1" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:254" ht="12">
@@ -7881,10 +7962,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D2" s="17">
         <v>42</v>
@@ -7901,7 +7982,7 @@
         <v>357</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M2" s="13">
         <v>10.8</v>
@@ -7916,10 +7997,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -7936,7 +8017,7 @@
         <v>15.09</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M3" s="13">
         <v>18.16</v>
@@ -7951,10 +8032,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D4" s="17">
         <v>3</v>
@@ -7971,7 +8052,7 @@
         <v>146.39999999999998</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M4" s="13">
         <v>59.99</v>
@@ -7986,10 +8067,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D5" s="17">
         <v>6</v>
@@ -8006,7 +8087,7 @@
         <v>89.52</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M5" s="13">
         <v>16.18</v>
@@ -8021,10 +8102,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
@@ -8042,7 +8123,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -8299,10 +8380,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -8319,7 +8400,7 @@
         <v>29.160000000000004</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M7" s="13">
         <v>11.52</v>
@@ -8334,10 +8415,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
@@ -8354,7 +8435,7 @@
         <v>27.28</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M8" s="13">
         <v>13.35</v>
@@ -8369,10 +8450,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D9" s="17">
         <v>3</v>
@@ -8389,7 +8470,7 @@
         <v>55.650000000000006</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M9" s="13">
         <v>17.28</v>
@@ -8404,10 +8485,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D10" s="17">
         <v>5</v>
@@ -8424,7 +8505,7 @@
         <v>60.5</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M10" s="13">
         <v>11.52</v>
@@ -8439,10 +8520,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
@@ -8459,7 +8540,7 @@
         <v>32.04</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M11" s="13">
         <v>15.12</v>
@@ -8474,10 +8555,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -8494,7 +8575,7 @@
         <v>20.94</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M12" s="13">
         <v>20.16</v>
@@ -8509,10 +8590,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D13" s="17">
         <v>12</v>
@@ -8529,7 +8610,7 @@
         <v>-10</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(N2:N12)</f>
@@ -8541,10 +8622,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D14" s="17">
         <v>8</v>
@@ -8561,10 +8642,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D15" s="17">
         <v>3</v>
@@ -8587,10 +8668,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -8607,7 +8688,7 @@
         <v>-40</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -8620,10 +8701,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -8645,10 +8726,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D18" s="17">
         <v>7</v>
@@ -8666,10 +8747,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D19" s="17">
         <v>14.4</v>
@@ -8697,10 +8778,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D20" s="17">
         <v>8</v>
@@ -8728,10 +8809,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D21" s="17">
         <v>9.6999999999999993</v>
@@ -8753,10 +8834,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -8773,7 +8854,7 @@
         <v>605</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -8786,10 +8867,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D23" s="17">
         <v>2</v>
@@ -8817,10 +8898,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
@@ -8851,10 +8932,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -8885,10 +8966,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
@@ -8914,10 +8995,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
@@ -8940,10 +9021,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -8966,10 +9047,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -8983,16 +9064,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12">
@@ -9000,16 +9081,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="12">
@@ -9017,10 +9098,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D32" s="17">
         <v>10</v>
@@ -9042,16 +9123,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -9072,8 +9153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -9088,15 +9169,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -9112,11 +9193,11 @@
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -9145,61 +9226,61 @@
     </row>
     <row r="5" spans="1:13" ht="24.75" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G6" s="33">
         <v>49</v>
@@ -9219,28 +9300,28 @@
         <v>399</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B7" s="33">
         <v>33.700000000000003</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G7" s="33">
         <v>120</v>
@@ -9261,13 +9342,13 @@
         <v>271.59999999999997</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B8" s="33">
         <v>20</v>
@@ -9276,13 +9357,13 @@
         <v>45306</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G8" s="33">
         <v>155</v>
@@ -9302,26 +9383,26 @@
         <v>98</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="36" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G9" s="33">
         <v>58</v>
@@ -9345,20 +9426,20 @@
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G10" s="33">
         <v>200</v>
@@ -9379,26 +9460,26 @@
         <v>27.6</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="36">
         <v>30513</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G11" s="33">
         <v>78</v>
@@ -9422,20 +9503,20 @@
     </row>
     <row r="12" spans="1:13" ht="24.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="36" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G12" s="33">
         <v>67</v>
@@ -9459,22 +9540,22 @@
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B13" s="33">
         <v>33</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G13" s="33">
         <v>3</v>
@@ -9494,24 +9575,24 @@
         <v>-88</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1">
       <c r="A14" s="33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G14" s="33">
         <v>25</v>
@@ -9535,18 +9616,18 @@
     </row>
     <row r="15" spans="1:13" ht="24.75" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G15" s="33">
         <v>86</v>
@@ -9570,16 +9651,16 @@
     </row>
     <row r="16" spans="1:13" ht="24.75" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G16" s="33">
         <v>0</v>
@@ -9599,7 +9680,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -9620,7 +9701,7 @@
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -9630,7 +9711,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J18" s="34">
         <f>SUM(J6:J17)</f>
@@ -9651,12 +9732,12 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I19" s="33">
         <v>-4600</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="45">
         <v>14600</v>
       </c>
       <c r="K19" s="33">
@@ -9687,7 +9768,7 @@
     <row r="23" spans="1:13" ht="24.75" customHeight="1" thickBot="1"/>
     <row r="24" spans="1:13" ht="24.75" customHeight="1">
       <c r="C24" s="37" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -9712,7 +9793,7 @@
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1">
       <c r="C27" s="40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D27" s="33">
         <v>10</v>
@@ -9721,7 +9802,7 @@
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1">
       <c r="C28" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D28" s="33">
         <v>75</v>
@@ -9730,7 +9811,7 @@
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1">
       <c r="C29" s="40" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D29" s="33">
         <v>10</v>
@@ -9800,7 +9881,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="33" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -9815,7 +9896,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -9830,28 +9911,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="33" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
@@ -9862,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D4" s="33">
         <v>9.6999999999999993</v>
@@ -9880,23 +9961,23 @@
         <v>1674</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I4" s="33">
         <v>38</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D5" s="33">
         <v>10.7</v>
@@ -9905,7 +9986,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -9918,10 +9999,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D6" s="33">
         <v>27.4</v>
@@ -9942,17 +10023,17 @@
         <v>88</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D7" s="33">
         <v>20</v>
@@ -9961,7 +10042,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -9974,10 +10055,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D8" s="33">
         <v>3.8</v>
@@ -9998,17 +10079,17 @@
         <v>88</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D9" s="33">
         <v>9.6999999999999993</v>
@@ -10023,7 +10104,7 @@
         <v>264</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -10034,10 +10115,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D10" s="33">
         <v>3.4</v>
@@ -10052,7 +10133,7 @@
         <v>143</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -10063,10 +10144,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D11" s="33">
         <v>7.3</v>
@@ -10081,7 +10162,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -10092,10 +10173,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D12" s="33">
         <v>9.6999999999999993</v>
@@ -10110,23 +10191,23 @@
         <v>1674</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I12" s="33">
         <v>38</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D13" s="33">
         <v>11.8</v>
@@ -10135,7 +10216,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -10148,10 +10229,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D14" s="33">
         <v>7.6</v>
@@ -10166,23 +10247,23 @@
         <v>1302</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I14" s="33">
         <v>38</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="33"/>
       <c r="B15" s="33" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D15" s="33">
         <v>10.199999999999999</v>
@@ -10191,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -10204,10 +10285,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D16" s="33">
         <v>16.399999999999999</v>
@@ -10222,23 +10303,23 @@
         <v>2790</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I16" s="33">
         <v>38</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="33"/>
       <c r="B17" s="33" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D17" s="33">
         <v>18.8</v>
@@ -10247,7 +10328,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -10260,10 +10341,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D18" s="33">
         <v>3</v>
@@ -10278,7 +10359,7 @@
         <v>281</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -10287,10 +10368,10 @@
     <row r="19" spans="1:11">
       <c r="A19" s="33"/>
       <c r="B19" s="33" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D19" s="33">
         <v>16.399999999999999</v>
@@ -10305,7 +10386,7 @@
         <v>1242</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -10316,10 +10397,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D20" s="33">
         <v>4.0999999999999996</v>
@@ -10334,7 +10415,7 @@
         <v>383</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -10343,10 +10424,10 @@
     <row r="21" spans="1:11">
       <c r="A21" s="33"/>
       <c r="B21" s="33" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D21" s="33">
         <v>20</v>
@@ -10361,7 +10442,7 @@
         <v>1518</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -10372,10 +10453,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D22" s="33">
         <v>5.2</v>
@@ -10390,7 +10471,7 @@
         <v>377</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -10399,10 +10480,10 @@
     <row r="23" spans="1:11">
       <c r="A23" s="33"/>
       <c r="B23" s="33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D23" s="33">
         <v>21</v>
@@ -10417,7 +10498,7 @@
         <v>1519</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
@@ -10458,4 +10539,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>41044</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/2.1-402/history.xlsx
+++ b/trunk/2.1-402/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1305" yWindow="60" windowWidth="19200" windowHeight="9585" activeTab="7"/>
+    <workbookView xWindow="-1305" yWindow="60" windowWidth="19200" windowHeight="9585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_A99999" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_D99999" localSheetId="4">灯明细!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">chkchk9.10.2012!$A$1:$K$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$I$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">灯明细!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">灯明细!$A$2:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">灯明细!$A:$E</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="427">
   <si>
     <t>订金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,6 +1506,54 @@
   </si>
   <si>
     <t>岳母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行-民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器 haier ES60V-U1(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气充气20方*.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气通气(材料费1.5m气管)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间置物架/肥皂盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床+床垫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2464,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="B6:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2770,6 +2818,9 @@
       <c r="H14" t="s">
         <v>403</v>
       </c>
+      <c r="I14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
@@ -3613,11 +3664,115 @@
         <v>403</v>
       </c>
       <c r="I58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B59">
+        <v>1500</v>
+      </c>
+      <c r="C59">
+        <v>1500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>420</v>
+      </c>
+      <c r="H59" t="s">
+        <v>421</v>
+      </c>
+      <c r="I59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B60">
+        <v>72</v>
+      </c>
+      <c r="C60">
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>422</v>
+      </c>
+      <c r="I60" t="s">
         <v>211</v>
       </c>
     </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>424</v>
+      </c>
+      <c r="I61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B62">
+        <v>150</v>
+      </c>
+      <c r="C62">
+        <v>150</v>
+      </c>
+      <c r="G62" t="s">
+        <v>423</v>
+      </c>
+      <c r="I62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B63">
+        <v>47.15</v>
+      </c>
+      <c r="C63">
+        <v>47.15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>425</v>
+      </c>
+      <c r="I63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B64">
+        <v>3226</v>
+      </c>
+      <c r="C64">
+        <v>3226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>426</v>
+      </c>
+      <c r="I64" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I58"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3721,10 +3876,10 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6902,10 +7057,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT33"/>
+  <dimension ref="A1:IU33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6915,1028 +7070,1028 @@
     <col min="3" max="3" width="5.5" style="27" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="28" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="28" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="40.25" style="13" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="254" width="9" style="13"/>
-    <col min="255" max="255" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="18.25" style="13" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="13" customWidth="1"/>
-    <col min="258" max="259" width="2.625" style="13" customWidth="1"/>
-    <col min="260" max="260" width="10.75" style="13" customWidth="1"/>
-    <col min="261" max="262" width="2.625" style="13" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.75" style="13" customWidth="1"/>
-    <col min="266" max="266" width="40.25" style="13" customWidth="1"/>
-    <col min="267" max="267" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="272" max="510" width="9" style="13"/>
-    <col min="511" max="511" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="18.25" style="13" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="13" customWidth="1"/>
-    <col min="514" max="515" width="2.625" style="13" customWidth="1"/>
-    <col min="516" max="516" width="10.75" style="13" customWidth="1"/>
-    <col min="517" max="518" width="2.625" style="13" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="8.75" style="13" customWidth="1"/>
-    <col min="522" max="522" width="40.25" style="13" customWidth="1"/>
-    <col min="523" max="523" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="528" max="766" width="9" style="13"/>
-    <col min="767" max="767" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="18.25" style="13" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="13" customWidth="1"/>
-    <col min="770" max="771" width="2.625" style="13" customWidth="1"/>
-    <col min="772" max="772" width="10.75" style="13" customWidth="1"/>
-    <col min="773" max="774" width="2.625" style="13" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="8.75" style="13" customWidth="1"/>
-    <col min="778" max="778" width="40.25" style="13" customWidth="1"/>
-    <col min="779" max="779" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="784" max="1022" width="9" style="13"/>
-    <col min="1023" max="1023" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="18.25" style="13" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="13" customWidth="1"/>
-    <col min="1026" max="1027" width="2.625" style="13" customWidth="1"/>
-    <col min="1028" max="1028" width="10.75" style="13" customWidth="1"/>
-    <col min="1029" max="1030" width="2.625" style="13" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="8.75" style="13" customWidth="1"/>
-    <col min="1034" max="1034" width="40.25" style="13" customWidth="1"/>
-    <col min="1035" max="1035" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1038" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1040" max="1278" width="9" style="13"/>
-    <col min="1279" max="1279" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="18.25" style="13" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="13" customWidth="1"/>
-    <col min="1282" max="1283" width="2.625" style="13" customWidth="1"/>
-    <col min="1284" max="1284" width="10.75" style="13" customWidth="1"/>
-    <col min="1285" max="1286" width="2.625" style="13" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="8.75" style="13" customWidth="1"/>
-    <col min="1290" max="1290" width="40.25" style="13" customWidth="1"/>
-    <col min="1291" max="1291" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1294" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1296" max="1534" width="9" style="13"/>
-    <col min="1535" max="1535" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="18.25" style="13" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="13" customWidth="1"/>
-    <col min="1538" max="1539" width="2.625" style="13" customWidth="1"/>
-    <col min="1540" max="1540" width="10.75" style="13" customWidth="1"/>
-    <col min="1541" max="1542" width="2.625" style="13" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="8.75" style="13" customWidth="1"/>
-    <col min="1546" max="1546" width="40.25" style="13" customWidth="1"/>
-    <col min="1547" max="1547" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1550" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1552" max="1790" width="9" style="13"/>
-    <col min="1791" max="1791" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="18.25" style="13" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="13" customWidth="1"/>
-    <col min="1794" max="1795" width="2.625" style="13" customWidth="1"/>
-    <col min="1796" max="1796" width="10.75" style="13" customWidth="1"/>
-    <col min="1797" max="1798" width="2.625" style="13" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="8.75" style="13" customWidth="1"/>
-    <col min="1802" max="1802" width="40.25" style="13" customWidth="1"/>
-    <col min="1803" max="1803" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1806" max="1806" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="1808" max="2046" width="9" style="13"/>
-    <col min="2047" max="2047" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="18.25" style="13" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="13" customWidth="1"/>
-    <col min="2050" max="2051" width="2.625" style="13" customWidth="1"/>
-    <col min="2052" max="2052" width="10.75" style="13" customWidth="1"/>
-    <col min="2053" max="2054" width="2.625" style="13" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="8.75" style="13" customWidth="1"/>
-    <col min="2058" max="2058" width="40.25" style="13" customWidth="1"/>
-    <col min="2059" max="2059" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2062" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2064" max="2302" width="9" style="13"/>
-    <col min="2303" max="2303" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="18.25" style="13" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="13" customWidth="1"/>
-    <col min="2306" max="2307" width="2.625" style="13" customWidth="1"/>
-    <col min="2308" max="2308" width="10.75" style="13" customWidth="1"/>
-    <col min="2309" max="2310" width="2.625" style="13" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="8.75" style="13" customWidth="1"/>
-    <col min="2314" max="2314" width="40.25" style="13" customWidth="1"/>
-    <col min="2315" max="2315" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2318" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2320" max="2558" width="9" style="13"/>
-    <col min="2559" max="2559" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="18.25" style="13" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="13" customWidth="1"/>
-    <col min="2562" max="2563" width="2.625" style="13" customWidth="1"/>
-    <col min="2564" max="2564" width="10.75" style="13" customWidth="1"/>
-    <col min="2565" max="2566" width="2.625" style="13" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="8.75" style="13" customWidth="1"/>
-    <col min="2570" max="2570" width="40.25" style="13" customWidth="1"/>
-    <col min="2571" max="2571" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2574" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2576" max="2814" width="9" style="13"/>
-    <col min="2815" max="2815" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="18.25" style="13" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="13" customWidth="1"/>
-    <col min="2818" max="2819" width="2.625" style="13" customWidth="1"/>
-    <col min="2820" max="2820" width="10.75" style="13" customWidth="1"/>
-    <col min="2821" max="2822" width="2.625" style="13" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="8.75" style="13" customWidth="1"/>
-    <col min="2826" max="2826" width="40.25" style="13" customWidth="1"/>
-    <col min="2827" max="2827" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2830" max="2830" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2832" max="3070" width="9" style="13"/>
-    <col min="3071" max="3071" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="18.25" style="13" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="13" customWidth="1"/>
-    <col min="3074" max="3075" width="2.625" style="13" customWidth="1"/>
-    <col min="3076" max="3076" width="10.75" style="13" customWidth="1"/>
-    <col min="3077" max="3078" width="2.625" style="13" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="8.75" style="13" customWidth="1"/>
-    <col min="3082" max="3082" width="40.25" style="13" customWidth="1"/>
-    <col min="3083" max="3083" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3086" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3088" max="3326" width="9" style="13"/>
-    <col min="3327" max="3327" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="18.25" style="13" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="13" customWidth="1"/>
-    <col min="3330" max="3331" width="2.625" style="13" customWidth="1"/>
-    <col min="3332" max="3332" width="10.75" style="13" customWidth="1"/>
-    <col min="3333" max="3334" width="2.625" style="13" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="8.75" style="13" customWidth="1"/>
-    <col min="3338" max="3338" width="40.25" style="13" customWidth="1"/>
-    <col min="3339" max="3339" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3342" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3344" max="3582" width="9" style="13"/>
-    <col min="3583" max="3583" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="18.25" style="13" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="13" customWidth="1"/>
-    <col min="3586" max="3587" width="2.625" style="13" customWidth="1"/>
-    <col min="3588" max="3588" width="10.75" style="13" customWidth="1"/>
-    <col min="3589" max="3590" width="2.625" style="13" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="8.75" style="13" customWidth="1"/>
-    <col min="3594" max="3594" width="40.25" style="13" customWidth="1"/>
-    <col min="3595" max="3595" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3598" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3600" max="3838" width="9" style="13"/>
-    <col min="3839" max="3839" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="18.25" style="13" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="13" customWidth="1"/>
-    <col min="3842" max="3843" width="2.625" style="13" customWidth="1"/>
-    <col min="3844" max="3844" width="10.75" style="13" customWidth="1"/>
-    <col min="3845" max="3846" width="2.625" style="13" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="8.75" style="13" customWidth="1"/>
-    <col min="3850" max="3850" width="40.25" style="13" customWidth="1"/>
-    <col min="3851" max="3851" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3854" max="3854" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3856" max="4094" width="9" style="13"/>
-    <col min="4095" max="4095" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="18.25" style="13" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="13" customWidth="1"/>
-    <col min="4098" max="4099" width="2.625" style="13" customWidth="1"/>
-    <col min="4100" max="4100" width="10.75" style="13" customWidth="1"/>
-    <col min="4101" max="4102" width="2.625" style="13" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="8.75" style="13" customWidth="1"/>
-    <col min="4106" max="4106" width="40.25" style="13" customWidth="1"/>
-    <col min="4107" max="4107" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4110" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4112" max="4350" width="9" style="13"/>
-    <col min="4351" max="4351" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="18.25" style="13" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="13" customWidth="1"/>
-    <col min="4354" max="4355" width="2.625" style="13" customWidth="1"/>
-    <col min="4356" max="4356" width="10.75" style="13" customWidth="1"/>
-    <col min="4357" max="4358" width="2.625" style="13" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="8.75" style="13" customWidth="1"/>
-    <col min="4362" max="4362" width="40.25" style="13" customWidth="1"/>
-    <col min="4363" max="4363" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4366" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4368" max="4606" width="9" style="13"/>
-    <col min="4607" max="4607" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="18.25" style="13" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="13" customWidth="1"/>
-    <col min="4610" max="4611" width="2.625" style="13" customWidth="1"/>
-    <col min="4612" max="4612" width="10.75" style="13" customWidth="1"/>
-    <col min="4613" max="4614" width="2.625" style="13" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="8.75" style="13" customWidth="1"/>
-    <col min="4618" max="4618" width="40.25" style="13" customWidth="1"/>
-    <col min="4619" max="4619" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4622" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4624" max="4862" width="9" style="13"/>
-    <col min="4863" max="4863" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="18.25" style="13" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="13" customWidth="1"/>
-    <col min="4866" max="4867" width="2.625" style="13" customWidth="1"/>
-    <col min="4868" max="4868" width="10.75" style="13" customWidth="1"/>
-    <col min="4869" max="4870" width="2.625" style="13" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="8.75" style="13" customWidth="1"/>
-    <col min="4874" max="4874" width="40.25" style="13" customWidth="1"/>
-    <col min="4875" max="4875" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4878" max="4878" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4880" max="5118" width="9" style="13"/>
-    <col min="5119" max="5119" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="18.25" style="13" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="13" customWidth="1"/>
-    <col min="5122" max="5123" width="2.625" style="13" customWidth="1"/>
-    <col min="5124" max="5124" width="10.75" style="13" customWidth="1"/>
-    <col min="5125" max="5126" width="2.625" style="13" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="8.75" style="13" customWidth="1"/>
-    <col min="5130" max="5130" width="40.25" style="13" customWidth="1"/>
-    <col min="5131" max="5131" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5134" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5136" max="5374" width="9" style="13"/>
-    <col min="5375" max="5375" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="18.25" style="13" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="13" customWidth="1"/>
-    <col min="5378" max="5379" width="2.625" style="13" customWidth="1"/>
-    <col min="5380" max="5380" width="10.75" style="13" customWidth="1"/>
-    <col min="5381" max="5382" width="2.625" style="13" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="8.75" style="13" customWidth="1"/>
-    <col min="5386" max="5386" width="40.25" style="13" customWidth="1"/>
-    <col min="5387" max="5387" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5390" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5392" max="5630" width="9" style="13"/>
-    <col min="5631" max="5631" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="18.25" style="13" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="13" customWidth="1"/>
-    <col min="5634" max="5635" width="2.625" style="13" customWidth="1"/>
-    <col min="5636" max="5636" width="10.75" style="13" customWidth="1"/>
-    <col min="5637" max="5638" width="2.625" style="13" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="8.75" style="13" customWidth="1"/>
-    <col min="5642" max="5642" width="40.25" style="13" customWidth="1"/>
-    <col min="5643" max="5643" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5646" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5648" max="5886" width="9" style="13"/>
-    <col min="5887" max="5887" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="18.25" style="13" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="13" customWidth="1"/>
-    <col min="5890" max="5891" width="2.625" style="13" customWidth="1"/>
-    <col min="5892" max="5892" width="10.75" style="13" customWidth="1"/>
-    <col min="5893" max="5894" width="2.625" style="13" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="8.75" style="13" customWidth="1"/>
-    <col min="5898" max="5898" width="40.25" style="13" customWidth="1"/>
-    <col min="5899" max="5899" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5902" max="5902" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5904" max="6142" width="9" style="13"/>
-    <col min="6143" max="6143" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="18.25" style="13" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="13" customWidth="1"/>
-    <col min="6146" max="6147" width="2.625" style="13" customWidth="1"/>
-    <col min="6148" max="6148" width="10.75" style="13" customWidth="1"/>
-    <col min="6149" max="6150" width="2.625" style="13" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="8.75" style="13" customWidth="1"/>
-    <col min="6154" max="6154" width="40.25" style="13" customWidth="1"/>
-    <col min="6155" max="6155" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6158" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6160" max="6398" width="9" style="13"/>
-    <col min="6399" max="6399" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="18.25" style="13" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="13" customWidth="1"/>
-    <col min="6402" max="6403" width="2.625" style="13" customWidth="1"/>
-    <col min="6404" max="6404" width="10.75" style="13" customWidth="1"/>
-    <col min="6405" max="6406" width="2.625" style="13" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="8.75" style="13" customWidth="1"/>
-    <col min="6410" max="6410" width="40.25" style="13" customWidth="1"/>
-    <col min="6411" max="6411" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6414" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6416" max="6654" width="9" style="13"/>
-    <col min="6655" max="6655" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="18.25" style="13" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="13" customWidth="1"/>
-    <col min="6658" max="6659" width="2.625" style="13" customWidth="1"/>
-    <col min="6660" max="6660" width="10.75" style="13" customWidth="1"/>
-    <col min="6661" max="6662" width="2.625" style="13" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="8.75" style="13" customWidth="1"/>
-    <col min="6666" max="6666" width="40.25" style="13" customWidth="1"/>
-    <col min="6667" max="6667" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6670" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6672" max="6910" width="9" style="13"/>
-    <col min="6911" max="6911" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="18.25" style="13" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="13" customWidth="1"/>
-    <col min="6914" max="6915" width="2.625" style="13" customWidth="1"/>
-    <col min="6916" max="6916" width="10.75" style="13" customWidth="1"/>
-    <col min="6917" max="6918" width="2.625" style="13" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="8.75" style="13" customWidth="1"/>
-    <col min="6922" max="6922" width="40.25" style="13" customWidth="1"/>
-    <col min="6923" max="6923" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6926" max="6926" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6928" max="7166" width="9" style="13"/>
-    <col min="7167" max="7167" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="18.25" style="13" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="13" customWidth="1"/>
-    <col min="7170" max="7171" width="2.625" style="13" customWidth="1"/>
-    <col min="7172" max="7172" width="10.75" style="13" customWidth="1"/>
-    <col min="7173" max="7174" width="2.625" style="13" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="8.75" style="13" customWidth="1"/>
-    <col min="7178" max="7178" width="40.25" style="13" customWidth="1"/>
-    <col min="7179" max="7179" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7182" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7184" max="7422" width="9" style="13"/>
-    <col min="7423" max="7423" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="18.25" style="13" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="13" customWidth="1"/>
-    <col min="7426" max="7427" width="2.625" style="13" customWidth="1"/>
-    <col min="7428" max="7428" width="10.75" style="13" customWidth="1"/>
-    <col min="7429" max="7430" width="2.625" style="13" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="8.75" style="13" customWidth="1"/>
-    <col min="7434" max="7434" width="40.25" style="13" customWidth="1"/>
-    <col min="7435" max="7435" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7438" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7440" max="7678" width="9" style="13"/>
-    <col min="7679" max="7679" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="18.25" style="13" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="13" customWidth="1"/>
-    <col min="7682" max="7683" width="2.625" style="13" customWidth="1"/>
-    <col min="7684" max="7684" width="10.75" style="13" customWidth="1"/>
-    <col min="7685" max="7686" width="2.625" style="13" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="8.75" style="13" customWidth="1"/>
-    <col min="7690" max="7690" width="40.25" style="13" customWidth="1"/>
-    <col min="7691" max="7691" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7694" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7696" max="7934" width="9" style="13"/>
-    <col min="7935" max="7935" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="18.25" style="13" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="13" customWidth="1"/>
-    <col min="7938" max="7939" width="2.625" style="13" customWidth="1"/>
-    <col min="7940" max="7940" width="10.75" style="13" customWidth="1"/>
-    <col min="7941" max="7942" width="2.625" style="13" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="8.75" style="13" customWidth="1"/>
-    <col min="7946" max="7946" width="40.25" style="13" customWidth="1"/>
-    <col min="7947" max="7947" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7950" max="7950" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7952" max="8190" width="9" style="13"/>
-    <col min="8191" max="8191" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="18.25" style="13" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="13" customWidth="1"/>
-    <col min="8194" max="8195" width="2.625" style="13" customWidth="1"/>
-    <col min="8196" max="8196" width="10.75" style="13" customWidth="1"/>
-    <col min="8197" max="8198" width="2.625" style="13" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="8.75" style="13" customWidth="1"/>
-    <col min="8202" max="8202" width="40.25" style="13" customWidth="1"/>
-    <col min="8203" max="8203" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8206" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8208" max="8446" width="9" style="13"/>
-    <col min="8447" max="8447" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="18.25" style="13" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="13" customWidth="1"/>
-    <col min="8450" max="8451" width="2.625" style="13" customWidth="1"/>
-    <col min="8452" max="8452" width="10.75" style="13" customWidth="1"/>
-    <col min="8453" max="8454" width="2.625" style="13" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="8.75" style="13" customWidth="1"/>
-    <col min="8458" max="8458" width="40.25" style="13" customWidth="1"/>
-    <col min="8459" max="8459" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8462" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8464" max="8702" width="9" style="13"/>
-    <col min="8703" max="8703" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="18.25" style="13" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="13" customWidth="1"/>
-    <col min="8706" max="8707" width="2.625" style="13" customWidth="1"/>
-    <col min="8708" max="8708" width="10.75" style="13" customWidth="1"/>
-    <col min="8709" max="8710" width="2.625" style="13" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="8.75" style="13" customWidth="1"/>
-    <col min="8714" max="8714" width="40.25" style="13" customWidth="1"/>
-    <col min="8715" max="8715" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8718" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8720" max="8958" width="9" style="13"/>
-    <col min="8959" max="8959" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="18.25" style="13" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="13" customWidth="1"/>
-    <col min="8962" max="8963" width="2.625" style="13" customWidth="1"/>
-    <col min="8964" max="8964" width="10.75" style="13" customWidth="1"/>
-    <col min="8965" max="8966" width="2.625" style="13" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="8.75" style="13" customWidth="1"/>
-    <col min="8970" max="8970" width="40.25" style="13" customWidth="1"/>
-    <col min="8971" max="8971" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8974" max="8974" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8976" max="9214" width="9" style="13"/>
-    <col min="9215" max="9215" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="18.25" style="13" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="13" customWidth="1"/>
-    <col min="9218" max="9219" width="2.625" style="13" customWidth="1"/>
-    <col min="9220" max="9220" width="10.75" style="13" customWidth="1"/>
-    <col min="9221" max="9222" width="2.625" style="13" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="8.75" style="13" customWidth="1"/>
-    <col min="9226" max="9226" width="40.25" style="13" customWidth="1"/>
-    <col min="9227" max="9227" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9230" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9232" max="9470" width="9" style="13"/>
-    <col min="9471" max="9471" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="18.25" style="13" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="13" customWidth="1"/>
-    <col min="9474" max="9475" width="2.625" style="13" customWidth="1"/>
-    <col min="9476" max="9476" width="10.75" style="13" customWidth="1"/>
-    <col min="9477" max="9478" width="2.625" style="13" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="8.75" style="13" customWidth="1"/>
-    <col min="9482" max="9482" width="40.25" style="13" customWidth="1"/>
-    <col min="9483" max="9483" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9486" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9488" max="9726" width="9" style="13"/>
-    <col min="9727" max="9727" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="18.25" style="13" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="13" customWidth="1"/>
-    <col min="9730" max="9731" width="2.625" style="13" customWidth="1"/>
-    <col min="9732" max="9732" width="10.75" style="13" customWidth="1"/>
-    <col min="9733" max="9734" width="2.625" style="13" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="8.75" style="13" customWidth="1"/>
-    <col min="9738" max="9738" width="40.25" style="13" customWidth="1"/>
-    <col min="9739" max="9739" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9742" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9744" max="9982" width="9" style="13"/>
-    <col min="9983" max="9983" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="18.25" style="13" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="13" customWidth="1"/>
-    <col min="9986" max="9987" width="2.625" style="13" customWidth="1"/>
-    <col min="9988" max="9988" width="10.75" style="13" customWidth="1"/>
-    <col min="9989" max="9990" width="2.625" style="13" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="8.75" style="13" customWidth="1"/>
-    <col min="9994" max="9994" width="40.25" style="13" customWidth="1"/>
-    <col min="9995" max="9995" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9998" max="9998" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10000" max="10238" width="9" style="13"/>
-    <col min="10239" max="10239" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="18.25" style="13" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="13" customWidth="1"/>
-    <col min="10242" max="10243" width="2.625" style="13" customWidth="1"/>
-    <col min="10244" max="10244" width="10.75" style="13" customWidth="1"/>
-    <col min="10245" max="10246" width="2.625" style="13" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="8.75" style="13" customWidth="1"/>
-    <col min="10250" max="10250" width="40.25" style="13" customWidth="1"/>
-    <col min="10251" max="10251" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10254" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10256" max="10494" width="9" style="13"/>
-    <col min="10495" max="10495" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="18.25" style="13" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="13" customWidth="1"/>
-    <col min="10498" max="10499" width="2.625" style="13" customWidth="1"/>
-    <col min="10500" max="10500" width="10.75" style="13" customWidth="1"/>
-    <col min="10501" max="10502" width="2.625" style="13" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="8.75" style="13" customWidth="1"/>
-    <col min="10506" max="10506" width="40.25" style="13" customWidth="1"/>
-    <col min="10507" max="10507" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10510" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10512" max="10750" width="9" style="13"/>
-    <col min="10751" max="10751" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="18.25" style="13" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="13" customWidth="1"/>
-    <col min="10754" max="10755" width="2.625" style="13" customWidth="1"/>
-    <col min="10756" max="10756" width="10.75" style="13" customWidth="1"/>
-    <col min="10757" max="10758" width="2.625" style="13" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="8.75" style="13" customWidth="1"/>
-    <col min="10762" max="10762" width="40.25" style="13" customWidth="1"/>
-    <col min="10763" max="10763" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10766" max="10766" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10768" max="11006" width="9" style="13"/>
-    <col min="11007" max="11007" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="18.25" style="13" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="13" customWidth="1"/>
-    <col min="11010" max="11011" width="2.625" style="13" customWidth="1"/>
-    <col min="11012" max="11012" width="10.75" style="13" customWidth="1"/>
-    <col min="11013" max="11014" width="2.625" style="13" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="8.75" style="13" customWidth="1"/>
-    <col min="11018" max="11018" width="40.25" style="13" customWidth="1"/>
-    <col min="11019" max="11019" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11022" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11024" max="11262" width="9" style="13"/>
-    <col min="11263" max="11263" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="18.25" style="13" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="13" customWidth="1"/>
-    <col min="11266" max="11267" width="2.625" style="13" customWidth="1"/>
-    <col min="11268" max="11268" width="10.75" style="13" customWidth="1"/>
-    <col min="11269" max="11270" width="2.625" style="13" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="8.75" style="13" customWidth="1"/>
-    <col min="11274" max="11274" width="40.25" style="13" customWidth="1"/>
-    <col min="11275" max="11275" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11278" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11280" max="11518" width="9" style="13"/>
-    <col min="11519" max="11519" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="18.25" style="13" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="13" customWidth="1"/>
-    <col min="11522" max="11523" width="2.625" style="13" customWidth="1"/>
-    <col min="11524" max="11524" width="10.75" style="13" customWidth="1"/>
-    <col min="11525" max="11526" width="2.625" style="13" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="8.75" style="13" customWidth="1"/>
-    <col min="11530" max="11530" width="40.25" style="13" customWidth="1"/>
-    <col min="11531" max="11531" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11534" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11536" max="11774" width="9" style="13"/>
-    <col min="11775" max="11775" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="18.25" style="13" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="13" customWidth="1"/>
-    <col min="11778" max="11779" width="2.625" style="13" customWidth="1"/>
-    <col min="11780" max="11780" width="10.75" style="13" customWidth="1"/>
-    <col min="11781" max="11782" width="2.625" style="13" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="8.75" style="13" customWidth="1"/>
-    <col min="11786" max="11786" width="40.25" style="13" customWidth="1"/>
-    <col min="11787" max="11787" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11790" max="11790" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11792" max="12030" width="9" style="13"/>
-    <col min="12031" max="12031" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="18.25" style="13" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="13" customWidth="1"/>
-    <col min="12034" max="12035" width="2.625" style="13" customWidth="1"/>
-    <col min="12036" max="12036" width="10.75" style="13" customWidth="1"/>
-    <col min="12037" max="12038" width="2.625" style="13" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="8.75" style="13" customWidth="1"/>
-    <col min="12042" max="12042" width="40.25" style="13" customWidth="1"/>
-    <col min="12043" max="12043" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12046" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12048" max="12286" width="9" style="13"/>
-    <col min="12287" max="12287" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="18.25" style="13" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="13" customWidth="1"/>
-    <col min="12290" max="12291" width="2.625" style="13" customWidth="1"/>
-    <col min="12292" max="12292" width="10.75" style="13" customWidth="1"/>
-    <col min="12293" max="12294" width="2.625" style="13" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="8.75" style="13" customWidth="1"/>
-    <col min="12298" max="12298" width="40.25" style="13" customWidth="1"/>
-    <col min="12299" max="12299" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12302" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12304" max="12542" width="9" style="13"/>
-    <col min="12543" max="12543" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="18.25" style="13" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="13" customWidth="1"/>
-    <col min="12546" max="12547" width="2.625" style="13" customWidth="1"/>
-    <col min="12548" max="12548" width="10.75" style="13" customWidth="1"/>
-    <col min="12549" max="12550" width="2.625" style="13" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="8.75" style="13" customWidth="1"/>
-    <col min="12554" max="12554" width="40.25" style="13" customWidth="1"/>
-    <col min="12555" max="12555" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12558" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12560" max="12798" width="9" style="13"/>
-    <col min="12799" max="12799" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="18.25" style="13" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="13" customWidth="1"/>
-    <col min="12802" max="12803" width="2.625" style="13" customWidth="1"/>
-    <col min="12804" max="12804" width="10.75" style="13" customWidth="1"/>
-    <col min="12805" max="12806" width="2.625" style="13" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="8.75" style="13" customWidth="1"/>
-    <col min="12810" max="12810" width="40.25" style="13" customWidth="1"/>
-    <col min="12811" max="12811" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12814" max="12814" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12816" max="13054" width="9" style="13"/>
-    <col min="13055" max="13055" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="18.25" style="13" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="13" customWidth="1"/>
-    <col min="13058" max="13059" width="2.625" style="13" customWidth="1"/>
-    <col min="13060" max="13060" width="10.75" style="13" customWidth="1"/>
-    <col min="13061" max="13062" width="2.625" style="13" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="8.75" style="13" customWidth="1"/>
-    <col min="13066" max="13066" width="40.25" style="13" customWidth="1"/>
-    <col min="13067" max="13067" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13070" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13072" max="13310" width="9" style="13"/>
-    <col min="13311" max="13311" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="18.25" style="13" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="13" customWidth="1"/>
-    <col min="13314" max="13315" width="2.625" style="13" customWidth="1"/>
-    <col min="13316" max="13316" width="10.75" style="13" customWidth="1"/>
-    <col min="13317" max="13318" width="2.625" style="13" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="8.75" style="13" customWidth="1"/>
-    <col min="13322" max="13322" width="40.25" style="13" customWidth="1"/>
-    <col min="13323" max="13323" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13326" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13328" max="13566" width="9" style="13"/>
-    <col min="13567" max="13567" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="18.25" style="13" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="13" customWidth="1"/>
-    <col min="13570" max="13571" width="2.625" style="13" customWidth="1"/>
-    <col min="13572" max="13572" width="10.75" style="13" customWidth="1"/>
-    <col min="13573" max="13574" width="2.625" style="13" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="8.75" style="13" customWidth="1"/>
-    <col min="13578" max="13578" width="40.25" style="13" customWidth="1"/>
-    <col min="13579" max="13579" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13582" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13584" max="13822" width="9" style="13"/>
-    <col min="13823" max="13823" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="18.25" style="13" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="13" customWidth="1"/>
-    <col min="13826" max="13827" width="2.625" style="13" customWidth="1"/>
-    <col min="13828" max="13828" width="10.75" style="13" customWidth="1"/>
-    <col min="13829" max="13830" width="2.625" style="13" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="8.75" style="13" customWidth="1"/>
-    <col min="13834" max="13834" width="40.25" style="13" customWidth="1"/>
-    <col min="13835" max="13835" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13838" max="13838" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13840" max="14078" width="9" style="13"/>
-    <col min="14079" max="14079" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="18.25" style="13" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="13" customWidth="1"/>
-    <col min="14082" max="14083" width="2.625" style="13" customWidth="1"/>
-    <col min="14084" max="14084" width="10.75" style="13" customWidth="1"/>
-    <col min="14085" max="14086" width="2.625" style="13" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="8.75" style="13" customWidth="1"/>
-    <col min="14090" max="14090" width="40.25" style="13" customWidth="1"/>
-    <col min="14091" max="14091" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14094" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14096" max="14334" width="9" style="13"/>
-    <col min="14335" max="14335" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="18.25" style="13" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="13" customWidth="1"/>
-    <col min="14338" max="14339" width="2.625" style="13" customWidth="1"/>
-    <col min="14340" max="14340" width="10.75" style="13" customWidth="1"/>
-    <col min="14341" max="14342" width="2.625" style="13" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="8.75" style="13" customWidth="1"/>
-    <col min="14346" max="14346" width="40.25" style="13" customWidth="1"/>
-    <col min="14347" max="14347" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14350" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14352" max="14590" width="9" style="13"/>
-    <col min="14591" max="14591" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="18.25" style="13" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="13" customWidth="1"/>
-    <col min="14594" max="14595" width="2.625" style="13" customWidth="1"/>
-    <col min="14596" max="14596" width="10.75" style="13" customWidth="1"/>
-    <col min="14597" max="14598" width="2.625" style="13" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="8.75" style="13" customWidth="1"/>
-    <col min="14602" max="14602" width="40.25" style="13" customWidth="1"/>
-    <col min="14603" max="14603" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14606" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14608" max="14846" width="9" style="13"/>
-    <col min="14847" max="14847" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="18.25" style="13" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="13" customWidth="1"/>
-    <col min="14850" max="14851" width="2.625" style="13" customWidth="1"/>
-    <col min="14852" max="14852" width="10.75" style="13" customWidth="1"/>
-    <col min="14853" max="14854" width="2.625" style="13" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="8.75" style="13" customWidth="1"/>
-    <col min="14858" max="14858" width="40.25" style="13" customWidth="1"/>
-    <col min="14859" max="14859" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14862" max="14862" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14864" max="15102" width="9" style="13"/>
-    <col min="15103" max="15103" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="18.25" style="13" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="13" customWidth="1"/>
-    <col min="15106" max="15107" width="2.625" style="13" customWidth="1"/>
-    <col min="15108" max="15108" width="10.75" style="13" customWidth="1"/>
-    <col min="15109" max="15110" width="2.625" style="13" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="8.75" style="13" customWidth="1"/>
-    <col min="15114" max="15114" width="40.25" style="13" customWidth="1"/>
-    <col min="15115" max="15115" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15118" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15120" max="15358" width="9" style="13"/>
-    <col min="15359" max="15359" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="18.25" style="13" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="13" customWidth="1"/>
-    <col min="15362" max="15363" width="2.625" style="13" customWidth="1"/>
-    <col min="15364" max="15364" width="10.75" style="13" customWidth="1"/>
-    <col min="15365" max="15366" width="2.625" style="13" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="8.75" style="13" customWidth="1"/>
-    <col min="15370" max="15370" width="40.25" style="13" customWidth="1"/>
-    <col min="15371" max="15371" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15374" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15376" max="15614" width="9" style="13"/>
-    <col min="15615" max="15615" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="18.25" style="13" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="13" customWidth="1"/>
-    <col min="15618" max="15619" width="2.625" style="13" customWidth="1"/>
-    <col min="15620" max="15620" width="10.75" style="13" customWidth="1"/>
-    <col min="15621" max="15622" width="2.625" style="13" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="8.75" style="13" customWidth="1"/>
-    <col min="15626" max="15626" width="40.25" style="13" customWidth="1"/>
-    <col min="15627" max="15627" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15630" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15632" max="15870" width="9" style="13"/>
-    <col min="15871" max="15871" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="18.25" style="13" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="13" customWidth="1"/>
-    <col min="15874" max="15875" width="2.625" style="13" customWidth="1"/>
-    <col min="15876" max="15876" width="10.75" style="13" customWidth="1"/>
-    <col min="15877" max="15878" width="2.625" style="13" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="8.75" style="13" customWidth="1"/>
-    <col min="15882" max="15882" width="40.25" style="13" customWidth="1"/>
-    <col min="15883" max="15883" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15886" max="15886" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15888" max="16126" width="9" style="13"/>
-    <col min="16127" max="16127" width="3.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="18.25" style="13" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="13" customWidth="1"/>
-    <col min="16130" max="16131" width="2.625" style="13" customWidth="1"/>
-    <col min="16132" max="16132" width="10.75" style="13" customWidth="1"/>
-    <col min="16133" max="16134" width="2.625" style="13" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="4.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="8.75" style="13" customWidth="1"/>
-    <col min="16138" max="16138" width="40.25" style="13" customWidth="1"/>
-    <col min="16139" max="16139" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16142" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16144" max="16384" width="9" style="13"/>
+    <col min="6" max="7" width="6.125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="13" customWidth="1"/>
+    <col min="11" max="11" width="40.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="255" width="9" style="13"/>
+    <col min="256" max="256" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="18.25" style="13" customWidth="1"/>
+    <col min="258" max="258" width="5.5" style="13" customWidth="1"/>
+    <col min="259" max="260" width="2.625" style="13" customWidth="1"/>
+    <col min="261" max="261" width="10.75" style="13" customWidth="1"/>
+    <col min="262" max="263" width="2.625" style="13" customWidth="1"/>
+    <col min="264" max="264" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="8.75" style="13" customWidth="1"/>
+    <col min="267" max="267" width="40.25" style="13" customWidth="1"/>
+    <col min="268" max="268" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="273" max="511" width="9" style="13"/>
+    <col min="512" max="512" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="18.25" style="13" customWidth="1"/>
+    <col min="514" max="514" width="5.5" style="13" customWidth="1"/>
+    <col min="515" max="516" width="2.625" style="13" customWidth="1"/>
+    <col min="517" max="517" width="10.75" style="13" customWidth="1"/>
+    <col min="518" max="519" width="2.625" style="13" customWidth="1"/>
+    <col min="520" max="520" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="8.75" style="13" customWidth="1"/>
+    <col min="523" max="523" width="40.25" style="13" customWidth="1"/>
+    <col min="524" max="524" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="529" max="767" width="9" style="13"/>
+    <col min="768" max="768" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="18.25" style="13" customWidth="1"/>
+    <col min="770" max="770" width="5.5" style="13" customWidth="1"/>
+    <col min="771" max="772" width="2.625" style="13" customWidth="1"/>
+    <col min="773" max="773" width="10.75" style="13" customWidth="1"/>
+    <col min="774" max="775" width="2.625" style="13" customWidth="1"/>
+    <col min="776" max="776" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="8.75" style="13" customWidth="1"/>
+    <col min="779" max="779" width="40.25" style="13" customWidth="1"/>
+    <col min="780" max="780" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="785" max="1023" width="9" style="13"/>
+    <col min="1024" max="1024" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="18.25" style="13" customWidth="1"/>
+    <col min="1026" max="1026" width="5.5" style="13" customWidth="1"/>
+    <col min="1027" max="1028" width="2.625" style="13" customWidth="1"/>
+    <col min="1029" max="1029" width="10.75" style="13" customWidth="1"/>
+    <col min="1030" max="1031" width="2.625" style="13" customWidth="1"/>
+    <col min="1032" max="1032" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="8.75" style="13" customWidth="1"/>
+    <col min="1035" max="1035" width="40.25" style="13" customWidth="1"/>
+    <col min="1036" max="1036" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1279" width="9" style="13"/>
+    <col min="1280" max="1280" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="18.25" style="13" customWidth="1"/>
+    <col min="1282" max="1282" width="5.5" style="13" customWidth="1"/>
+    <col min="1283" max="1284" width="2.625" style="13" customWidth="1"/>
+    <col min="1285" max="1285" width="10.75" style="13" customWidth="1"/>
+    <col min="1286" max="1287" width="2.625" style="13" customWidth="1"/>
+    <col min="1288" max="1288" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="8.75" style="13" customWidth="1"/>
+    <col min="1291" max="1291" width="40.25" style="13" customWidth="1"/>
+    <col min="1292" max="1292" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1535" width="9" style="13"/>
+    <col min="1536" max="1536" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="18.25" style="13" customWidth="1"/>
+    <col min="1538" max="1538" width="5.5" style="13" customWidth="1"/>
+    <col min="1539" max="1540" width="2.625" style="13" customWidth="1"/>
+    <col min="1541" max="1541" width="10.75" style="13" customWidth="1"/>
+    <col min="1542" max="1543" width="2.625" style="13" customWidth="1"/>
+    <col min="1544" max="1544" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="8.75" style="13" customWidth="1"/>
+    <col min="1547" max="1547" width="40.25" style="13" customWidth="1"/>
+    <col min="1548" max="1548" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1791" width="9" style="13"/>
+    <col min="1792" max="1792" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="18.25" style="13" customWidth="1"/>
+    <col min="1794" max="1794" width="5.5" style="13" customWidth="1"/>
+    <col min="1795" max="1796" width="2.625" style="13" customWidth="1"/>
+    <col min="1797" max="1797" width="10.75" style="13" customWidth="1"/>
+    <col min="1798" max="1799" width="2.625" style="13" customWidth="1"/>
+    <col min="1800" max="1800" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="8.75" style="13" customWidth="1"/>
+    <col min="1803" max="1803" width="40.25" style="13" customWidth="1"/>
+    <col min="1804" max="1804" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1809" max="2047" width="9" style="13"/>
+    <col min="2048" max="2048" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="18.25" style="13" customWidth="1"/>
+    <col min="2050" max="2050" width="5.5" style="13" customWidth="1"/>
+    <col min="2051" max="2052" width="2.625" style="13" customWidth="1"/>
+    <col min="2053" max="2053" width="10.75" style="13" customWidth="1"/>
+    <col min="2054" max="2055" width="2.625" style="13" customWidth="1"/>
+    <col min="2056" max="2056" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="8.75" style="13" customWidth="1"/>
+    <col min="2059" max="2059" width="40.25" style="13" customWidth="1"/>
+    <col min="2060" max="2060" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2303" width="9" style="13"/>
+    <col min="2304" max="2304" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="18.25" style="13" customWidth="1"/>
+    <col min="2306" max="2306" width="5.5" style="13" customWidth="1"/>
+    <col min="2307" max="2308" width="2.625" style="13" customWidth="1"/>
+    <col min="2309" max="2309" width="10.75" style="13" customWidth="1"/>
+    <col min="2310" max="2311" width="2.625" style="13" customWidth="1"/>
+    <col min="2312" max="2312" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="8.75" style="13" customWidth="1"/>
+    <col min="2315" max="2315" width="40.25" style="13" customWidth="1"/>
+    <col min="2316" max="2316" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2559" width="9" style="13"/>
+    <col min="2560" max="2560" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="18.25" style="13" customWidth="1"/>
+    <col min="2562" max="2562" width="5.5" style="13" customWidth="1"/>
+    <col min="2563" max="2564" width="2.625" style="13" customWidth="1"/>
+    <col min="2565" max="2565" width="10.75" style="13" customWidth="1"/>
+    <col min="2566" max="2567" width="2.625" style="13" customWidth="1"/>
+    <col min="2568" max="2568" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="8.75" style="13" customWidth="1"/>
+    <col min="2571" max="2571" width="40.25" style="13" customWidth="1"/>
+    <col min="2572" max="2572" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2815" width="9" style="13"/>
+    <col min="2816" max="2816" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="18.25" style="13" customWidth="1"/>
+    <col min="2818" max="2818" width="5.5" style="13" customWidth="1"/>
+    <col min="2819" max="2820" width="2.625" style="13" customWidth="1"/>
+    <col min="2821" max="2821" width="10.75" style="13" customWidth="1"/>
+    <col min="2822" max="2823" width="2.625" style="13" customWidth="1"/>
+    <col min="2824" max="2824" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="8.75" style="13" customWidth="1"/>
+    <col min="2827" max="2827" width="40.25" style="13" customWidth="1"/>
+    <col min="2828" max="2828" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2833" max="3071" width="9" style="13"/>
+    <col min="3072" max="3072" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="18.25" style="13" customWidth="1"/>
+    <col min="3074" max="3074" width="5.5" style="13" customWidth="1"/>
+    <col min="3075" max="3076" width="2.625" style="13" customWidth="1"/>
+    <col min="3077" max="3077" width="10.75" style="13" customWidth="1"/>
+    <col min="3078" max="3079" width="2.625" style="13" customWidth="1"/>
+    <col min="3080" max="3080" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="8.75" style="13" customWidth="1"/>
+    <col min="3083" max="3083" width="40.25" style="13" customWidth="1"/>
+    <col min="3084" max="3084" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3327" width="9" style="13"/>
+    <col min="3328" max="3328" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="18.25" style="13" customWidth="1"/>
+    <col min="3330" max="3330" width="5.5" style="13" customWidth="1"/>
+    <col min="3331" max="3332" width="2.625" style="13" customWidth="1"/>
+    <col min="3333" max="3333" width="10.75" style="13" customWidth="1"/>
+    <col min="3334" max="3335" width="2.625" style="13" customWidth="1"/>
+    <col min="3336" max="3336" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="8.75" style="13" customWidth="1"/>
+    <col min="3339" max="3339" width="40.25" style="13" customWidth="1"/>
+    <col min="3340" max="3340" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3583" width="9" style="13"/>
+    <col min="3584" max="3584" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="18.25" style="13" customWidth="1"/>
+    <col min="3586" max="3586" width="5.5" style="13" customWidth="1"/>
+    <col min="3587" max="3588" width="2.625" style="13" customWidth="1"/>
+    <col min="3589" max="3589" width="10.75" style="13" customWidth="1"/>
+    <col min="3590" max="3591" width="2.625" style="13" customWidth="1"/>
+    <col min="3592" max="3592" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="8.75" style="13" customWidth="1"/>
+    <col min="3595" max="3595" width="40.25" style="13" customWidth="1"/>
+    <col min="3596" max="3596" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3839" width="9" style="13"/>
+    <col min="3840" max="3840" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="18.25" style="13" customWidth="1"/>
+    <col min="3842" max="3842" width="5.5" style="13" customWidth="1"/>
+    <col min="3843" max="3844" width="2.625" style="13" customWidth="1"/>
+    <col min="3845" max="3845" width="10.75" style="13" customWidth="1"/>
+    <col min="3846" max="3847" width="2.625" style="13" customWidth="1"/>
+    <col min="3848" max="3848" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="8.75" style="13" customWidth="1"/>
+    <col min="3851" max="3851" width="40.25" style="13" customWidth="1"/>
+    <col min="3852" max="3852" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3857" max="4095" width="9" style="13"/>
+    <col min="4096" max="4096" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="18.25" style="13" customWidth="1"/>
+    <col min="4098" max="4098" width="5.5" style="13" customWidth="1"/>
+    <col min="4099" max="4100" width="2.625" style="13" customWidth="1"/>
+    <col min="4101" max="4101" width="10.75" style="13" customWidth="1"/>
+    <col min="4102" max="4103" width="2.625" style="13" customWidth="1"/>
+    <col min="4104" max="4104" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="8.75" style="13" customWidth="1"/>
+    <col min="4107" max="4107" width="40.25" style="13" customWidth="1"/>
+    <col min="4108" max="4108" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4351" width="9" style="13"/>
+    <col min="4352" max="4352" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="18.25" style="13" customWidth="1"/>
+    <col min="4354" max="4354" width="5.5" style="13" customWidth="1"/>
+    <col min="4355" max="4356" width="2.625" style="13" customWidth="1"/>
+    <col min="4357" max="4357" width="10.75" style="13" customWidth="1"/>
+    <col min="4358" max="4359" width="2.625" style="13" customWidth="1"/>
+    <col min="4360" max="4360" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="8.75" style="13" customWidth="1"/>
+    <col min="4363" max="4363" width="40.25" style="13" customWidth="1"/>
+    <col min="4364" max="4364" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4607" width="9" style="13"/>
+    <col min="4608" max="4608" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="18.25" style="13" customWidth="1"/>
+    <col min="4610" max="4610" width="5.5" style="13" customWidth="1"/>
+    <col min="4611" max="4612" width="2.625" style="13" customWidth="1"/>
+    <col min="4613" max="4613" width="10.75" style="13" customWidth="1"/>
+    <col min="4614" max="4615" width="2.625" style="13" customWidth="1"/>
+    <col min="4616" max="4616" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="8.75" style="13" customWidth="1"/>
+    <col min="4619" max="4619" width="40.25" style="13" customWidth="1"/>
+    <col min="4620" max="4620" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4863" width="9" style="13"/>
+    <col min="4864" max="4864" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="18.25" style="13" customWidth="1"/>
+    <col min="4866" max="4866" width="5.5" style="13" customWidth="1"/>
+    <col min="4867" max="4868" width="2.625" style="13" customWidth="1"/>
+    <col min="4869" max="4869" width="10.75" style="13" customWidth="1"/>
+    <col min="4870" max="4871" width="2.625" style="13" customWidth="1"/>
+    <col min="4872" max="4872" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="8.75" style="13" customWidth="1"/>
+    <col min="4875" max="4875" width="40.25" style="13" customWidth="1"/>
+    <col min="4876" max="4876" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4881" max="5119" width="9" style="13"/>
+    <col min="5120" max="5120" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="18.25" style="13" customWidth="1"/>
+    <col min="5122" max="5122" width="5.5" style="13" customWidth="1"/>
+    <col min="5123" max="5124" width="2.625" style="13" customWidth="1"/>
+    <col min="5125" max="5125" width="10.75" style="13" customWidth="1"/>
+    <col min="5126" max="5127" width="2.625" style="13" customWidth="1"/>
+    <col min="5128" max="5128" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="8.75" style="13" customWidth="1"/>
+    <col min="5131" max="5131" width="40.25" style="13" customWidth="1"/>
+    <col min="5132" max="5132" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5375" width="9" style="13"/>
+    <col min="5376" max="5376" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="18.25" style="13" customWidth="1"/>
+    <col min="5378" max="5378" width="5.5" style="13" customWidth="1"/>
+    <col min="5379" max="5380" width="2.625" style="13" customWidth="1"/>
+    <col min="5381" max="5381" width="10.75" style="13" customWidth="1"/>
+    <col min="5382" max="5383" width="2.625" style="13" customWidth="1"/>
+    <col min="5384" max="5384" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="8.75" style="13" customWidth="1"/>
+    <col min="5387" max="5387" width="40.25" style="13" customWidth="1"/>
+    <col min="5388" max="5388" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5631" width="9" style="13"/>
+    <col min="5632" max="5632" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="18.25" style="13" customWidth="1"/>
+    <col min="5634" max="5634" width="5.5" style="13" customWidth="1"/>
+    <col min="5635" max="5636" width="2.625" style="13" customWidth="1"/>
+    <col min="5637" max="5637" width="10.75" style="13" customWidth="1"/>
+    <col min="5638" max="5639" width="2.625" style="13" customWidth="1"/>
+    <col min="5640" max="5640" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="8.75" style="13" customWidth="1"/>
+    <col min="5643" max="5643" width="40.25" style="13" customWidth="1"/>
+    <col min="5644" max="5644" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5887" width="9" style="13"/>
+    <col min="5888" max="5888" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="18.25" style="13" customWidth="1"/>
+    <col min="5890" max="5890" width="5.5" style="13" customWidth="1"/>
+    <col min="5891" max="5892" width="2.625" style="13" customWidth="1"/>
+    <col min="5893" max="5893" width="10.75" style="13" customWidth="1"/>
+    <col min="5894" max="5895" width="2.625" style="13" customWidth="1"/>
+    <col min="5896" max="5896" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="8.75" style="13" customWidth="1"/>
+    <col min="5899" max="5899" width="40.25" style="13" customWidth="1"/>
+    <col min="5900" max="5900" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5905" max="6143" width="9" style="13"/>
+    <col min="6144" max="6144" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="18.25" style="13" customWidth="1"/>
+    <col min="6146" max="6146" width="5.5" style="13" customWidth="1"/>
+    <col min="6147" max="6148" width="2.625" style="13" customWidth="1"/>
+    <col min="6149" max="6149" width="10.75" style="13" customWidth="1"/>
+    <col min="6150" max="6151" width="2.625" style="13" customWidth="1"/>
+    <col min="6152" max="6152" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="8.75" style="13" customWidth="1"/>
+    <col min="6155" max="6155" width="40.25" style="13" customWidth="1"/>
+    <col min="6156" max="6156" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6399" width="9" style="13"/>
+    <col min="6400" max="6400" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="18.25" style="13" customWidth="1"/>
+    <col min="6402" max="6402" width="5.5" style="13" customWidth="1"/>
+    <col min="6403" max="6404" width="2.625" style="13" customWidth="1"/>
+    <col min="6405" max="6405" width="10.75" style="13" customWidth="1"/>
+    <col min="6406" max="6407" width="2.625" style="13" customWidth="1"/>
+    <col min="6408" max="6408" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="8.75" style="13" customWidth="1"/>
+    <col min="6411" max="6411" width="40.25" style="13" customWidth="1"/>
+    <col min="6412" max="6412" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6655" width="9" style="13"/>
+    <col min="6656" max="6656" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="18.25" style="13" customWidth="1"/>
+    <col min="6658" max="6658" width="5.5" style="13" customWidth="1"/>
+    <col min="6659" max="6660" width="2.625" style="13" customWidth="1"/>
+    <col min="6661" max="6661" width="10.75" style="13" customWidth="1"/>
+    <col min="6662" max="6663" width="2.625" style="13" customWidth="1"/>
+    <col min="6664" max="6664" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="8.75" style="13" customWidth="1"/>
+    <col min="6667" max="6667" width="40.25" style="13" customWidth="1"/>
+    <col min="6668" max="6668" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6911" width="9" style="13"/>
+    <col min="6912" max="6912" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="18.25" style="13" customWidth="1"/>
+    <col min="6914" max="6914" width="5.5" style="13" customWidth="1"/>
+    <col min="6915" max="6916" width="2.625" style="13" customWidth="1"/>
+    <col min="6917" max="6917" width="10.75" style="13" customWidth="1"/>
+    <col min="6918" max="6919" width="2.625" style="13" customWidth="1"/>
+    <col min="6920" max="6920" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="8.75" style="13" customWidth="1"/>
+    <col min="6923" max="6923" width="40.25" style="13" customWidth="1"/>
+    <col min="6924" max="6924" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6929" max="7167" width="9" style="13"/>
+    <col min="7168" max="7168" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="18.25" style="13" customWidth="1"/>
+    <col min="7170" max="7170" width="5.5" style="13" customWidth="1"/>
+    <col min="7171" max="7172" width="2.625" style="13" customWidth="1"/>
+    <col min="7173" max="7173" width="10.75" style="13" customWidth="1"/>
+    <col min="7174" max="7175" width="2.625" style="13" customWidth="1"/>
+    <col min="7176" max="7176" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="8.75" style="13" customWidth="1"/>
+    <col min="7179" max="7179" width="40.25" style="13" customWidth="1"/>
+    <col min="7180" max="7180" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7423" width="9" style="13"/>
+    <col min="7424" max="7424" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="18.25" style="13" customWidth="1"/>
+    <col min="7426" max="7426" width="5.5" style="13" customWidth="1"/>
+    <col min="7427" max="7428" width="2.625" style="13" customWidth="1"/>
+    <col min="7429" max="7429" width="10.75" style="13" customWidth="1"/>
+    <col min="7430" max="7431" width="2.625" style="13" customWidth="1"/>
+    <col min="7432" max="7432" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="8.75" style="13" customWidth="1"/>
+    <col min="7435" max="7435" width="40.25" style="13" customWidth="1"/>
+    <col min="7436" max="7436" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7679" width="9" style="13"/>
+    <col min="7680" max="7680" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="18.25" style="13" customWidth="1"/>
+    <col min="7682" max="7682" width="5.5" style="13" customWidth="1"/>
+    <col min="7683" max="7684" width="2.625" style="13" customWidth="1"/>
+    <col min="7685" max="7685" width="10.75" style="13" customWidth="1"/>
+    <col min="7686" max="7687" width="2.625" style="13" customWidth="1"/>
+    <col min="7688" max="7688" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="8.75" style="13" customWidth="1"/>
+    <col min="7691" max="7691" width="40.25" style="13" customWidth="1"/>
+    <col min="7692" max="7692" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7935" width="9" style="13"/>
+    <col min="7936" max="7936" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="18.25" style="13" customWidth="1"/>
+    <col min="7938" max="7938" width="5.5" style="13" customWidth="1"/>
+    <col min="7939" max="7940" width="2.625" style="13" customWidth="1"/>
+    <col min="7941" max="7941" width="10.75" style="13" customWidth="1"/>
+    <col min="7942" max="7943" width="2.625" style="13" customWidth="1"/>
+    <col min="7944" max="7944" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="8.75" style="13" customWidth="1"/>
+    <col min="7947" max="7947" width="40.25" style="13" customWidth="1"/>
+    <col min="7948" max="7948" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7953" max="8191" width="9" style="13"/>
+    <col min="8192" max="8192" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="18.25" style="13" customWidth="1"/>
+    <col min="8194" max="8194" width="5.5" style="13" customWidth="1"/>
+    <col min="8195" max="8196" width="2.625" style="13" customWidth="1"/>
+    <col min="8197" max="8197" width="10.75" style="13" customWidth="1"/>
+    <col min="8198" max="8199" width="2.625" style="13" customWidth="1"/>
+    <col min="8200" max="8200" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="8.75" style="13" customWidth="1"/>
+    <col min="8203" max="8203" width="40.25" style="13" customWidth="1"/>
+    <col min="8204" max="8204" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8447" width="9" style="13"/>
+    <col min="8448" max="8448" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="18.25" style="13" customWidth="1"/>
+    <col min="8450" max="8450" width="5.5" style="13" customWidth="1"/>
+    <col min="8451" max="8452" width="2.625" style="13" customWidth="1"/>
+    <col min="8453" max="8453" width="10.75" style="13" customWidth="1"/>
+    <col min="8454" max="8455" width="2.625" style="13" customWidth="1"/>
+    <col min="8456" max="8456" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="8.75" style="13" customWidth="1"/>
+    <col min="8459" max="8459" width="40.25" style="13" customWidth="1"/>
+    <col min="8460" max="8460" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8703" width="9" style="13"/>
+    <col min="8704" max="8704" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="18.25" style="13" customWidth="1"/>
+    <col min="8706" max="8706" width="5.5" style="13" customWidth="1"/>
+    <col min="8707" max="8708" width="2.625" style="13" customWidth="1"/>
+    <col min="8709" max="8709" width="10.75" style="13" customWidth="1"/>
+    <col min="8710" max="8711" width="2.625" style="13" customWidth="1"/>
+    <col min="8712" max="8712" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="8.75" style="13" customWidth="1"/>
+    <col min="8715" max="8715" width="40.25" style="13" customWidth="1"/>
+    <col min="8716" max="8716" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8959" width="9" style="13"/>
+    <col min="8960" max="8960" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="18.25" style="13" customWidth="1"/>
+    <col min="8962" max="8962" width="5.5" style="13" customWidth="1"/>
+    <col min="8963" max="8964" width="2.625" style="13" customWidth="1"/>
+    <col min="8965" max="8965" width="10.75" style="13" customWidth="1"/>
+    <col min="8966" max="8967" width="2.625" style="13" customWidth="1"/>
+    <col min="8968" max="8968" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="8.75" style="13" customWidth="1"/>
+    <col min="8971" max="8971" width="40.25" style="13" customWidth="1"/>
+    <col min="8972" max="8972" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8977" max="9215" width="9" style="13"/>
+    <col min="9216" max="9216" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="18.25" style="13" customWidth="1"/>
+    <col min="9218" max="9218" width="5.5" style="13" customWidth="1"/>
+    <col min="9219" max="9220" width="2.625" style="13" customWidth="1"/>
+    <col min="9221" max="9221" width="10.75" style="13" customWidth="1"/>
+    <col min="9222" max="9223" width="2.625" style="13" customWidth="1"/>
+    <col min="9224" max="9224" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="8.75" style="13" customWidth="1"/>
+    <col min="9227" max="9227" width="40.25" style="13" customWidth="1"/>
+    <col min="9228" max="9228" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9471" width="9" style="13"/>
+    <col min="9472" max="9472" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="18.25" style="13" customWidth="1"/>
+    <col min="9474" max="9474" width="5.5" style="13" customWidth="1"/>
+    <col min="9475" max="9476" width="2.625" style="13" customWidth="1"/>
+    <col min="9477" max="9477" width="10.75" style="13" customWidth="1"/>
+    <col min="9478" max="9479" width="2.625" style="13" customWidth="1"/>
+    <col min="9480" max="9480" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="8.75" style="13" customWidth="1"/>
+    <col min="9483" max="9483" width="40.25" style="13" customWidth="1"/>
+    <col min="9484" max="9484" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9727" width="9" style="13"/>
+    <col min="9728" max="9728" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="18.25" style="13" customWidth="1"/>
+    <col min="9730" max="9730" width="5.5" style="13" customWidth="1"/>
+    <col min="9731" max="9732" width="2.625" style="13" customWidth="1"/>
+    <col min="9733" max="9733" width="10.75" style="13" customWidth="1"/>
+    <col min="9734" max="9735" width="2.625" style="13" customWidth="1"/>
+    <col min="9736" max="9736" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="8.75" style="13" customWidth="1"/>
+    <col min="9739" max="9739" width="40.25" style="13" customWidth="1"/>
+    <col min="9740" max="9740" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9983" width="9" style="13"/>
+    <col min="9984" max="9984" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="18.25" style="13" customWidth="1"/>
+    <col min="9986" max="9986" width="5.5" style="13" customWidth="1"/>
+    <col min="9987" max="9988" width="2.625" style="13" customWidth="1"/>
+    <col min="9989" max="9989" width="10.75" style="13" customWidth="1"/>
+    <col min="9990" max="9991" width="2.625" style="13" customWidth="1"/>
+    <col min="9992" max="9992" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="8.75" style="13" customWidth="1"/>
+    <col min="9995" max="9995" width="40.25" style="13" customWidth="1"/>
+    <col min="9996" max="9996" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10239" width="9" style="13"/>
+    <col min="10240" max="10240" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="18.25" style="13" customWidth="1"/>
+    <col min="10242" max="10242" width="5.5" style="13" customWidth="1"/>
+    <col min="10243" max="10244" width="2.625" style="13" customWidth="1"/>
+    <col min="10245" max="10245" width="10.75" style="13" customWidth="1"/>
+    <col min="10246" max="10247" width="2.625" style="13" customWidth="1"/>
+    <col min="10248" max="10248" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="8.75" style="13" customWidth="1"/>
+    <col min="10251" max="10251" width="40.25" style="13" customWidth="1"/>
+    <col min="10252" max="10252" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10495" width="9" style="13"/>
+    <col min="10496" max="10496" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="18.25" style="13" customWidth="1"/>
+    <col min="10498" max="10498" width="5.5" style="13" customWidth="1"/>
+    <col min="10499" max="10500" width="2.625" style="13" customWidth="1"/>
+    <col min="10501" max="10501" width="10.75" style="13" customWidth="1"/>
+    <col min="10502" max="10503" width="2.625" style="13" customWidth="1"/>
+    <col min="10504" max="10504" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="8.75" style="13" customWidth="1"/>
+    <col min="10507" max="10507" width="40.25" style="13" customWidth="1"/>
+    <col min="10508" max="10508" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10751" width="9" style="13"/>
+    <col min="10752" max="10752" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="18.25" style="13" customWidth="1"/>
+    <col min="10754" max="10754" width="5.5" style="13" customWidth="1"/>
+    <col min="10755" max="10756" width="2.625" style="13" customWidth="1"/>
+    <col min="10757" max="10757" width="10.75" style="13" customWidth="1"/>
+    <col min="10758" max="10759" width="2.625" style="13" customWidth="1"/>
+    <col min="10760" max="10760" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="8.75" style="13" customWidth="1"/>
+    <col min="10763" max="10763" width="40.25" style="13" customWidth="1"/>
+    <col min="10764" max="10764" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10769" max="11007" width="9" style="13"/>
+    <col min="11008" max="11008" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="18.25" style="13" customWidth="1"/>
+    <col min="11010" max="11010" width="5.5" style="13" customWidth="1"/>
+    <col min="11011" max="11012" width="2.625" style="13" customWidth="1"/>
+    <col min="11013" max="11013" width="10.75" style="13" customWidth="1"/>
+    <col min="11014" max="11015" width="2.625" style="13" customWidth="1"/>
+    <col min="11016" max="11016" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="8.75" style="13" customWidth="1"/>
+    <col min="11019" max="11019" width="40.25" style="13" customWidth="1"/>
+    <col min="11020" max="11020" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11263" width="9" style="13"/>
+    <col min="11264" max="11264" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="18.25" style="13" customWidth="1"/>
+    <col min="11266" max="11266" width="5.5" style="13" customWidth="1"/>
+    <col min="11267" max="11268" width="2.625" style="13" customWidth="1"/>
+    <col min="11269" max="11269" width="10.75" style="13" customWidth="1"/>
+    <col min="11270" max="11271" width="2.625" style="13" customWidth="1"/>
+    <col min="11272" max="11272" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="8.75" style="13" customWidth="1"/>
+    <col min="11275" max="11275" width="40.25" style="13" customWidth="1"/>
+    <col min="11276" max="11276" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11519" width="9" style="13"/>
+    <col min="11520" max="11520" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="18.25" style="13" customWidth="1"/>
+    <col min="11522" max="11522" width="5.5" style="13" customWidth="1"/>
+    <col min="11523" max="11524" width="2.625" style="13" customWidth="1"/>
+    <col min="11525" max="11525" width="10.75" style="13" customWidth="1"/>
+    <col min="11526" max="11527" width="2.625" style="13" customWidth="1"/>
+    <col min="11528" max="11528" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="8.75" style="13" customWidth="1"/>
+    <col min="11531" max="11531" width="40.25" style="13" customWidth="1"/>
+    <col min="11532" max="11532" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11775" width="9" style="13"/>
+    <col min="11776" max="11776" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="18.25" style="13" customWidth="1"/>
+    <col min="11778" max="11778" width="5.5" style="13" customWidth="1"/>
+    <col min="11779" max="11780" width="2.625" style="13" customWidth="1"/>
+    <col min="11781" max="11781" width="10.75" style="13" customWidth="1"/>
+    <col min="11782" max="11783" width="2.625" style="13" customWidth="1"/>
+    <col min="11784" max="11784" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="8.75" style="13" customWidth="1"/>
+    <col min="11787" max="11787" width="40.25" style="13" customWidth="1"/>
+    <col min="11788" max="11788" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11793" max="12031" width="9" style="13"/>
+    <col min="12032" max="12032" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="18.25" style="13" customWidth="1"/>
+    <col min="12034" max="12034" width="5.5" style="13" customWidth="1"/>
+    <col min="12035" max="12036" width="2.625" style="13" customWidth="1"/>
+    <col min="12037" max="12037" width="10.75" style="13" customWidth="1"/>
+    <col min="12038" max="12039" width="2.625" style="13" customWidth="1"/>
+    <col min="12040" max="12040" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="8.75" style="13" customWidth="1"/>
+    <col min="12043" max="12043" width="40.25" style="13" customWidth="1"/>
+    <col min="12044" max="12044" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12287" width="9" style="13"/>
+    <col min="12288" max="12288" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="18.25" style="13" customWidth="1"/>
+    <col min="12290" max="12290" width="5.5" style="13" customWidth="1"/>
+    <col min="12291" max="12292" width="2.625" style="13" customWidth="1"/>
+    <col min="12293" max="12293" width="10.75" style="13" customWidth="1"/>
+    <col min="12294" max="12295" width="2.625" style="13" customWidth="1"/>
+    <col min="12296" max="12296" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="8.75" style="13" customWidth="1"/>
+    <col min="12299" max="12299" width="40.25" style="13" customWidth="1"/>
+    <col min="12300" max="12300" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12543" width="9" style="13"/>
+    <col min="12544" max="12544" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="18.25" style="13" customWidth="1"/>
+    <col min="12546" max="12546" width="5.5" style="13" customWidth="1"/>
+    <col min="12547" max="12548" width="2.625" style="13" customWidth="1"/>
+    <col min="12549" max="12549" width="10.75" style="13" customWidth="1"/>
+    <col min="12550" max="12551" width="2.625" style="13" customWidth="1"/>
+    <col min="12552" max="12552" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="8.75" style="13" customWidth="1"/>
+    <col min="12555" max="12555" width="40.25" style="13" customWidth="1"/>
+    <col min="12556" max="12556" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12799" width="9" style="13"/>
+    <col min="12800" max="12800" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="18.25" style="13" customWidth="1"/>
+    <col min="12802" max="12802" width="5.5" style="13" customWidth="1"/>
+    <col min="12803" max="12804" width="2.625" style="13" customWidth="1"/>
+    <col min="12805" max="12805" width="10.75" style="13" customWidth="1"/>
+    <col min="12806" max="12807" width="2.625" style="13" customWidth="1"/>
+    <col min="12808" max="12808" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="8.75" style="13" customWidth="1"/>
+    <col min="12811" max="12811" width="40.25" style="13" customWidth="1"/>
+    <col min="12812" max="12812" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12817" max="13055" width="9" style="13"/>
+    <col min="13056" max="13056" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="18.25" style="13" customWidth="1"/>
+    <col min="13058" max="13058" width="5.5" style="13" customWidth="1"/>
+    <col min="13059" max="13060" width="2.625" style="13" customWidth="1"/>
+    <col min="13061" max="13061" width="10.75" style="13" customWidth="1"/>
+    <col min="13062" max="13063" width="2.625" style="13" customWidth="1"/>
+    <col min="13064" max="13064" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="8.75" style="13" customWidth="1"/>
+    <col min="13067" max="13067" width="40.25" style="13" customWidth="1"/>
+    <col min="13068" max="13068" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13311" width="9" style="13"/>
+    <col min="13312" max="13312" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="18.25" style="13" customWidth="1"/>
+    <col min="13314" max="13314" width="5.5" style="13" customWidth="1"/>
+    <col min="13315" max="13316" width="2.625" style="13" customWidth="1"/>
+    <col min="13317" max="13317" width="10.75" style="13" customWidth="1"/>
+    <col min="13318" max="13319" width="2.625" style="13" customWidth="1"/>
+    <col min="13320" max="13320" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="8.75" style="13" customWidth="1"/>
+    <col min="13323" max="13323" width="40.25" style="13" customWidth="1"/>
+    <col min="13324" max="13324" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13567" width="9" style="13"/>
+    <col min="13568" max="13568" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="18.25" style="13" customWidth="1"/>
+    <col min="13570" max="13570" width="5.5" style="13" customWidth="1"/>
+    <col min="13571" max="13572" width="2.625" style="13" customWidth="1"/>
+    <col min="13573" max="13573" width="10.75" style="13" customWidth="1"/>
+    <col min="13574" max="13575" width="2.625" style="13" customWidth="1"/>
+    <col min="13576" max="13576" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="8.75" style="13" customWidth="1"/>
+    <col min="13579" max="13579" width="40.25" style="13" customWidth="1"/>
+    <col min="13580" max="13580" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13823" width="9" style="13"/>
+    <col min="13824" max="13824" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="18.25" style="13" customWidth="1"/>
+    <col min="13826" max="13826" width="5.5" style="13" customWidth="1"/>
+    <col min="13827" max="13828" width="2.625" style="13" customWidth="1"/>
+    <col min="13829" max="13829" width="10.75" style="13" customWidth="1"/>
+    <col min="13830" max="13831" width="2.625" style="13" customWidth="1"/>
+    <col min="13832" max="13832" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="8.75" style="13" customWidth="1"/>
+    <col min="13835" max="13835" width="40.25" style="13" customWidth="1"/>
+    <col min="13836" max="13836" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13841" max="14079" width="9" style="13"/>
+    <col min="14080" max="14080" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="18.25" style="13" customWidth="1"/>
+    <col min="14082" max="14082" width="5.5" style="13" customWidth="1"/>
+    <col min="14083" max="14084" width="2.625" style="13" customWidth="1"/>
+    <col min="14085" max="14085" width="10.75" style="13" customWidth="1"/>
+    <col min="14086" max="14087" width="2.625" style="13" customWidth="1"/>
+    <col min="14088" max="14088" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="8.75" style="13" customWidth="1"/>
+    <col min="14091" max="14091" width="40.25" style="13" customWidth="1"/>
+    <col min="14092" max="14092" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14335" width="9" style="13"/>
+    <col min="14336" max="14336" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="18.25" style="13" customWidth="1"/>
+    <col min="14338" max="14338" width="5.5" style="13" customWidth="1"/>
+    <col min="14339" max="14340" width="2.625" style="13" customWidth="1"/>
+    <col min="14341" max="14341" width="10.75" style="13" customWidth="1"/>
+    <col min="14342" max="14343" width="2.625" style="13" customWidth="1"/>
+    <col min="14344" max="14344" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="8.75" style="13" customWidth="1"/>
+    <col min="14347" max="14347" width="40.25" style="13" customWidth="1"/>
+    <col min="14348" max="14348" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14591" width="9" style="13"/>
+    <col min="14592" max="14592" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="18.25" style="13" customWidth="1"/>
+    <col min="14594" max="14594" width="5.5" style="13" customWidth="1"/>
+    <col min="14595" max="14596" width="2.625" style="13" customWidth="1"/>
+    <col min="14597" max="14597" width="10.75" style="13" customWidth="1"/>
+    <col min="14598" max="14599" width="2.625" style="13" customWidth="1"/>
+    <col min="14600" max="14600" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="8.75" style="13" customWidth="1"/>
+    <col min="14603" max="14603" width="40.25" style="13" customWidth="1"/>
+    <col min="14604" max="14604" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14847" width="9" style="13"/>
+    <col min="14848" max="14848" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="18.25" style="13" customWidth="1"/>
+    <col min="14850" max="14850" width="5.5" style="13" customWidth="1"/>
+    <col min="14851" max="14852" width="2.625" style="13" customWidth="1"/>
+    <col min="14853" max="14853" width="10.75" style="13" customWidth="1"/>
+    <col min="14854" max="14855" width="2.625" style="13" customWidth="1"/>
+    <col min="14856" max="14856" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="8.75" style="13" customWidth="1"/>
+    <col min="14859" max="14859" width="40.25" style="13" customWidth="1"/>
+    <col min="14860" max="14860" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14865" max="15103" width="9" style="13"/>
+    <col min="15104" max="15104" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="18.25" style="13" customWidth="1"/>
+    <col min="15106" max="15106" width="5.5" style="13" customWidth="1"/>
+    <col min="15107" max="15108" width="2.625" style="13" customWidth="1"/>
+    <col min="15109" max="15109" width="10.75" style="13" customWidth="1"/>
+    <col min="15110" max="15111" width="2.625" style="13" customWidth="1"/>
+    <col min="15112" max="15112" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="8.75" style="13" customWidth="1"/>
+    <col min="15115" max="15115" width="40.25" style="13" customWidth="1"/>
+    <col min="15116" max="15116" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15359" width="9" style="13"/>
+    <col min="15360" max="15360" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="18.25" style="13" customWidth="1"/>
+    <col min="15362" max="15362" width="5.5" style="13" customWidth="1"/>
+    <col min="15363" max="15364" width="2.625" style="13" customWidth="1"/>
+    <col min="15365" max="15365" width="10.75" style="13" customWidth="1"/>
+    <col min="15366" max="15367" width="2.625" style="13" customWidth="1"/>
+    <col min="15368" max="15368" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="8.75" style="13" customWidth="1"/>
+    <col min="15371" max="15371" width="40.25" style="13" customWidth="1"/>
+    <col min="15372" max="15372" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15615" width="9" style="13"/>
+    <col min="15616" max="15616" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="18.25" style="13" customWidth="1"/>
+    <col min="15618" max="15618" width="5.5" style="13" customWidth="1"/>
+    <col min="15619" max="15620" width="2.625" style="13" customWidth="1"/>
+    <col min="15621" max="15621" width="10.75" style="13" customWidth="1"/>
+    <col min="15622" max="15623" width="2.625" style="13" customWidth="1"/>
+    <col min="15624" max="15624" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="8.75" style="13" customWidth="1"/>
+    <col min="15627" max="15627" width="40.25" style="13" customWidth="1"/>
+    <col min="15628" max="15628" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15871" width="9" style="13"/>
+    <col min="15872" max="15872" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="18.25" style="13" customWidth="1"/>
+    <col min="15874" max="15874" width="5.5" style="13" customWidth="1"/>
+    <col min="15875" max="15876" width="2.625" style="13" customWidth="1"/>
+    <col min="15877" max="15877" width="10.75" style="13" customWidth="1"/>
+    <col min="15878" max="15879" width="2.625" style="13" customWidth="1"/>
+    <col min="15880" max="15880" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="8.75" style="13" customWidth="1"/>
+    <col min="15883" max="15883" width="40.25" style="13" customWidth="1"/>
+    <col min="15884" max="15884" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15889" max="16127" width="9" style="13"/>
+    <col min="16128" max="16128" width="3.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="18.25" style="13" customWidth="1"/>
+    <col min="16130" max="16130" width="5.5" style="13" customWidth="1"/>
+    <col min="16131" max="16132" width="2.625" style="13" customWidth="1"/>
+    <col min="16133" max="16133" width="10.75" style="13" customWidth="1"/>
+    <col min="16134" max="16135" width="2.625" style="13" customWidth="1"/>
+    <col min="16136" max="16136" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="4.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="8.75" style="13" customWidth="1"/>
+    <col min="16139" max="16139" width="40.25" style="13" customWidth="1"/>
+    <col min="16140" max="16140" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16145" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="22.5">
+    <row r="1" spans="1:255" ht="22.5">
       <c r="A1" s="46" t="s">
         <v>227</v>
       </c>
@@ -7947,17 +8102,17 @@
       <c r="F1" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:254" ht="12">
+    <row r="2" spans="1:255" ht="12">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -7971,28 +8126,28 @@
         <v>42</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="G2" s="13">
+      <c r="H2" s="13">
         <v>8.5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="I2" s="18">
         <v>42</v>
       </c>
-      <c r="I2" s="13">
-        <f>G2*H2</f>
+      <c r="J2" s="13">
+        <f>H2*I2</f>
         <v>357</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="M2" s="13">
+      <c r="N2" s="13">
         <v>10.8</v>
       </c>
-      <c r="N2" s="13">
-        <f>H2*M2</f>
+      <c r="O2" s="13">
+        <f>I2*N2</f>
         <v>453.6</v>
       </c>
     </row>
-    <row r="3" spans="1:254" ht="12">
+    <row r="3" spans="1:255" ht="12">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -8006,28 +8161,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="G3" s="13">
+      <c r="H3" s="13">
         <v>15.09</v>
       </c>
-      <c r="H3" s="18">
+      <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
-        <f t="shared" ref="I3:I12" si="0">G3*H3</f>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J12" si="0">H3*I3</f>
         <v>15.09</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="13">
         <v>18.16</v>
       </c>
-      <c r="N3" s="13">
-        <f t="shared" ref="N3:N12" si="1">H3*M3</f>
+      <c r="O3" s="13">
+        <f t="shared" ref="O3:O12" si="1">I3*N3</f>
         <v>18.16</v>
       </c>
     </row>
-    <row r="4" spans="1:254" ht="12">
+    <row r="4" spans="1:255" ht="12">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -8041,28 +8196,28 @@
         <v>3</v>
       </c>
       <c r="E4" s="17"/>
-      <c r="G4" s="13">
+      <c r="H4" s="13">
         <v>48.8</v>
       </c>
-      <c r="H4" s="18">
+      <c r="I4" s="18">
         <v>3</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>146.39999999999998</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="13">
+      <c r="N4" s="13">
         <v>59.99</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <f t="shared" si="1"/>
         <v>179.97</v>
       </c>
     </row>
-    <row r="5" spans="1:254" ht="12">
+    <row r="5" spans="1:255" ht="12">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -8076,28 +8231,28 @@
         <v>6</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="G5" s="13">
+      <c r="H5" s="13">
         <v>14.92</v>
       </c>
-      <c r="H5" s="18">
+      <c r="I5" s="18">
         <v>6</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>89.52</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="13">
         <v>16.18</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <f t="shared" si="1"/>
         <v>97.08</v>
       </c>
     </row>
-    <row r="6" spans="1:254" s="16" customFormat="1" ht="12">
+    <row r="6" spans="1:255" s="16" customFormat="1" ht="12">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -8112,29 +8267,29 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>39.799999999999997</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <v>1</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>39.799999999999997</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="13">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13">
         <v>50.88</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="13">
         <f t="shared" si="1"/>
         <v>50.88</v>
       </c>
-      <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -8374,8 +8529,9 @@
       <c r="IR6" s="13"/>
       <c r="IS6" s="13"/>
       <c r="IT6" s="13"/>
-    </row>
-    <row r="7" spans="1:254" ht="12">
+      <c r="IU6" s="13"/>
+    </row>
+    <row r="7" spans="1:255" ht="12">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -8389,28 +8545,28 @@
         <v>3</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>9.7200000000000006</v>
       </c>
-      <c r="H7" s="18">
+      <c r="I7" s="18">
         <v>3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>29.160000000000004</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>11.52</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <f t="shared" si="1"/>
         <v>34.56</v>
       </c>
     </row>
-    <row r="8" spans="1:254" ht="12">
+    <row r="8" spans="1:255" ht="12">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -8424,28 +8580,28 @@
         <v>2</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="G8" s="13">
+      <c r="H8" s="13">
         <v>13.64</v>
       </c>
-      <c r="H8" s="18">
+      <c r="I8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>27.28</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>13.35</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <f t="shared" si="1"/>
         <v>26.7</v>
       </c>
     </row>
-    <row r="9" spans="1:254" ht="12">
+    <row r="9" spans="1:255" ht="12">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -8459,28 +8615,28 @@
         <v>3</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="G9" s="13">
+      <c r="H9" s="13">
         <v>18.55</v>
       </c>
-      <c r="H9" s="18">
+      <c r="I9" s="18">
         <v>3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>55.650000000000006</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="13">
+      <c r="N9" s="13">
         <v>17.28</v>
       </c>
-      <c r="N9" s="13">
+      <c r="O9" s="13">
         <f t="shared" si="1"/>
         <v>51.84</v>
       </c>
     </row>
-    <row r="10" spans="1:254" ht="12">
+    <row r="10" spans="1:255" ht="12">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -8494,28 +8650,28 @@
         <v>5</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="G10" s="13">
+      <c r="H10" s="13">
         <v>12.1</v>
       </c>
-      <c r="H10" s="18">
+      <c r="I10" s="18">
         <v>5</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="13">
+      <c r="N10" s="13">
         <v>11.52</v>
       </c>
-      <c r="N10" s="13">
+      <c r="O10" s="13">
         <f t="shared" si="1"/>
         <v>57.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:254" ht="12">
+    <row r="11" spans="1:255" ht="12">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -8529,28 +8685,28 @@
         <v>2</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="G11" s="13">
+      <c r="H11" s="13">
         <v>16.02</v>
       </c>
-      <c r="H11" s="18">
+      <c r="I11" s="18">
         <v>2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>32.04</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="M11" s="13">
+      <c r="N11" s="13">
         <v>15.12</v>
       </c>
-      <c r="N11" s="13">
+      <c r="O11" s="13">
         <f t="shared" si="1"/>
         <v>30.24</v>
       </c>
     </row>
-    <row r="12" spans="1:254" ht="12">
+    <row r="12" spans="1:255" ht="12">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -8564,28 +8720,28 @@
         <v>1</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="G12" s="13">
+      <c r="H12" s="13">
         <v>20.94</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>20.94</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="M12" s="13">
+      <c r="N12" s="13">
         <v>20.16</v>
       </c>
-      <c r="N12" s="13">
+      <c r="O12" s="13">
         <f t="shared" si="1"/>
         <v>20.16</v>
       </c>
     </row>
-    <row r="13" spans="1:254" ht="12">
+    <row r="13" spans="1:255" ht="12">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -8602,22 +8758,22 @@
       <c r="F13" s="13">
         <v>-10</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I13" s="13">
         <v>1</v>
       </c>
-      <c r="I13" s="13">
-        <f>F13*H13</f>
+      <c r="J13" s="13">
+        <f>F13*I13</f>
         <v>-10</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="N13" s="13">
-        <f>SUM(N2:N12)</f>
+      <c r="O13" s="13">
+        <f>SUM(O2:O12)</f>
         <v>1020.7900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:254" ht="12">
+    <row r="14" spans="1:255" ht="12">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -8631,13 +8787,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="13">
-        <f>SUM(I2:I13)</f>
+      <c r="J14" s="21"/>
+      <c r="K14" s="13">
+        <f>SUM(J2:J13)</f>
         <v>863.37999999999988</v>
       </c>
     </row>
-    <row r="15" spans="1:254">
+    <row r="15" spans="1:255">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -8651,19 +8807,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="G15" s="13">
+      <c r="H15" s="13">
         <v>39.93</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I15" s="13">
         <v>25</v>
       </c>
-      <c r="I15" s="13">
-        <f>G15*H15</f>
+      <c r="J15" s="13">
+        <f>H15*I15</f>
         <v>998.25</v>
       </c>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:254" ht="13.5">
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:255" ht="13.5">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -8680,23 +8836,23 @@
       <c r="F16" s="13">
         <v>-40</v>
       </c>
-      <c r="H16" s="13">
+      <c r="I16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="13">
-        <f>F16*H16</f>
+      <c r="J16" s="13">
+        <f>F16*I16</f>
         <v>-40</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="K16" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" ht="13.5">
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" ht="13.5">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -8710,18 +8866,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23">
-        <f>I15+I16</f>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23">
+        <f>J15+J16</f>
         <v>958.25</v>
       </c>
-      <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" ht="13.5">
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" ht="13.5">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -8735,14 +8891,14 @@
         <v>7</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" ht="13.5">
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" ht="13.5">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -8756,24 +8912,24 @@
         <v>14.4</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="G19" s="13">
+      <c r="H19" s="13">
         <v>12.6</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I19" s="13">
         <v>40</v>
       </c>
-      <c r="I19" s="13">
-        <f>G19*H19</f>
+      <c r="J19" s="13">
+        <f>H19*I19</f>
         <v>504</v>
       </c>
-      <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" ht="13.5">
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" ht="13.5">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -8787,24 +8943,24 @@
         <v>8</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="G20" s="13">
+      <c r="H20" s="13">
         <v>12</v>
       </c>
-      <c r="H20" s="13">
+      <c r="I20" s="13">
         <v>6</v>
       </c>
-      <c r="I20" s="13">
-        <f>G20*H20</f>
+      <c r="J20" s="13">
+        <f>H20*I20</f>
         <v>72</v>
       </c>
-      <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" ht="13.5">
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" ht="13.5">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -8818,18 +8974,18 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23">
-        <f>I19+I20</f>
+      <c r="J21" s="21"/>
+      <c r="K21" s="23">
+        <f>J19+J20</f>
         <v>576</v>
       </c>
-      <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
-    </row>
-    <row r="22" spans="1:15" ht="13.5">
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" ht="13.5">
       <c r="A22" s="14">
         <v>23</v>
       </c>
@@ -8843,26 +8999,26 @@
         <v>1</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="G22" s="13">
+      <c r="H22" s="13">
         <v>605</v>
       </c>
-      <c r="H22" s="13">
+      <c r="I22" s="13">
         <v>1</v>
       </c>
-      <c r="I22" s="13">
-        <f>G22*H22</f>
+      <c r="J22" s="13">
+        <f>H22*I22</f>
         <v>605</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="K22" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
-    </row>
-    <row r="23" spans="1:15" ht="13.5">
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" ht="13.5">
       <c r="A23" s="14">
         <v>24</v>
       </c>
@@ -8876,24 +9032,24 @@
         <v>2</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="G23" s="13">
+      <c r="H23" s="13">
         <v>39</v>
       </c>
-      <c r="H23" s="13">
+      <c r="I23" s="13">
         <v>2</v>
       </c>
-      <c r="I23" s="13">
-        <f>G23*H23</f>
+      <c r="J23" s="13">
+        <f>H23*I23</f>
         <v>78</v>
       </c>
-      <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" ht="13.5">
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" ht="13.5">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -8910,24 +9066,24 @@
       <c r="F24" s="13">
         <v>-10</v>
       </c>
-      <c r="G24" s="30">
+      <c r="H24" s="30">
         <v>199</v>
       </c>
-      <c r="H24" s="13">
+      <c r="I24" s="13">
         <v>1</v>
       </c>
-      <c r="I24" s="13">
-        <f>H24*G24+F24</f>
+      <c r="J24" s="13">
+        <f>I24*H24+F24</f>
         <v>189</v>
       </c>
-      <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" ht="13.5">
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" ht="13.5">
       <c r="A25" s="14">
         <v>22</v>
       </c>
@@ -8944,24 +9100,24 @@
       <c r="F25" s="13">
         <v>-10</v>
       </c>
-      <c r="G25" s="30">
+      <c r="H25" s="30">
         <v>558</v>
       </c>
-      <c r="H25" s="13">
+      <c r="I25" s="13">
         <v>1</v>
       </c>
-      <c r="I25" s="13">
-        <f t="shared" ref="I25:I26" si="2">H25*G25+F25</f>
+      <c r="J25" s="13">
+        <f t="shared" ref="J25:J26" si="2">I25*H25+F25</f>
         <v>548</v>
       </c>
-      <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" ht="12">
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" ht="12">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -8978,19 +9134,19 @@
       <c r="F26" s="13">
         <v>-10</v>
       </c>
-      <c r="G26" s="31">
+      <c r="H26" s="31">
         <v>299</v>
       </c>
-      <c r="H26" s="13">
+      <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="13">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" ht="12">
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" ht="12">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -9004,19 +9160,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="G27" s="24">
+      <c r="H27" s="24">
         <v>235</v>
       </c>
-      <c r="H27" s="13">
+      <c r="I27" s="13">
         <v>1</v>
       </c>
-      <c r="I27" s="13">
-        <f t="shared" ref="I27:I28" si="3">G27*H27</f>
+      <c r="J27" s="13">
+        <f t="shared" ref="J27:J28" si="3">H27*I27</f>
         <v>235</v>
       </c>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:15" ht="12">
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" ht="12">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -9030,19 +9186,19 @@
         <v>1</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="G28" s="24">
+      <c r="H28" s="24">
         <v>126</v>
       </c>
-      <c r="H28" s="13">
+      <c r="I28" s="13">
         <v>1</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" ht="12">
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" ht="12">
       <c r="A29" s="14">
         <v>25</v>
       </c>
@@ -9056,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="G29" s="24"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:15" ht="12">
+      <c r="H29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" ht="12">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -9076,7 +9232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12">
+    <row r="31" spans="1:16" ht="12">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -9093,7 +9249,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12">
+    <row r="32" spans="1:16" ht="12">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -9107,14 +9263,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="25"/>
-      <c r="G32" s="13">
+      <c r="H32" s="13">
         <v>9.9</v>
       </c>
-      <c r="H32" s="13">
+      <c r="I32" s="13">
         <v>10</v>
       </c>
-      <c r="I32" s="13">
-        <f>G32*H32</f>
+      <c r="J32" s="13">
+        <f>H32*I32</f>
         <v>99</v>
       </c>
     </row>
@@ -10543,63 +10699,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="E2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>409</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>411</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>41044</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>412</v>
-      </c>
-      <c r="C2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>41634</v>
-      </c>
-      <c r="B3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>40909</v>
-      </c>
-      <c r="B4" t="s">
-        <v>414</v>
       </c>
       <c r="C4">
         <v>40000</v>
+      </c>
+      <c r="E4">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>41673</v>
+      </c>
+      <c r="B7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7">
+        <v>62000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>